--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -766,13 +766,17 @@
         <v>114.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>114</v>
+      </c>
+      <c r="K11" t="n">
+        <v>114</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -801,14 +805,22 @@
         <v>115</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>115</v>
+      </c>
+      <c r="K12" t="n">
+        <v>114</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -842,8 +854,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>114</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -1431,17 +1449,13 @@
         <v>114</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>114</v>
-      </c>
-      <c r="K30" t="n">
-        <v>114</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1470,22 +1484,14 @@
         <v>114</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>114</v>
-      </c>
-      <c r="K31" t="n">
-        <v>114</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1513,22 +1519,14 @@
         <v>114.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>115</v>
-      </c>
-      <c r="K32" t="n">
-        <v>114</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1556,17 +1554,13 @@
         <v>114.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>114</v>
-      </c>
-      <c r="K33" t="n">
-        <v>114</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
@@ -1601,444 +1595,368 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>114</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>114</v>
+      </c>
+      <c r="C35" t="n">
+        <v>113</v>
+      </c>
+      <c r="D35" t="n">
+        <v>114</v>
+      </c>
+      <c r="E35" t="n">
+        <v>113</v>
+      </c>
+      <c r="F35" t="n">
+        <v>152</v>
+      </c>
+      <c r="G35" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>113</v>
+      </c>
+      <c r="C36" t="n">
+        <v>113</v>
+      </c>
+      <c r="D36" t="n">
+        <v>113</v>
+      </c>
+      <c r="E36" t="n">
+        <v>113</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9321.3115</v>
+      </c>
+      <c r="G36" t="n">
+        <v>113</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>114</v>
+      </c>
+      <c r="C37" t="n">
+        <v>114</v>
+      </c>
+      <c r="D37" t="n">
+        <v>114</v>
+      </c>
+      <c r="E37" t="n">
+        <v>114</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>113</v>
+      </c>
+      <c r="C38" t="n">
+        <v>113</v>
+      </c>
+      <c r="D38" t="n">
+        <v>113</v>
+      </c>
+      <c r="E38" t="n">
+        <v>113</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>112</v>
+      </c>
+      <c r="C39" t="n">
+        <v>111</v>
+      </c>
+      <c r="D39" t="n">
+        <v>112</v>
+      </c>
+      <c r="E39" t="n">
+        <v>111</v>
+      </c>
+      <c r="F39" t="n">
+        <v>29368.7103</v>
+      </c>
+      <c r="G39" t="n">
+        <v>112</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>112</v>
+      </c>
+      <c r="C40" t="n">
+        <v>112</v>
+      </c>
+      <c r="D40" t="n">
+        <v>112</v>
+      </c>
+      <c r="E40" t="n">
+        <v>112</v>
+      </c>
+      <c r="F40" t="n">
+        <v>233.7191</v>
+      </c>
+      <c r="G40" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>111</v>
+      </c>
+      <c r="C41" t="n">
+        <v>111</v>
+      </c>
+      <c r="D41" t="n">
+        <v>111</v>
+      </c>
+      <c r="E41" t="n">
+        <v>111</v>
+      </c>
+      <c r="F41" t="n">
+        <v>19283.9393</v>
+      </c>
+      <c r="G41" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>111</v>
+      </c>
+      <c r="C42" t="n">
+        <v>112</v>
+      </c>
+      <c r="D42" t="n">
+        <v>114</v>
+      </c>
+      <c r="E42" t="n">
+        <v>111</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10531.1507</v>
+      </c>
+      <c r="G42" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>114</v>
+      </c>
+      <c r="C43" t="n">
+        <v>114</v>
+      </c>
+      <c r="D43" t="n">
+        <v>114</v>
+      </c>
+      <c r="E43" t="n">
+        <v>114</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>113</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>112</v>
+      </c>
+      <c r="K43" t="n">
+        <v>112</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>112</v>
+      </c>
+      <c r="C44" t="n">
+        <v>113</v>
+      </c>
+      <c r="D44" t="n">
+        <v>113</v>
+      </c>
+      <c r="E44" t="n">
+        <v>112</v>
+      </c>
+      <c r="F44" t="n">
+        <v>111.3729</v>
+      </c>
+      <c r="G44" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>112</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>114</v>
-      </c>
-      <c r="C35" t="n">
-        <v>113</v>
-      </c>
-      <c r="D35" t="n">
-        <v>114</v>
-      </c>
-      <c r="E35" t="n">
-        <v>113</v>
-      </c>
-      <c r="F35" t="n">
-        <v>152</v>
-      </c>
-      <c r="G35" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>114</v>
-      </c>
-      <c r="K35" t="n">
-        <v>114</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>113</v>
-      </c>
-      <c r="C36" t="n">
-        <v>113</v>
-      </c>
-      <c r="D36" t="n">
-        <v>113</v>
-      </c>
-      <c r="E36" t="n">
-        <v>113</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9321.3115</v>
-      </c>
-      <c r="G36" t="n">
-        <v>113</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>113</v>
-      </c>
-      <c r="K36" t="n">
-        <v>114</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>114</v>
-      </c>
-      <c r="C37" t="n">
-        <v>114</v>
-      </c>
-      <c r="D37" t="n">
-        <v>114</v>
-      </c>
-      <c r="E37" t="n">
-        <v>114</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>114</v>
-      </c>
-      <c r="K37" t="n">
-        <v>114</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>113</v>
-      </c>
-      <c r="C38" t="n">
-        <v>113</v>
-      </c>
-      <c r="D38" t="n">
-        <v>113</v>
-      </c>
-      <c r="E38" t="n">
-        <v>113</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>113</v>
-      </c>
-      <c r="K38" t="n">
-        <v>114</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>112</v>
-      </c>
-      <c r="C39" t="n">
-        <v>111</v>
-      </c>
-      <c r="D39" t="n">
-        <v>112</v>
-      </c>
-      <c r="E39" t="n">
-        <v>111</v>
-      </c>
-      <c r="F39" t="n">
-        <v>29368.7103</v>
-      </c>
-      <c r="G39" t="n">
-        <v>112</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>112</v>
-      </c>
-      <c r="K39" t="n">
-        <v>114</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>112</v>
-      </c>
-      <c r="C40" t="n">
-        <v>112</v>
-      </c>
-      <c r="D40" t="n">
-        <v>112</v>
-      </c>
-      <c r="E40" t="n">
-        <v>112</v>
-      </c>
-      <c r="F40" t="n">
-        <v>233.7191</v>
-      </c>
-      <c r="G40" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>112</v>
-      </c>
-      <c r="K40" t="n">
-        <v>114</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>111</v>
-      </c>
-      <c r="C41" t="n">
-        <v>111</v>
-      </c>
-      <c r="D41" t="n">
-        <v>111</v>
-      </c>
-      <c r="E41" t="n">
-        <v>111</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19283.9393</v>
-      </c>
-      <c r="G41" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>111</v>
-      </c>
-      <c r="K41" t="n">
-        <v>114</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>111</v>
-      </c>
-      <c r="C42" t="n">
-        <v>112</v>
-      </c>
-      <c r="D42" t="n">
-        <v>114</v>
-      </c>
-      <c r="E42" t="n">
-        <v>111</v>
-      </c>
-      <c r="F42" t="n">
-        <v>10531.1507</v>
-      </c>
-      <c r="G42" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>111</v>
-      </c>
-      <c r="K42" t="n">
-        <v>114</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>114</v>
-      </c>
-      <c r="C43" t="n">
-        <v>114</v>
-      </c>
-      <c r="D43" t="n">
-        <v>114</v>
-      </c>
-      <c r="E43" t="n">
-        <v>114</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>113</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>114</v>
-      </c>
-      <c r="K43" t="n">
-        <v>114</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>112</v>
-      </c>
-      <c r="C44" t="n">
-        <v>113</v>
-      </c>
-      <c r="D44" t="n">
-        <v>113</v>
-      </c>
-      <c r="E44" t="n">
-        <v>112</v>
-      </c>
-      <c r="F44" t="n">
-        <v>111.3729</v>
-      </c>
-      <c r="G44" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>112</v>
-      </c>
-      <c r="K44" t="n">
-        <v>114</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2066,16 +1984,14 @@
         <v>113</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>113</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2109,16 +2025,14 @@
         <v>112.5</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>114</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2158,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K47" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2195,16 +2109,14 @@
         <v>114.5</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>114</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2238,16 +2150,14 @@
         <v>114.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>114</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2281,16 +2191,14 @@
         <v>114.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>115</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2324,16 +2232,14 @@
         <v>116</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>116</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2367,16 +2273,14 @@
         <v>118</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>118</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2417,7 +2321,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2458,7 +2362,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2499,7 +2403,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2540,7 +2444,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2581,7 +2485,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2589,7 +2493,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1.082719298245614</v>
+        <v>1.102142857142857</v>
       </c>
     </row>
     <row r="58">
@@ -3980,13 +3884,17 @@
         <v>119</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>120</v>
+      </c>
+      <c r="K97" t="n">
+        <v>120</v>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
@@ -4021,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>120</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4056,8 +3970,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>120</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" t="n">
-        <v>405.7655</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>115</v>
+        <v>115.8333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>405.7655</v>
       </c>
       <c r="G3" t="n">
-        <v>115</v>
+        <v>115.8333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F4" t="n">
-        <v>6785.2181</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>115.5</v>
+        <v>115.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>114</v>
       </c>
       <c r="C5" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>6785.2181</v>
       </c>
       <c r="G5" t="n">
-        <v>114.5</v>
+        <v>115.9666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>114.5</v>
+        <v>115.9833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D7" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" t="n">
-        <v>946.8235</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>114.5</v>
+        <v>116</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>114</v>
       </c>
       <c r="C8" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" t="n">
         <v>114</v>
       </c>
       <c r="F8" t="n">
-        <v>8519</v>
+        <v>946.8235</v>
       </c>
       <c r="G8" t="n">
-        <v>115</v>
+        <v>115.9833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>8519</v>
       </c>
       <c r="G9" t="n">
-        <v>115.5</v>
+        <v>115.9833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F10" t="n">
-        <v>22.6483</v>
+        <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>114.5</v>
+        <v>115.9666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,35 +748,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>22.6483</v>
       </c>
       <c r="G11" t="n">
-        <v>114.5</v>
+        <v>115.9166666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>114</v>
-      </c>
-      <c r="K11" t="n">
-        <v>114</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -799,28 +795,20 @@
         <v>115</v>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>115</v>
+        <v>115.8666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>115</v>
-      </c>
-      <c r="K12" t="n">
-        <v>114</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -845,7 +833,7 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>115</v>
+        <v>115.85</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -854,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>114</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -871,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" t="n">
-        <v>3664.9032</v>
+        <v>300</v>
       </c>
       <c r="G14" t="n">
-        <v>114.5</v>
+        <v>115.8166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -909,19 +891,19 @@
         <v>114</v>
       </c>
       <c r="C15" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" t="n">
         <v>114</v>
       </c>
       <c r="F15" t="n">
-        <v>3130.5737</v>
+        <v>3664.9032</v>
       </c>
       <c r="G15" t="n">
-        <v>114.5</v>
+        <v>115.7666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -941,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E16" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" t="n">
-        <v>9193.1389</v>
+        <v>3130.5737</v>
       </c>
       <c r="G16" t="n">
-        <v>114</v>
+        <v>115.75</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -976,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>9193.1389</v>
       </c>
       <c r="G17" t="n">
-        <v>113.5</v>
+        <v>115.7166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1023,10 +1005,10 @@
         <v>114</v>
       </c>
       <c r="F18" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>114</v>
+        <v>115.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1058,10 +1040,10 @@
         <v>114</v>
       </c>
       <c r="F19" t="n">
-        <v>403.1456</v>
+        <v>3000</v>
       </c>
       <c r="G19" t="n">
-        <v>114</v>
+        <v>115.6666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1084,19 +1066,19 @@
         <v>114</v>
       </c>
       <c r="C20" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" t="n">
         <v>114</v>
       </c>
       <c r="F20" t="n">
-        <v>505</v>
+        <v>403.1456</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5</v>
+        <v>115.6166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1116,10 +1098,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" t="n">
         <v>115</v>
@@ -1128,10 +1110,10 @@
         <v>114</v>
       </c>
       <c r="F21" t="n">
-        <v>2200</v>
+        <v>505</v>
       </c>
       <c r="G21" t="n">
-        <v>114.5</v>
+        <v>115.5833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1151,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" t="n">
         <v>114</v>
       </c>
       <c r="D22" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" t="n">
         <v>114</v>
       </c>
       <c r="F22" t="n">
-        <v>2091.8544</v>
+        <v>2200</v>
       </c>
       <c r="G22" t="n">
-        <v>114</v>
+        <v>115.5166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1198,10 +1180,10 @@
         <v>114</v>
       </c>
       <c r="F23" t="n">
-        <v>3000</v>
+        <v>2091.8544</v>
       </c>
       <c r="G23" t="n">
-        <v>114</v>
+        <v>115.45</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1233,10 +1215,10 @@
         <v>114</v>
       </c>
       <c r="F24" t="n">
-        <v>2369.6691</v>
+        <v>3000</v>
       </c>
       <c r="G24" t="n">
-        <v>114</v>
+        <v>115.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1256,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>2369.6691</v>
       </c>
       <c r="G25" t="n">
-        <v>114.5</v>
+        <v>115.3333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D26" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" t="n">
-        <v>3222.6088</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>114.5</v>
+        <v>115.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" t="n">
         <v>114</v>
@@ -1335,13 +1317,13 @@
         <v>114</v>
       </c>
       <c r="E27" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" t="n">
-        <v>10277.8203</v>
+        <v>3222.6088</v>
       </c>
       <c r="G27" t="n">
-        <v>114</v>
+        <v>115.25</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1361,10 +1343,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" t="n">
         <v>114</v>
@@ -1373,10 +1355,10 @@
         <v>113</v>
       </c>
       <c r="F28" t="n">
-        <v>3515.9508</v>
+        <v>10277.8203</v>
       </c>
       <c r="G28" t="n">
-        <v>113.5</v>
+        <v>115.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,19 +1381,19 @@
         <v>114</v>
       </c>
       <c r="C29" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" t="n">
         <v>114</v>
       </c>
       <c r="E29" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>3515.9508</v>
       </c>
       <c r="G29" t="n">
-        <v>113.5</v>
+        <v>115.1333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1443,10 +1425,10 @@
         <v>114</v>
       </c>
       <c r="F30" t="n">
-        <v>7067.8203</v>
+        <v>200</v>
       </c>
       <c r="G30" t="n">
-        <v>114</v>
+        <v>115.0833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1478,10 +1460,10 @@
         <v>114</v>
       </c>
       <c r="F31" t="n">
-        <v>520.9508</v>
+        <v>7067.8203</v>
       </c>
       <c r="G31" t="n">
-        <v>114</v>
+        <v>115.0333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1501,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>520.9508</v>
       </c>
       <c r="G32" t="n">
-        <v>114.5</v>
+        <v>114.9833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>114.5</v>
+        <v>114.95</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1571,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" t="n">
         <v>114</v>
       </c>
       <c r="D34" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" t="n">
         <v>114</v>
       </c>
       <c r="F34" t="n">
-        <v>5383.9173</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>114</v>
+        <v>114.9333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1606,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" t="n">
-        <v>152</v>
+        <v>5383.9173</v>
       </c>
       <c r="G35" t="n">
-        <v>113.5</v>
+        <v>114.9166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1641,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" t="n">
         <v>113</v>
       </c>
       <c r="D36" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" t="n">
         <v>113</v>
       </c>
       <c r="F36" t="n">
-        <v>9321.3115</v>
+        <v>152</v>
       </c>
       <c r="G36" t="n">
-        <v>113</v>
+        <v>114.8833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1676,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>9321.3115</v>
       </c>
       <c r="G37" t="n">
-        <v>113.5</v>
+        <v>114.85</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1711,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E38" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>113.5</v>
+        <v>114.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1746,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F39" t="n">
-        <v>29368.7103</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>112</v>
+        <v>114.7666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1784,19 +1766,19 @@
         <v>112</v>
       </c>
       <c r="C40" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" t="n">
         <v>112</v>
       </c>
       <c r="E40" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" t="n">
-        <v>233.7191</v>
+        <v>29368.7103</v>
       </c>
       <c r="G40" t="n">
-        <v>111.5</v>
+        <v>114.6666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1816,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" t="n">
-        <v>19283.9393</v>
+        <v>233.7191</v>
       </c>
       <c r="G41" t="n">
-        <v>111.5</v>
+        <v>114.5833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1854,19 +1836,19 @@
         <v>111</v>
       </c>
       <c r="C42" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" t="n">
         <v>111</v>
       </c>
       <c r="F42" t="n">
-        <v>10531.1507</v>
+        <v>19283.9393</v>
       </c>
       <c r="G42" t="n">
-        <v>111.5</v>
+        <v>114.5166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,35 +1868,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C43" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D43" t="n">
         <v>114</v>
       </c>
       <c r="E43" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>10531.1507</v>
       </c>
       <c r="G43" t="n">
-        <v>113</v>
+        <v>114.4666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>112</v>
-      </c>
-      <c r="K43" t="n">
-        <v>112</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1925,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C44" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D44" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F44" t="n">
-        <v>111.3729</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>113.5</v>
+        <v>114.45</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1949,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>112</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1966,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" t="n">
         <v>113</v>
@@ -1975,13 +1947,13 @@
         <v>113</v>
       </c>
       <c r="E45" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" t="n">
-        <v>10318.4049</v>
+        <v>111.3729</v>
       </c>
       <c r="G45" t="n">
-        <v>113</v>
+        <v>114.4166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1990,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>112</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2007,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46" t="n">
-        <v>30.2548</v>
+        <v>10318.4049</v>
       </c>
       <c r="G46" t="n">
-        <v>112.5</v>
+        <v>114.3666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2031,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>112</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2051,37 +2011,29 @@
         <v>114</v>
       </c>
       <c r="C47" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D47" t="n">
         <v>114</v>
       </c>
       <c r="E47" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F47" t="n">
-        <v>712.0059</v>
+        <v>30.2548</v>
       </c>
       <c r="G47" t="n">
-        <v>113</v>
+        <v>114.3166666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>112</v>
-      </c>
-      <c r="K47" t="n">
-        <v>112</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,19 +2046,19 @@
         <v>114</v>
       </c>
       <c r="C48" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="n">
         <v>114</v>
       </c>
       <c r="F48" t="n">
-        <v>23390.0157</v>
+        <v>712.0059</v>
       </c>
       <c r="G48" t="n">
-        <v>114.5</v>
+        <v>114.2833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2115,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>112</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2135,19 +2081,19 @@
         <v>114</v>
       </c>
       <c r="C49" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" t="n">
         <v>114</v>
       </c>
       <c r="F49" t="n">
-        <v>26261.9396</v>
+        <v>23390.0157</v>
       </c>
       <c r="G49" t="n">
-        <v>114.5</v>
+        <v>114.25</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2156,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>112</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2173,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" t="n">
-        <v>1045.8682</v>
+        <v>26261.9396</v>
       </c>
       <c r="G50" t="n">
-        <v>114.5</v>
+        <v>114.2166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2197,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>112</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2214,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" t="n">
-        <v>4216.7531</v>
+        <v>1045.8682</v>
       </c>
       <c r="G51" t="n">
-        <v>116</v>
+        <v>114.2166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>112</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2255,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E52" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F52" t="n">
-        <v>5813.3412</v>
+        <v>4216.7531</v>
       </c>
       <c r="G52" t="n">
-        <v>118</v>
+        <v>114.2333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2279,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>112</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>118</v>
+      </c>
+      <c r="C53" t="n">
         <v>119</v>
       </c>
-      <c r="C53" t="n">
-        <v>120</v>
-      </c>
       <c r="D53" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" t="n">
-        <v>2866.8743</v>
+        <v>5813.3412</v>
       </c>
       <c r="G53" t="n">
-        <v>119.5</v>
+        <v>114.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2320,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>112</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2340,19 +2256,19 @@
         <v>119</v>
       </c>
       <c r="C54" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D54" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E54" t="n">
         <v>119</v>
       </c>
       <c r="F54" t="n">
-        <v>15056.6372</v>
+        <v>2866.8743</v>
       </c>
       <c r="G54" t="n">
-        <v>121.5</v>
+        <v>114.3833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2361,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>112</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2378,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>119</v>
+      </c>
+      <c r="C55" t="n">
         <v>123</v>
       </c>
-      <c r="C55" t="n">
-        <v>128</v>
-      </c>
       <c r="D55" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E55" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F55" t="n">
-        <v>96951.63278281251</v>
+        <v>15056.6372</v>
       </c>
       <c r="G55" t="n">
-        <v>125.5</v>
+        <v>114.5166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>112</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2419,10 +2323,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>123</v>
+      </c>
+      <c r="C56" t="n">
         <v>128</v>
-      </c>
-      <c r="C56" t="n">
-        <v>124</v>
       </c>
       <c r="D56" t="n">
         <v>128</v>
@@ -2431,10 +2335,10 @@
         <v>123</v>
       </c>
       <c r="F56" t="n">
-        <v>18</v>
+        <v>96951.63278281251</v>
       </c>
       <c r="G56" t="n">
-        <v>126</v>
+        <v>114.7166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2443,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>112</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2460,40 +2358,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C57" t="n">
         <v>124</v>
       </c>
       <c r="D57" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E57" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F57" t="n">
-        <v>421.1546</v>
+        <v>18</v>
       </c>
       <c r="G57" t="n">
-        <v>124</v>
+        <v>114.85</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>112</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>1.102142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2501,28 +2393,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C58" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D58" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E58" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F58" t="n">
-        <v>1769.2185</v>
+        <v>421.1546</v>
       </c>
       <c r="G58" t="n">
-        <v>123</v>
+        <v>114.9833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2536,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C59" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D59" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F59" t="n">
-        <v>95.9603</v>
+        <v>1769.2185</v>
       </c>
       <c r="G59" t="n">
-        <v>121</v>
+        <v>115.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2583,10 +2475,10 @@
         <v>120</v>
       </c>
       <c r="F60" t="n">
-        <v>4.0397</v>
+        <v>95.9603</v>
       </c>
       <c r="G60" t="n">
-        <v>120</v>
+        <v>115.1833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2618,10 +2510,10 @@
         <v>120</v>
       </c>
       <c r="F61" t="n">
-        <v>1637.7626</v>
+        <v>4.0397</v>
       </c>
       <c r="G61" t="n">
-        <v>120</v>
+        <v>115.2666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2641,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>1637.7626</v>
       </c>
       <c r="G62" t="n">
-        <v>120.5</v>
+        <v>115.3333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2679,19 +2571,19 @@
         <v>121</v>
       </c>
       <c r="C63" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" t="n">
         <v>121</v>
       </c>
       <c r="F63" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>121.5</v>
+        <v>115.45</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2714,19 +2606,19 @@
         <v>121</v>
       </c>
       <c r="C64" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D64" t="n">
+        <v>122</v>
+      </c>
+      <c r="E64" t="n">
         <v>121</v>
       </c>
-      <c r="E64" t="n">
-        <v>118</v>
-      </c>
       <c r="F64" t="n">
-        <v>27436.0323</v>
+        <v>106</v>
       </c>
       <c r="G64" t="n">
-        <v>120</v>
+        <v>115.55</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2749,19 +2641,19 @@
         <v>121</v>
       </c>
       <c r="C65" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D65" t="n">
         <v>121</v>
       </c>
       <c r="E65" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>27436.0323</v>
       </c>
       <c r="G65" t="n">
-        <v>119.5</v>
+        <v>115.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2793,10 +2685,10 @@
         <v>121</v>
       </c>
       <c r="F66" t="n">
-        <v>1275.9359</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>121</v>
+        <v>115.7166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2816,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C67" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D67" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F67" t="n">
-        <v>37.9366</v>
+        <v>1275.9359</v>
       </c>
       <c r="G67" t="n">
-        <v>120</v>
+        <v>115.8166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2851,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E68" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>37.9366</v>
       </c>
       <c r="G68" t="n">
-        <v>119.5</v>
+        <v>115.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2898,10 +2790,10 @@
         <v>120</v>
       </c>
       <c r="F69" t="n">
-        <v>160.6892</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>120</v>
+        <v>115.9666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2921,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C70" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D70" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E70" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F70" t="n">
-        <v>4077.2474</v>
+        <v>160.6892</v>
       </c>
       <c r="G70" t="n">
-        <v>119.5</v>
+        <v>116.05</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2956,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C71" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D71" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E71" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>4077.2474</v>
       </c>
       <c r="G71" t="n">
-        <v>119.5</v>
+        <v>116.1333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2991,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D72" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E72" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F72" t="n">
-        <v>838.4775</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>119.5</v>
+        <v>116.2166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3029,19 +2921,19 @@
         <v>119</v>
       </c>
       <c r="C73" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" t="n">
         <v>119</v>
       </c>
       <c r="F73" t="n">
-        <v>385.1198</v>
+        <v>838.4775</v>
       </c>
       <c r="G73" t="n">
-        <v>119.5</v>
+        <v>116.2833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3064,19 +2956,19 @@
         <v>119</v>
       </c>
       <c r="C74" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D74" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E74" t="n">
         <v>119</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>385.1198</v>
       </c>
       <c r="G74" t="n">
-        <v>119.5</v>
+        <v>116.3666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3099,19 +2991,19 @@
         <v>119</v>
       </c>
       <c r="C75" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E75" t="n">
         <v>119</v>
       </c>
       <c r="F75" t="n">
-        <v>21.6304</v>
+        <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>119.5</v>
+        <v>116.45</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3134,19 +3026,19 @@
         <v>119</v>
       </c>
       <c r="C76" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D76" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E76" t="n">
         <v>119</v>
       </c>
       <c r="F76" t="n">
-        <v>3.3696</v>
+        <v>21.6304</v>
       </c>
       <c r="G76" t="n">
-        <v>119.5</v>
+        <v>116.5333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3169,19 +3061,19 @@
         <v>119</v>
       </c>
       <c r="C77" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D77" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E77" t="n">
         <v>119</v>
       </c>
       <c r="F77" t="n">
-        <v>4986.0699</v>
+        <v>3.3696</v>
       </c>
       <c r="G77" t="n">
-        <v>120</v>
+        <v>116.6333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3201,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C78" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E78" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>4986.0699</v>
       </c>
       <c r="G78" t="n">
-        <v>121.5</v>
+        <v>116.75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3236,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C79" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D79" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F79" t="n">
-        <v>1959.347107438017</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>121.5</v>
+        <v>116.8833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3271,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C80" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D80" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E80" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>1959.347107438017</v>
       </c>
       <c r="G80" t="n">
-        <v>119.5</v>
+        <v>117</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3306,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C81" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D81" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E81" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>119</v>
+        <v>117.05</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3341,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C82" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D82" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F82" t="n">
-        <v>31550.9609</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>118</v>
+        <v>117.15</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3376,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C83" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D83" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E83" t="n">
         <v>116</v>
       </c>
       <c r="F83" t="n">
-        <v>575.7155</v>
+        <v>31550.9609</v>
       </c>
       <c r="G83" t="n">
-        <v>118</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3411,32 +3303,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D84" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E84" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F84" t="n">
-        <v>9627.4552</v>
+        <v>575.7155</v>
       </c>
       <c r="G84" t="n">
-        <v>117.5</v>
+        <v>117.2833333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>116</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3446,32 +3344,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D85" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F85" t="n">
-        <v>4.3</v>
+        <v>9627.4552</v>
       </c>
       <c r="G85" t="n">
-        <v>115.5</v>
+        <v>117.3</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>120</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3481,32 +3385,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D86" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E86" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F86" t="n">
-        <v>2475.7591</v>
+        <v>4.3</v>
       </c>
       <c r="G86" t="n">
-        <v>115</v>
+        <v>117.3166666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>115</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D87" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E87" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>2475.7591</v>
       </c>
       <c r="G87" t="n">
-        <v>115</v>
+        <v>117.3166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3541,7 +3451,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3551,22 +3465,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F88" t="n">
-        <v>1307.2258</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>115.5</v>
+        <v>117.35</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3576,7 +3490,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3504,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>1307.2258</v>
       </c>
       <c r="G89" t="n">
-        <v>115.5</v>
+        <v>117.3833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3611,7 +3529,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3621,7 +3543,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C90" t="n">
         <v>116</v>
@@ -3630,13 +3552,13 @@
         <v>116</v>
       </c>
       <c r="E90" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F90" t="n">
-        <v>3809.8578</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>116</v>
+        <v>117.4166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3646,7 +3568,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3656,22 +3582,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C91" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D91" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E91" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F91" t="n">
-        <v>1957.368</v>
+        <v>3809.8578</v>
       </c>
       <c r="G91" t="n">
-        <v>117</v>
+        <v>117.45</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3681,7 +3607,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3694,19 +3624,19 @@
         <v>117</v>
       </c>
       <c r="C92" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D92" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" t="n">
         <v>117</v>
       </c>
       <c r="F92" t="n">
-        <v>283.7936</v>
+        <v>1957.368</v>
       </c>
       <c r="G92" t="n">
-        <v>117.5</v>
+        <v>117.5166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3716,7 +3646,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3726,22 +3660,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E93" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>283.7936</v>
       </c>
       <c r="G93" t="n">
-        <v>117.5</v>
+        <v>117.55</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3751,7 +3685,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3773,10 +3711,10 @@
         <v>118</v>
       </c>
       <c r="F94" t="n">
-        <v>537.6319999999999</v>
+        <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>118</v>
+        <v>117.6166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,7 +3724,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3796,22 +3738,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D95" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F95" t="n">
-        <v>6348.9378</v>
+        <v>537.6319999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>117.5</v>
+        <v>117.6833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3821,7 +3763,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3831,22 +3777,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C96" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D96" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E96" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>6348.9378</v>
       </c>
       <c r="G96" t="n">
-        <v>118.5</v>
+        <v>117.75</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3856,7 +3802,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3866,36 +3816,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C97" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D97" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F97" t="n">
-        <v>208.3486</v>
+        <v>5</v>
       </c>
       <c r="G97" t="n">
-        <v>119</v>
+        <v>117.8666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>120</v>
-      </c>
-      <c r="K97" t="n">
-        <v>120</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3905,22 +3855,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F98" t="n">
-        <v>329.2834</v>
+        <v>208.3486</v>
       </c>
       <c r="G98" t="n">
-        <v>117.5</v>
+        <v>117.9333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3929,12 +3879,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>120</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -3958,10 +3906,10 @@
         <v>117</v>
       </c>
       <c r="F99" t="n">
-        <v>64.6866</v>
+        <v>329.2834</v>
       </c>
       <c r="G99" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3970,12 +3918,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>120</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -3987,22 +3933,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C100" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D100" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E100" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>64.6866</v>
       </c>
       <c r="G100" t="n">
-        <v>118</v>
+        <v>118.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4012,7 +3958,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4022,22 +3972,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C101" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D101" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E101" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F101" t="n">
-        <v>9.2735</v>
+        <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>118</v>
+        <v>118.2166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4047,7 +3997,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4057,22 +4011,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F102" t="n">
-        <v>84.03361344537815</v>
+        <v>9.2735</v>
       </c>
       <c r="G102" t="n">
-        <v>118</v>
+        <v>118.3166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4082,7 +4036,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +4050,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E103" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F103" t="n">
-        <v>46.0359</v>
+        <v>84.03361344537815</v>
       </c>
       <c r="G103" t="n">
-        <v>118.5</v>
+        <v>118.4333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4117,7 +4075,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4139,10 +4101,10 @@
         <v>118</v>
       </c>
       <c r="F104" t="n">
-        <v>3944.6656</v>
+        <v>46.0359</v>
       </c>
       <c r="G104" t="n">
-        <v>118</v>
+        <v>118.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4152,7 +4114,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +4128,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C105" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D105" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F105" t="n">
-        <v>34131.8989</v>
+        <v>3944.6656</v>
       </c>
       <c r="G105" t="n">
-        <v>117.5</v>
+        <v>118.5833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4187,7 +4153,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4209,10 +4179,10 @@
         <v>117</v>
       </c>
       <c r="F106" t="n">
-        <v>112</v>
+        <v>34131.8989</v>
       </c>
       <c r="G106" t="n">
-        <v>117</v>
+        <v>118.65</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4222,7 +4192,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4244,10 +4218,10 @@
         <v>117</v>
       </c>
       <c r="F107" t="n">
-        <v>94.6182</v>
+        <v>112</v>
       </c>
       <c r="G107" t="n">
-        <v>117</v>
+        <v>118.7333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4257,7 +4231,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4267,22 +4245,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D108" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F108" t="n">
-        <v>22401.7695</v>
+        <v>94.6182</v>
       </c>
       <c r="G108" t="n">
-        <v>115.5</v>
+        <v>118.7833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4292,7 +4270,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4305,19 +4287,19 @@
         <v>115</v>
       </c>
       <c r="C109" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D109" t="n">
         <v>115</v>
       </c>
       <c r="E109" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F109" t="n">
-        <v>1769.2185</v>
+        <v>22401.7695</v>
       </c>
       <c r="G109" t="n">
-        <v>114.5</v>
+        <v>118.7666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4327,7 +4309,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4340,19 +4326,19 @@
         <v>115</v>
       </c>
       <c r="C110" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D110" t="n">
         <v>115</v>
       </c>
       <c r="E110" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F110" t="n">
-        <v>3843.1217</v>
+        <v>1769.2185</v>
       </c>
       <c r="G110" t="n">
-        <v>114.5</v>
+        <v>118.7833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,7 +4348,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4375,19 +4365,19 @@
         <v>115</v>
       </c>
       <c r="C111" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" t="n">
         <v>115</v>
       </c>
       <c r="E111" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F111" t="n">
-        <v>47</v>
+        <v>3843.1217</v>
       </c>
       <c r="G111" t="n">
-        <v>114.5</v>
+        <v>118.7666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4397,7 +4387,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4407,22 +4401,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C112" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D112" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E112" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F112" t="n">
-        <v>4.2736</v>
+        <v>47</v>
       </c>
       <c r="G112" t="n">
-        <v>116</v>
+        <v>118.7333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4432,7 +4426,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4454,10 +4452,10 @@
         <v>117</v>
       </c>
       <c r="F113" t="n">
-        <v>5</v>
+        <v>4.2736</v>
       </c>
       <c r="G113" t="n">
-        <v>117</v>
+        <v>118.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4467,7 +4465,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>117</v>
+        <v>118.65</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4502,7 +4504,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4527,7 +4533,7 @@
         <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>117</v>
+        <v>118.55</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4537,7 +4543,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4547,22 +4557,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F116" t="n">
-        <v>4.5916</v>
+        <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>116.5</v>
+        <v>118.3666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4572,7 +4582,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4594,10 +4608,10 @@
         <v>116</v>
       </c>
       <c r="F117" t="n">
-        <v>5</v>
+        <v>4.5916</v>
       </c>
       <c r="G117" t="n">
-        <v>116</v>
+        <v>118.2333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4607,7 +4621,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4617,22 +4635,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F118" t="n">
-        <v>1590.2266</v>
+        <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>116.5</v>
+        <v>118.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4642,7 +4660,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4652,22 +4674,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E119" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F119" t="n">
-        <v>239</v>
+        <v>1590.2266</v>
       </c>
       <c r="G119" t="n">
-        <v>116</v>
+        <v>118.0166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4677,7 +4699,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4690,19 +4716,19 @@
         <v>116</v>
       </c>
       <c r="C120" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D120" t="n">
         <v>116</v>
       </c>
       <c r="E120" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F120" t="n">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="G120" t="n">
-        <v>115.5</v>
+        <v>117.9333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4712,7 +4738,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4722,22 +4752,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C121" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D121" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E121" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F121" t="n">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>115.5</v>
+        <v>117.8666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4747,7 +4777,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4757,22 +4791,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D122" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E122" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="G122" t="n">
-        <v>115.5</v>
+        <v>117.7833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4782,7 +4816,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4804,10 +4842,10 @@
         <v>116</v>
       </c>
       <c r="F123" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>116</v>
+        <v>117.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4817,7 +4855,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4842,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>116</v>
+        <v>117.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4852,7 +4894,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4874,10 +4920,10 @@
         <v>116</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>116</v>
+        <v>117.5666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4887,7 +4933,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4909,10 +4959,10 @@
         <v>116</v>
       </c>
       <c r="F126" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>116</v>
+        <v>117.4833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4922,7 +4972,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4944,10 +4998,10 @@
         <v>116</v>
       </c>
       <c r="F127" t="n">
-        <v>535.174075862069</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>116</v>
+        <v>117.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4957,7 +5011,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4970,19 +5028,19 @@
         <v>116</v>
       </c>
       <c r="C128" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D128" t="n">
         <v>116</v>
       </c>
       <c r="E128" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F128" t="n">
-        <v>254.2858</v>
+        <v>535.174075862069</v>
       </c>
       <c r="G128" t="n">
-        <v>115.5</v>
+        <v>117.35</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4992,7 +5050,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5005,19 +5067,19 @@
         <v>116</v>
       </c>
       <c r="C129" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129" t="n">
         <v>116</v>
       </c>
       <c r="E129" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F129" t="n">
-        <v>5</v>
+        <v>254.2858</v>
       </c>
       <c r="G129" t="n">
-        <v>115.5</v>
+        <v>117.2666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5027,7 +5089,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5040,19 +5106,19 @@
         <v>116</v>
       </c>
       <c r="C130" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" t="n">
         <v>116</v>
       </c>
       <c r="E130" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F130" t="n">
-        <v>3703.8689</v>
+        <v>5</v>
       </c>
       <c r="G130" t="n">
-        <v>115.5</v>
+        <v>117.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5062,7 +5128,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5075,19 +5145,19 @@
         <v>116</v>
       </c>
       <c r="C131" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D131" t="n">
         <v>116</v>
       </c>
       <c r="E131" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F131" t="n">
-        <v>16</v>
+        <v>3703.8689</v>
       </c>
       <c r="G131" t="n">
-        <v>115.5</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5097,7 +5167,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5119,10 +5193,10 @@
         <v>116</v>
       </c>
       <c r="F132" t="n">
-        <v>1212.836924137931</v>
+        <v>16</v>
       </c>
       <c r="G132" t="n">
-        <v>116</v>
+        <v>117.0666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5132,7 +5206,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5154,10 +5232,10 @@
         <v>116</v>
       </c>
       <c r="F133" t="n">
-        <v>3684.2588</v>
+        <v>1212.836924137931</v>
       </c>
       <c r="G133" t="n">
-        <v>116</v>
+        <v>117.0166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5167,7 +5245,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5189,10 +5271,10 @@
         <v>116</v>
       </c>
       <c r="F134" t="n">
-        <v>5</v>
+        <v>3684.2588</v>
       </c>
       <c r="G134" t="n">
-        <v>116</v>
+        <v>116.95</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5202,7 +5284,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5224,10 +5310,10 @@
         <v>116</v>
       </c>
       <c r="F135" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>116</v>
+        <v>116.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5237,7 +5323,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5259,10 +5349,10 @@
         <v>116</v>
       </c>
       <c r="F136" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G136" t="n">
-        <v>116</v>
+        <v>116.8333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5272,7 +5362,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5285,19 +5379,19 @@
         <v>116</v>
       </c>
       <c r="C137" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D137" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E137" t="n">
         <v>116</v>
       </c>
       <c r="F137" t="n">
-        <v>1527.6949</v>
+        <v>60</v>
       </c>
       <c r="G137" t="n">
-        <v>116.5</v>
+        <v>116.7833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5307,7 +5401,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5317,22 +5415,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C138" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D138" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E138" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F138" t="n">
-        <v>2036.6435</v>
+        <v>1527.6949</v>
       </c>
       <c r="G138" t="n">
-        <v>117.5</v>
+        <v>116.7166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5342,7 +5440,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5355,19 +5457,19 @@
         <v>118</v>
       </c>
       <c r="C139" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D139" t="n">
         <v>118</v>
       </c>
       <c r="E139" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F139" t="n">
-        <v>5695.6298</v>
+        <v>2036.6435</v>
       </c>
       <c r="G139" t="n">
-        <v>117.5</v>
+        <v>116.65</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5377,7 +5479,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5390,19 +5496,19 @@
         <v>118</v>
       </c>
       <c r="C140" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140" t="n">
         <v>118</v>
       </c>
       <c r="E140" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F140" t="n">
-        <v>2935.0414</v>
+        <v>5695.6298</v>
       </c>
       <c r="G140" t="n">
-        <v>117.5</v>
+        <v>116.5833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5412,7 +5518,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5434,10 +5544,10 @@
         <v>118</v>
       </c>
       <c r="F141" t="n">
-        <v>5</v>
+        <v>2935.0414</v>
       </c>
       <c r="G141" t="n">
-        <v>118</v>
+        <v>116.5833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5447,7 +5557,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5457,22 +5571,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C142" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D142" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E142" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F142" t="n">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="G142" t="n">
-        <v>118.5</v>
+        <v>116.55</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5482,7 +5596,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5492,22 +5610,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C143" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D143" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E143" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F143" t="n">
-        <v>14.2091</v>
+        <v>195</v>
       </c>
       <c r="G143" t="n">
-        <v>118</v>
+        <v>116.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5517,8 +5635,51 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>117</v>
+      </c>
+      <c r="C144" t="n">
+        <v>117</v>
+      </c>
+      <c r="D144" t="n">
+        <v>117</v>
+      </c>
+      <c r="E144" t="n">
+        <v>117</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14.2091</v>
+      </c>
+      <c r="G144" t="n">
+        <v>116.55</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="H2" t="n">
         <v>115.8333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>405.7655</v>
       </c>
       <c r="G3" t="n">
+        <v>115.4666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>115.8333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,25 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>115.9</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>114</v>
+      </c>
+      <c r="L4" t="n">
+        <v>114</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +571,27 @@
         <v>6785.2181</v>
       </c>
       <c r="G5" t="n">
+        <v>115.3333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>115.9666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>114</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +615,27 @@
         <v>100</v>
       </c>
       <c r="G6" t="n">
+        <v>115.2666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>115.9833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>114</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +659,29 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>116</v>
+        <v>115.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>114</v>
+      </c>
+      <c r="L7" t="n">
+        <v>114</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +705,29 @@
         <v>946.8235</v>
       </c>
       <c r="G8" t="n">
+        <v>115.1333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>115.9833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>115</v>
+      </c>
+      <c r="L8" t="n">
+        <v>114</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +751,29 @@
         <v>8519</v>
       </c>
       <c r="G9" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>115.9833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>114</v>
+      </c>
+      <c r="L9" t="n">
+        <v>114</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,29 @@
         <v>300</v>
       </c>
       <c r="G10" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>115.9666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>116</v>
+      </c>
+      <c r="L10" t="n">
+        <v>114</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>22.6483</v>
       </c>
       <c r="G11" t="n">
+        <v>115.0666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>115.9166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>114</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>4.3</v>
       </c>
       <c r="G12" t="n">
+        <v>115</v>
+      </c>
+      <c r="H12" t="n">
         <v>115.8666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>114</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,27 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>115.85</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>114</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +975,27 @@
         <v>300</v>
       </c>
       <c r="G14" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>115.8166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>114</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1019,27 @@
         <v>3664.9032</v>
       </c>
       <c r="G15" t="n">
+        <v>114.8666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>115.7666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>114</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1063,27 @@
         <v>3130.5737</v>
       </c>
       <c r="G16" t="n">
+        <v>114.8666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>115.75</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>114</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,27 @@
         <v>9193.1389</v>
       </c>
       <c r="G17" t="n">
+        <v>114.6666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>115.7166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>114</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1151,29 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
+        <v>114.6666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>115.7</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>113</v>
+      </c>
+      <c r="L18" t="n">
+        <v>114</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1197,29 @@
         <v>3000</v>
       </c>
       <c r="G19" t="n">
+        <v>114.5333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>115.6666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>114</v>
+      </c>
+      <c r="L19" t="n">
+        <v>114</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1243,29 @@
         <v>403.1456</v>
       </c>
       <c r="G20" t="n">
+        <v>114.4666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>115.6166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>114</v>
+      </c>
+      <c r="L20" t="n">
+        <v>114</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1289,29 @@
         <v>505</v>
       </c>
       <c r="G21" t="n">
+        <v>114.5333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>115.5833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>114</v>
+      </c>
+      <c r="L21" t="n">
+        <v>114</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1335,27 @@
         <v>2200</v>
       </c>
       <c r="G22" t="n">
+        <v>114.4666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>115.5166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>114</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1379,27 @@
         <v>2091.8544</v>
       </c>
       <c r="G23" t="n">
+        <v>114.4666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>115.45</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>114</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1423,27 @@
         <v>3000</v>
       </c>
       <c r="G24" t="n">
+        <v>114.3333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>115.4</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>114</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1467,27 @@
         <v>2369.6691</v>
       </c>
       <c r="G25" t="n">
+        <v>114.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>115.3333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>114</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1511,27 @@
         <v>5</v>
       </c>
       <c r="G26" t="n">
+        <v>114.3333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>115.3</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>114</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1555,27 @@
         <v>3222.6088</v>
       </c>
       <c r="G27" t="n">
+        <v>114.2666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>115.25</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>114</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1599,27 @@
         <v>10277.8203</v>
       </c>
       <c r="G28" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>115.2</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>114</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1643,27 @@
         <v>3515.9508</v>
       </c>
       <c r="G29" t="n">
+        <v>114.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>115.1333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>114</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1687,27 @@
         <v>200</v>
       </c>
       <c r="G30" t="n">
+        <v>114.0666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>115.0833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>114</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1731,27 @@
         <v>7067.8203</v>
       </c>
       <c r="G31" t="n">
+        <v>114</v>
+      </c>
+      <c r="H31" t="n">
         <v>115.0333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>114</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1775,27 @@
         <v>520.9508</v>
       </c>
       <c r="G32" t="n">
+        <v>114.0666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>114.9833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>114</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1819,27 @@
         <v>5</v>
       </c>
       <c r="G33" t="n">
+        <v>114.1333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>114.95</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>114</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1863,27 @@
         <v>22</v>
       </c>
       <c r="G34" t="n">
+        <v>114.1333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>114.9333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>114</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1907,27 @@
         <v>5383.9173</v>
       </c>
       <c r="G35" t="n">
+        <v>114.1333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>114.9166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>114</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1951,27 @@
         <v>152</v>
       </c>
       <c r="G36" t="n">
+        <v>114</v>
+      </c>
+      <c r="H36" t="n">
         <v>114.8833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>114</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1995,27 @@
         <v>9321.3115</v>
       </c>
       <c r="G37" t="n">
+        <v>113.9333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>114.85</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>114</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2039,27 @@
         <v>5</v>
       </c>
       <c r="G38" t="n">
+        <v>113.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>114.8</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>114</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2083,27 @@
         <v>1000</v>
       </c>
       <c r="G39" t="n">
+        <v>113.8666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>114.7666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>114</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2127,29 @@
         <v>29368.7103</v>
       </c>
       <c r="G40" t="n">
+        <v>113.6666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>114.6666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>113</v>
+      </c>
+      <c r="L40" t="n">
+        <v>114</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2173,29 @@
         <v>233.7191</v>
       </c>
       <c r="G41" t="n">
+        <v>113.4666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>114.5833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>111</v>
+      </c>
+      <c r="L41" t="n">
+        <v>114</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2219,29 @@
         <v>19283.9393</v>
       </c>
       <c r="G42" t="n">
+        <v>113.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>114.5166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>112</v>
+      </c>
+      <c r="L42" t="n">
+        <v>114</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2265,29 @@
         <v>10531.1507</v>
       </c>
       <c r="G43" t="n">
+        <v>113.1333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>114.4666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>111</v>
+      </c>
+      <c r="L43" t="n">
+        <v>114</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2311,29 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="H44" t="n">
         <v>114.45</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>112</v>
+      </c>
+      <c r="L44" t="n">
+        <v>114</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2357,29 @@
         <v>111.3729</v>
       </c>
       <c r="G45" t="n">
+        <v>113.1333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>114.4166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>114</v>
+      </c>
+      <c r="L45" t="n">
+        <v>114</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2403,29 @@
         <v>10318.4049</v>
       </c>
       <c r="G46" t="n">
+        <v>113.0666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>114.3666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>113</v>
+      </c>
+      <c r="L46" t="n">
+        <v>114</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2449,29 @@
         <v>30.2548</v>
       </c>
       <c r="G47" t="n">
+        <v>112.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>114.3166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>113</v>
+      </c>
+      <c r="L47" t="n">
+        <v>114</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2495,29 @@
         <v>712.0059</v>
       </c>
       <c r="G48" t="n">
+        <v>112.8666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>114.2833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>112</v>
+      </c>
+      <c r="L48" t="n">
+        <v>114</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2541,29 @@
         <v>23390.0157</v>
       </c>
       <c r="G49" t="n">
+        <v>112.9333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>114.25</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>114</v>
+      </c>
+      <c r="L49" t="n">
+        <v>114</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2587,29 @@
         <v>26261.9396</v>
       </c>
       <c r="G50" t="n">
+        <v>112.9333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>114.2166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>115</v>
+      </c>
+      <c r="L50" t="n">
+        <v>114</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2633,29 @@
         <v>1045.8682</v>
       </c>
       <c r="G51" t="n">
+        <v>113.0666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>114.2166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>114</v>
+      </c>
+      <c r="L51" t="n">
+        <v>114</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2679,29 @@
         <v>4216.7531</v>
       </c>
       <c r="G52" t="n">
+        <v>113.3333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>114.2333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>115</v>
+      </c>
+      <c r="L52" t="n">
+        <v>114</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2725,27 @@
         <v>5813.3412</v>
       </c>
       <c r="G53" t="n">
+        <v>113.6666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>114.3</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>114</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2769,27 @@
         <v>2866.8743</v>
       </c>
       <c r="G54" t="n">
+        <v>114.1333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>114.3833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>114</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2813,27 @@
         <v>15056.6372</v>
       </c>
       <c r="G55" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>114.5166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>114</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2857,27 @@
         <v>96951.63278281251</v>
       </c>
       <c r="G56" t="n">
+        <v>116</v>
+      </c>
+      <c r="H56" t="n">
         <v>114.7166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>114</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2901,27 @@
         <v>18</v>
       </c>
       <c r="G57" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>114.85</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>114</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,19 +2945,28 @@
         <v>421.1546</v>
       </c>
       <c r="G58" t="n">
+        <v>117.6666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>114.9833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
+      <c r="L58" t="n">
+        <v>114</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1.082719298245614</v>
       </c>
     </row>
     <row r="59">
@@ -2443,18 +2989,21 @@
         <v>1769.2185</v>
       </c>
       <c r="G59" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H59" t="n">
         <v>115.1</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3027,21 @@
         <v>95.9603</v>
       </c>
       <c r="G60" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>115.1833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3065,21 @@
         <v>4.0397</v>
       </c>
       <c r="G61" t="n">
+        <v>119.1333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>115.2666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3103,21 @@
         <v>1637.7626</v>
       </c>
       <c r="G62" t="n">
+        <v>119.6666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>115.3333333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3141,21 @@
         <v>5</v>
       </c>
       <c r="G63" t="n">
+        <v>120.1333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>115.45</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3179,21 @@
         <v>106</v>
       </c>
       <c r="G64" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="H64" t="n">
         <v>115.55</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3217,21 @@
         <v>27436.0323</v>
       </c>
       <c r="G65" t="n">
+        <v>120.8666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>115.6</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3255,21 @@
         <v>5</v>
       </c>
       <c r="G66" t="n">
+        <v>121.2666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>115.7166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3293,21 @@
         <v>1275.9359</v>
       </c>
       <c r="G67" t="n">
+        <v>121.5333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>115.8166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3331,21 @@
         <v>37.9366</v>
       </c>
       <c r="G68" t="n">
+        <v>121.5333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>115.9</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3369,21 @@
         <v>5</v>
       </c>
       <c r="G69" t="n">
+        <v>121.5333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>115.9666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3407,21 @@
         <v>160.6892</v>
       </c>
       <c r="G70" t="n">
+        <v>121.3333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>116.05</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3445,21 @@
         <v>4077.2474</v>
       </c>
       <c r="G71" t="n">
+        <v>120.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>116.1333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3483,21 @@
         <v>5</v>
       </c>
       <c r="G72" t="n">
+        <v>120.4666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>116.2166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3521,21 @@
         <v>838.4775</v>
       </c>
       <c r="G73" t="n">
+        <v>120.1333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>116.2833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3559,21 @@
         <v>385.1198</v>
       </c>
       <c r="G74" t="n">
+        <v>120</v>
+      </c>
+      <c r="H74" t="n">
         <v>116.3666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3597,21 @@
         <v>12</v>
       </c>
       <c r="G75" t="n">
+        <v>119.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>116.45</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3635,21 @@
         <v>21.6304</v>
       </c>
       <c r="G76" t="n">
+        <v>119.9333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>116.5333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3673,21 @@
         <v>3.3696</v>
       </c>
       <c r="G77" t="n">
+        <v>119.8666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>116.6333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3711,21 @@
         <v>4986.0699</v>
       </c>
       <c r="G78" t="n">
+        <v>119.8666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>116.75</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3749,21 @@
         <v>5</v>
       </c>
       <c r="G79" t="n">
+        <v>119.8666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>116.8833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3787,21 @@
         <v>1959.347107438017</v>
       </c>
       <c r="G80" t="n">
-        <v>117</v>
+        <v>120.0666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3825,21 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
+        <v>119.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>117.05</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3863,21 @@
         <v>5</v>
       </c>
       <c r="G82" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="H82" t="n">
         <v>117.15</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3901,21 @@
         <v>31550.9609</v>
       </c>
       <c r="G83" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,24 +3939,21 @@
         <v>575.7155</v>
       </c>
       <c r="G84" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>117.2833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3359,24 +3977,21 @@
         <v>9627.4552</v>
       </c>
       <c r="G85" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>117.3</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,24 +4015,21 @@
         <v>4.3</v>
       </c>
       <c r="G86" t="n">
+        <v>119.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>117.3166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,22 +4053,21 @@
         <v>2475.7591</v>
       </c>
       <c r="G87" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>117.3166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,22 +4091,21 @@
         <v>5</v>
       </c>
       <c r="G88" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>117.35</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3519,22 +4129,21 @@
         <v>1307.2258</v>
       </c>
       <c r="G89" t="n">
+        <v>118.1333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>117.3833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,22 +4167,21 @@
         <v>5</v>
       </c>
       <c r="G90" t="n">
+        <v>117.9333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>117.4166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,22 +4205,21 @@
         <v>3809.8578</v>
       </c>
       <c r="G91" t="n">
+        <v>117.6666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>117.45</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,22 +4243,21 @@
         <v>1957.368</v>
       </c>
       <c r="G92" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>117.5166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,22 +4281,21 @@
         <v>283.7936</v>
       </c>
       <c r="G93" t="n">
+        <v>117.3333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>117.55</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,22 +4319,21 @@
         <v>5</v>
       </c>
       <c r="G94" t="n">
+        <v>117.0666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>117.6166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,22 +4357,21 @@
         <v>537.6319999999999</v>
       </c>
       <c r="G95" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>117.6833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,22 +4395,21 @@
         <v>6348.9378</v>
       </c>
       <c r="G96" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H96" t="n">
         <v>117.75</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3831,22 +4433,21 @@
         <v>5</v>
       </c>
       <c r="G97" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H97" t="n">
         <v>117.8666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,22 +4471,21 @@
         <v>208.3486</v>
       </c>
       <c r="G98" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>117.9333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3909,22 +4509,21 @@
         <v>329.2834</v>
       </c>
       <c r="G99" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>118</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,22 +4547,21 @@
         <v>64.6866</v>
       </c>
       <c r="G100" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>118.1</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,22 +4585,21 @@
         <v>5</v>
       </c>
       <c r="G101" t="n">
+        <v>117.0666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>118.2166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,22 +4623,21 @@
         <v>9.2735</v>
       </c>
       <c r="G102" t="n">
+        <v>117.2666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>118.3166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4065,22 +4661,21 @@
         <v>84.03361344537815</v>
       </c>
       <c r="G103" t="n">
+        <v>117.4666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>118.4333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,22 +4699,21 @@
         <v>46.0359</v>
       </c>
       <c r="G104" t="n">
+        <v>117.6666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>118.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,22 +4737,21 @@
         <v>3944.6656</v>
       </c>
       <c r="G105" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H105" t="n">
         <v>118.5833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,22 +4775,21 @@
         <v>34131.8989</v>
       </c>
       <c r="G106" t="n">
+        <v>117.8666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>118.65</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4221,22 +4813,21 @@
         <v>112</v>
       </c>
       <c r="G107" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H107" t="n">
         <v>118.7333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,22 +4851,21 @@
         <v>94.6182</v>
       </c>
       <c r="G108" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H108" t="n">
         <v>118.7833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,22 +4889,21 @@
         <v>22401.7695</v>
       </c>
       <c r="G109" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>118.7666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,22 +4927,21 @@
         <v>1769.2185</v>
       </c>
       <c r="G110" t="n">
+        <v>117.3333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>118.7833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,22 +4965,21 @@
         <v>3843.1217</v>
       </c>
       <c r="G111" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>118.7666666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,22 +5003,21 @@
         <v>47</v>
       </c>
       <c r="G112" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H112" t="n">
         <v>118.7333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,22 +5041,21 @@
         <v>4.2736</v>
       </c>
       <c r="G113" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>118.7</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,22 +5079,21 @@
         <v>5</v>
       </c>
       <c r="G114" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>118.65</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4533,22 +5117,21 @@
         <v>5</v>
       </c>
       <c r="G115" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>118.55</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,22 +5155,21 @@
         <v>5</v>
       </c>
       <c r="G116" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H116" t="n">
         <v>118.3666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4611,22 +5193,21 @@
         <v>4.5916</v>
       </c>
       <c r="G117" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>118.2333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,22 +5231,21 @@
         <v>5</v>
       </c>
       <c r="G118" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>118.1</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4689,22 +5269,21 @@
         <v>1590.2266</v>
       </c>
       <c r="G119" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>118.0166666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,22 +5307,21 @@
         <v>239</v>
       </c>
       <c r="G120" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>117.9333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4767,22 +5345,21 @@
         <v>5</v>
       </c>
       <c r="G121" t="n">
+        <v>116</v>
+      </c>
+      <c r="H121" t="n">
         <v>117.8666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,22 +5383,21 @@
         <v>222</v>
       </c>
       <c r="G122" t="n">
+        <v>115.8666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>117.7833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,22 +5421,21 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H123" t="n">
         <v>117.7</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,22 +5459,21 @@
         <v>5</v>
       </c>
       <c r="G124" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>117.6</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4923,22 +5497,21 @@
         <v>5</v>
       </c>
       <c r="G125" t="n">
+        <v>116</v>
+      </c>
+      <c r="H125" t="n">
         <v>117.5666666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,22 +5535,21 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>117.4833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,22 +5573,21 @@
         <v>5</v>
       </c>
       <c r="G127" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H127" t="n">
         <v>117.4</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,22 +5611,21 @@
         <v>535.174075862069</v>
       </c>
       <c r="G128" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>117.35</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5079,22 +5649,21 @@
         <v>254.2858</v>
       </c>
       <c r="G129" t="n">
+        <v>116</v>
+      </c>
+      <c r="H129" t="n">
         <v>117.2666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5118,22 +5687,25 @@
         <v>5</v>
       </c>
       <c r="G130" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>117.2</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>115</v>
+      </c>
+      <c r="L130" t="n">
+        <v>115</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,22 +5729,29 @@
         <v>3703.8689</v>
       </c>
       <c r="G131" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H131" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>116</v>
+      </c>
+      <c r="L131" t="n">
+        <v>115</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,22 +5775,27 @@
         <v>16</v>
       </c>
       <c r="G132" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H132" t="n">
         <v>117.0666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>115</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5235,22 +5819,29 @@
         <v>1212.836924137931</v>
       </c>
       <c r="G133" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H133" t="n">
         <v>117.0166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>116</v>
+      </c>
+      <c r="L133" t="n">
+        <v>115</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,22 +5865,29 @@
         <v>3684.2588</v>
       </c>
       <c r="G134" t="n">
+        <v>115.7333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>116.95</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>116</v>
+      </c>
+      <c r="L134" t="n">
+        <v>115</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,22 +5911,27 @@
         <v>5</v>
       </c>
       <c r="G135" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H135" t="n">
         <v>116.9</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>115</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,22 +5955,27 @@
         <v>43</v>
       </c>
       <c r="G136" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>116.8333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>115</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5391,22 +5999,27 @@
         <v>60</v>
       </c>
       <c r="G137" t="n">
+        <v>115.8666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>116.7833333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>115</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,22 +6043,27 @@
         <v>1527.6949</v>
       </c>
       <c r="G138" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>116.7166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>115</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,22 +6087,27 @@
         <v>2036.6435</v>
       </c>
       <c r="G139" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>116.65</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>115</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,22 +6131,27 @@
         <v>5695.6298</v>
       </c>
       <c r="G140" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>116.5833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>115</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5547,22 +6175,27 @@
         <v>2935.0414</v>
       </c>
       <c r="G141" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>116.5833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>115</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5586,22 +6219,27 @@
         <v>5</v>
       </c>
       <c r="G142" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>116.55</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>115</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,19 +6266,24 @@
         <v>116.6</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>116.6</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>115</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,22 +6307,467 @@
         <v>14.2091</v>
       </c>
       <c r="G144" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>116.55</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>115</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>117</v>
+      </c>
+      <c r="C145" t="n">
+        <v>117</v>
+      </c>
+      <c r="D145" t="n">
+        <v>117</v>
+      </c>
+      <c r="E145" t="n">
+        <v>117</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H145" t="n">
+        <v>116.5833333333333</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>115</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>119</v>
+      </c>
+      <c r="C146" t="n">
+        <v>119</v>
+      </c>
+      <c r="D146" t="n">
+        <v>119</v>
+      </c>
+      <c r="E146" t="n">
+        <v>119</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2988.3625</v>
+      </c>
+      <c r="G146" t="n">
+        <v>117.0666666666667</v>
+      </c>
+      <c r="H146" t="n">
+        <v>116.6333333333333</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>115</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>119</v>
+      </c>
+      <c r="C147" t="n">
+        <v>120</v>
+      </c>
+      <c r="D147" t="n">
+        <v>120</v>
+      </c>
+      <c r="E147" t="n">
+        <v>119</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21626.532</v>
+      </c>
+      <c r="G147" t="n">
+        <v>117.3333333333333</v>
+      </c>
+      <c r="H147" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>115</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>120</v>
+      </c>
+      <c r="C148" t="n">
+        <v>120</v>
+      </c>
+      <c r="D148" t="n">
+        <v>120</v>
+      </c>
+      <c r="E148" t="n">
+        <v>120</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9.7051</v>
+      </c>
+      <c r="G148" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>115</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>119</v>
+      </c>
+      <c r="C149" t="n">
+        <v>119</v>
+      </c>
+      <c r="D149" t="n">
+        <v>119</v>
+      </c>
+      <c r="E149" t="n">
+        <v>119</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19.2678</v>
+      </c>
+      <c r="G149" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H149" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>115</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>119</v>
+      </c>
+      <c r="C150" t="n">
+        <v>119</v>
+      </c>
+      <c r="D150" t="n">
+        <v>119</v>
+      </c>
+      <c r="E150" t="n">
+        <v>119</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12490.4852</v>
+      </c>
+      <c r="G150" t="n">
+        <v>118</v>
+      </c>
+      <c r="H150" t="n">
+        <v>116.9166666666667</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>115</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>119</v>
+      </c>
+      <c r="C151" t="n">
+        <v>119</v>
+      </c>
+      <c r="D151" t="n">
+        <v>119</v>
+      </c>
+      <c r="E151" t="n">
+        <v>119</v>
+      </c>
+      <c r="F151" t="n">
+        <v>313.4604</v>
+      </c>
+      <c r="G151" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H151" t="n">
+        <v>116.9666666666667</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>115</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>118</v>
+      </c>
+      <c r="C152" t="n">
+        <v>118</v>
+      </c>
+      <c r="D152" t="n">
+        <v>118</v>
+      </c>
+      <c r="E152" t="n">
+        <v>118</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5</v>
+      </c>
+      <c r="G152" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H152" t="n">
+        <v>116.9666666666667</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>115</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>119</v>
+      </c>
+      <c r="C153" t="n">
+        <v>118</v>
+      </c>
+      <c r="D153" t="n">
+        <v>119</v>
+      </c>
+      <c r="E153" t="n">
+        <v>118</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12.7574</v>
+      </c>
+      <c r="G153" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H153" t="n">
+        <v>116.9833333333333</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>115</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>119</v>
+      </c>
+      <c r="C154" t="n">
+        <v>119</v>
+      </c>
+      <c r="D154" t="n">
+        <v>119</v>
+      </c>
+      <c r="E154" t="n">
+        <v>119</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G154" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>117</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>115</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>384</v>
       </c>
       <c r="G2" t="n">
-        <v>115.6</v>
+        <v>18318.964</v>
       </c>
       <c r="H2" t="n">
-        <v>115.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E3" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" t="n">
-        <v>405.7655</v>
+        <v>3379.597</v>
       </c>
       <c r="G3" t="n">
-        <v>115.4666666666667</v>
+        <v>14939.367</v>
       </c>
       <c r="H3" t="n">
-        <v>115.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,40 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>177.6049</v>
       </c>
       <c r="G4" t="n">
-        <v>115.4</v>
+        <v>14939.367</v>
       </c>
       <c r="H4" t="n">
-        <v>115.9</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>114</v>
-      </c>
-      <c r="L4" t="n">
-        <v>114</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -556,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="n">
         <v>115</v>
@@ -565,33 +547,24 @@
         <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F5" t="n">
-        <v>6785.2181</v>
+        <v>260.7334</v>
       </c>
       <c r="G5" t="n">
-        <v>115.3333333333333</v>
+        <v>14939.367</v>
       </c>
       <c r="H5" t="n">
-        <v>115.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>114</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>115.2666666666667</v>
+        <v>14939.367</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>114</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -644,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D7" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>115.2</v>
+        <v>14944.367</v>
       </c>
       <c r="H7" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>114</v>
-      </c>
-      <c r="L7" t="n">
-        <v>114</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -690,44 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>946.8235</v>
+        <v>38.7718</v>
       </c>
       <c r="G8" t="n">
-        <v>115.1333333333333</v>
+        <v>14905.5952</v>
       </c>
       <c r="H8" t="n">
-        <v>115.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>115</v>
-      </c>
-      <c r="L8" t="n">
-        <v>114</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -736,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F9" t="n">
-        <v>8519</v>
+        <v>51.097</v>
       </c>
       <c r="G9" t="n">
-        <v>115.2</v>
+        <v>14956.6922</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>114</v>
-      </c>
-      <c r="L9" t="n">
-        <v>114</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,44 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D10" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>229.9351</v>
       </c>
       <c r="G10" t="n">
-        <v>115.2</v>
+        <v>14956.6922</v>
       </c>
       <c r="H10" t="n">
-        <v>115.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>114</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F11" t="n">
-        <v>22.6483</v>
+        <v>5114.607</v>
       </c>
       <c r="G11" t="n">
-        <v>115.0666666666667</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H11" t="n">
-        <v>115.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>114</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,30 +795,21 @@
         <v>115</v>
       </c>
       <c r="F12" t="n">
-        <v>4.3</v>
+        <v>854.9216</v>
       </c>
       <c r="G12" t="n">
-        <v>115</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H12" t="n">
-        <v>115.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>114</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -928,30 +830,21 @@
         <v>115</v>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>278.6683</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9333333333333</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H13" t="n">
-        <v>115.85</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>114</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -972,30 +865,21 @@
         <v>115</v>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>20.7903</v>
       </c>
       <c r="G14" t="n">
-        <v>114.9333333333333</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H14" t="n">
-        <v>115.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>114</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D15" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F15" t="n">
-        <v>3664.9032</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>114.8666666666667</v>
+        <v>9847.085199999996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>114</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1048,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" t="n">
         <v>115</v>
@@ -1057,33 +932,24 @@
         <v>115</v>
       </c>
       <c r="E16" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" t="n">
-        <v>3130.5737</v>
+        <v>655.0094</v>
       </c>
       <c r="G16" t="n">
-        <v>114.8666666666667</v>
+        <v>9192.075799999995</v>
       </c>
       <c r="H16" t="n">
-        <v>115.75</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>114</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1092,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" t="n">
-        <v>9193.1389</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>114.6666666666667</v>
+        <v>9196.375799999994</v>
       </c>
       <c r="H17" t="n">
-        <v>115.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>114</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1136,44 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>5839.1929</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6666666666667</v>
+        <v>15035.56869999999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.7</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>113</v>
-      </c>
-      <c r="L18" t="n">
-        <v>114</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,44 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C19" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>114.5333333333333</v>
+        <v>14035.56869999999</v>
       </c>
       <c r="H19" t="n">
-        <v>115.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>114</v>
-      </c>
-      <c r="L19" t="n">
-        <v>114</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,44 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1456</v>
+        <v>5549.4687</v>
       </c>
       <c r="G20" t="n">
-        <v>114.4666666666667</v>
+        <v>8486.099999999995</v>
       </c>
       <c r="H20" t="n">
-        <v>115.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>114</v>
-      </c>
-      <c r="L20" t="n">
-        <v>114</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,44 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F21" t="n">
-        <v>505</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>114.5333333333333</v>
+        <v>8511.099999999995</v>
       </c>
       <c r="H21" t="n">
-        <v>115.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>114</v>
-      </c>
-      <c r="L21" t="n">
-        <v>114</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,39 +1136,30 @@
         <v>115</v>
       </c>
       <c r="C22" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" t="n">
         <v>115</v>
       </c>
       <c r="E22" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" t="n">
-        <v>2200</v>
+        <v>119.3987</v>
       </c>
       <c r="G22" t="n">
-        <v>114.4666666666667</v>
+        <v>8391.701299999995</v>
       </c>
       <c r="H22" t="n">
-        <v>115.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>114</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C23" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E23" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" t="n">
-        <v>2091.8544</v>
+        <v>5583.0455</v>
       </c>
       <c r="G23" t="n">
-        <v>114.4666666666667</v>
+        <v>8391.701299999995</v>
       </c>
       <c r="H23" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>114</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,39 +1206,30 @@
         <v>114</v>
       </c>
       <c r="C24" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" t="n">
         <v>114</v>
       </c>
       <c r="F24" t="n">
-        <v>3000</v>
+        <v>14643.1967</v>
       </c>
       <c r="G24" t="n">
-        <v>114.3333333333333</v>
+        <v>8391.701299999995</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>114</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1452,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C25" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E25" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25" t="n">
-        <v>2369.6691</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>114.2666666666667</v>
+        <v>8396.701299999995</v>
       </c>
       <c r="H25" t="n">
-        <v>115.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>114</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1496,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>5555</v>
       </c>
       <c r="G26" t="n">
-        <v>114.3333333333333</v>
+        <v>8396.701299999995</v>
       </c>
       <c r="H26" t="n">
-        <v>115.3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>114</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E27" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F27" t="n">
-        <v>3222.6088</v>
+        <v>547.0001999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>114.2666666666667</v>
+        <v>8396.701299999995</v>
       </c>
       <c r="H27" t="n">
-        <v>115.25</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>114</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D28" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F28" t="n">
-        <v>10277.8203</v>
+        <v>1416.0342</v>
       </c>
       <c r="G28" t="n">
-        <v>114.2</v>
+        <v>6980.667099999995</v>
       </c>
       <c r="H28" t="n">
-        <v>115.2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>114</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1628,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" t="n">
-        <v>3515.9508</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="n">
-        <v>114.0666666666667</v>
+        <v>6980.667099999995</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>114</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>3406.4482</v>
       </c>
       <c r="G30" t="n">
-        <v>114.0666666666667</v>
+        <v>6980.667099999995</v>
       </c>
       <c r="H30" t="n">
-        <v>115.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>114</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1716,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C31" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F31" t="n">
-        <v>7067.8203</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>114</v>
+        <v>6985.667099999995</v>
       </c>
       <c r="H31" t="n">
-        <v>115.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>114</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,30 +1495,21 @@
         <v>114</v>
       </c>
       <c r="F32" t="n">
-        <v>520.9508</v>
+        <v>405.7655</v>
       </c>
       <c r="G32" t="n">
-        <v>114.0666666666667</v>
+        <v>6579.901599999996</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>114</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,42 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" t="n">
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>114.1333333333333</v>
+        <v>6584.901599999996</v>
       </c>
       <c r="H33" t="n">
-        <v>114.95</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>114</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,39 +1556,30 @@
         <v>114</v>
       </c>
       <c r="C34" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" t="n">
         <v>114</v>
       </c>
       <c r="F34" t="n">
-        <v>22</v>
+        <v>6785.2181</v>
       </c>
       <c r="G34" t="n">
-        <v>114.1333333333333</v>
+        <v>-200.3165000000045</v>
       </c>
       <c r="H34" t="n">
-        <v>114.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>114</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1892,42 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" t="n">
         <v>114</v>
       </c>
       <c r="D35" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" t="n">
         <v>114</v>
       </c>
       <c r="F35" t="n">
-        <v>5383.9173</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>114.1333333333333</v>
+        <v>-300.3165000000045</v>
       </c>
       <c r="H35" t="n">
-        <v>114.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>114</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,42 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F36" t="n">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>114</v>
+        <v>-295.3165000000045</v>
       </c>
       <c r="H36" t="n">
-        <v>114.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>114</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,42 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E37" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F37" t="n">
-        <v>9321.3115</v>
+        <v>946.8235</v>
       </c>
       <c r="G37" t="n">
-        <v>113.9333333333333</v>
+        <v>-1242.140000000004</v>
       </c>
       <c r="H37" t="n">
-        <v>114.85</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>114</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2027,39 +1696,30 @@
         <v>114</v>
       </c>
       <c r="C38" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E38" t="n">
         <v>114</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>8519</v>
       </c>
       <c r="G38" t="n">
-        <v>113.9333333333333</v>
+        <v>7276.859999999995</v>
       </c>
       <c r="H38" t="n">
-        <v>114.8</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>114</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,42 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C39" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E39" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G39" t="n">
-        <v>113.8666666666667</v>
+        <v>6976.859999999995</v>
       </c>
       <c r="H39" t="n">
-        <v>114.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>114</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,44 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C40" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D40" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F40" t="n">
-        <v>29368.7103</v>
+        <v>22.6483</v>
       </c>
       <c r="G40" t="n">
-        <v>113.6666666666667</v>
+        <v>6954.211699999995</v>
       </c>
       <c r="H40" t="n">
-        <v>114.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>113</v>
-      </c>
-      <c r="L40" t="n">
-        <v>114</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,44 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7191</v>
+        <v>4.3</v>
       </c>
       <c r="G41" t="n">
-        <v>113.4666666666667</v>
+        <v>6958.511699999995</v>
       </c>
       <c r="H41" t="n">
-        <v>114.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>111</v>
-      </c>
-      <c r="L41" t="n">
-        <v>114</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,44 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C42" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D42" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E42" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F42" t="n">
-        <v>19283.9393</v>
+        <v>300</v>
       </c>
       <c r="G42" t="n">
-        <v>113.2666666666667</v>
+        <v>6958.511699999995</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>112</v>
-      </c>
-      <c r="L42" t="n">
-        <v>114</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,44 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C43" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D43" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>10531.1507</v>
+        <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>113.1333333333333</v>
+        <v>6958.511699999995</v>
       </c>
       <c r="H43" t="n">
-        <v>114.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>111</v>
-      </c>
-      <c r="L43" t="n">
-        <v>114</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,32 +1915,21 @@
         <v>114</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>3664.9032</v>
       </c>
       <c r="G44" t="n">
-        <v>113.2</v>
+        <v>3293.608499999995</v>
       </c>
       <c r="H44" t="n">
-        <v>114.45</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>112</v>
-      </c>
-      <c r="L44" t="n">
-        <v>114</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,44 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C45" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D45" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E45" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F45" t="n">
-        <v>111.3729</v>
+        <v>3130.5737</v>
       </c>
       <c r="G45" t="n">
-        <v>113.1333333333333</v>
+        <v>6424.182199999996</v>
       </c>
       <c r="H45" t="n">
-        <v>114.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>114</v>
-      </c>
-      <c r="L45" t="n">
-        <v>114</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,32 +1985,21 @@
         <v>113</v>
       </c>
       <c r="F46" t="n">
-        <v>10318.4049</v>
+        <v>9193.1389</v>
       </c>
       <c r="G46" t="n">
-        <v>113.0666666666667</v>
+        <v>-2768.956700000004</v>
       </c>
       <c r="H46" t="n">
-        <v>114.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>113</v>
-      </c>
-      <c r="L46" t="n">
-        <v>114</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,41 +2011,30 @@
         <v>114</v>
       </c>
       <c r="C47" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D47" t="n">
         <v>114</v>
       </c>
       <c r="E47" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F47" t="n">
-        <v>30.2548</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>112.9333333333333</v>
+        <v>-2668.956700000004</v>
       </c>
       <c r="H47" t="n">
-        <v>114.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>113</v>
-      </c>
-      <c r="L47" t="n">
-        <v>114</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,32 +2055,21 @@
         <v>114</v>
       </c>
       <c r="F48" t="n">
-        <v>712.0059</v>
+        <v>3000</v>
       </c>
       <c r="G48" t="n">
-        <v>112.8666666666667</v>
+        <v>-2668.956700000004</v>
       </c>
       <c r="H48" t="n">
-        <v>114.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>112</v>
-      </c>
-      <c r="L48" t="n">
-        <v>114</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,41 +2081,30 @@
         <v>114</v>
       </c>
       <c r="C49" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" t="n">
         <v>114</v>
       </c>
       <c r="F49" t="n">
-        <v>23390.0157</v>
+        <v>403.1456</v>
       </c>
       <c r="G49" t="n">
-        <v>112.9333333333333</v>
+        <v>-2668.956700000004</v>
       </c>
       <c r="H49" t="n">
-        <v>114.25</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>114</v>
-      </c>
-      <c r="L49" t="n">
-        <v>114</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2575,41 +2116,30 @@
         <v>114</v>
       </c>
       <c r="C50" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" t="n">
         <v>114</v>
       </c>
       <c r="F50" t="n">
-        <v>26261.9396</v>
+        <v>505</v>
       </c>
       <c r="G50" t="n">
-        <v>112.9333333333333</v>
+        <v>-2163.956700000004</v>
       </c>
       <c r="H50" t="n">
-        <v>114.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>115</v>
-      </c>
-      <c r="L50" t="n">
-        <v>114</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2621,41 +2151,30 @@
         <v>115</v>
       </c>
       <c r="C51" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" t="n">
         <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" t="n">
-        <v>1045.8682</v>
+        <v>2200</v>
       </c>
       <c r="G51" t="n">
-        <v>113.0666666666667</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H51" t="n">
-        <v>114.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>114</v>
-      </c>
-      <c r="L51" t="n">
-        <v>114</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,44 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D52" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E52" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F52" t="n">
-        <v>4216.7531</v>
+        <v>2091.8544</v>
       </c>
       <c r="G52" t="n">
-        <v>113.3333333333333</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H52" t="n">
-        <v>114.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>115</v>
-      </c>
-      <c r="L52" t="n">
-        <v>114</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2710,42 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C53" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D53" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E53" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F53" t="n">
-        <v>5813.3412</v>
+        <v>3000</v>
       </c>
       <c r="G53" t="n">
-        <v>113.6666666666667</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H53" t="n">
-        <v>114.3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>114</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,42 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C54" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D54" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E54" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F54" t="n">
-        <v>2866.8743</v>
+        <v>2369.6691</v>
       </c>
       <c r="G54" t="n">
-        <v>114.1333333333333</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H54" t="n">
-        <v>114.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>114</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,42 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C55" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D55" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E55" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F55" t="n">
-        <v>15056.6372</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>114.9333333333333</v>
+        <v>-4358.956700000004</v>
       </c>
       <c r="H55" t="n">
-        <v>114.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>114</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,42 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D56" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E56" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F56" t="n">
-        <v>96951.63278281251</v>
+        <v>3222.6088</v>
       </c>
       <c r="G56" t="n">
-        <v>116</v>
+        <v>-7581.565500000004</v>
       </c>
       <c r="H56" t="n">
-        <v>114.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>114</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,42 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C57" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D57" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E57" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>10277.8203</v>
       </c>
       <c r="G57" t="n">
-        <v>116.8666666666667</v>
+        <v>-7581.565500000004</v>
       </c>
       <c r="H57" t="n">
-        <v>114.85</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>114</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,43 +2393,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C58" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D58" t="n">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E58" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F58" t="n">
-        <v>421.1546</v>
+        <v>3515.9508</v>
       </c>
       <c r="G58" t="n">
-        <v>117.6666666666667</v>
+        <v>-11097.5163</v>
       </c>
       <c r="H58" t="n">
-        <v>114.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>114</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>1.082719298245614</v>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2974,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C59" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D59" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E59" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F59" t="n">
-        <v>1769.2185</v>
+        <v>200</v>
       </c>
       <c r="G59" t="n">
-        <v>118.2</v>
+        <v>-10897.5163</v>
       </c>
       <c r="H59" t="n">
-        <v>115.1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3012,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C60" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D60" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E60" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F60" t="n">
-        <v>95.9603</v>
+        <v>7067.8203</v>
       </c>
       <c r="G60" t="n">
-        <v>118.6666666666667</v>
+        <v>-10897.5163</v>
       </c>
       <c r="H60" t="n">
-        <v>115.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3050,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C61" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D61" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E61" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F61" t="n">
-        <v>4.0397</v>
+        <v>520.9508</v>
       </c>
       <c r="G61" t="n">
-        <v>119.1333333333333</v>
+        <v>-10897.5163</v>
       </c>
       <c r="H61" t="n">
-        <v>115.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C62" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D62" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E62" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F62" t="n">
-        <v>1637.7626</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>119.6666666666667</v>
+        <v>-10892.5163</v>
       </c>
       <c r="H62" t="n">
-        <v>115.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C63" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D63" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E63" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G63" t="n">
-        <v>120.1333333333333</v>
+        <v>-10914.5163</v>
       </c>
       <c r="H63" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C64" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D64" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E64" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F64" t="n">
-        <v>106</v>
+        <v>5383.9173</v>
       </c>
       <c r="G64" t="n">
-        <v>120.6</v>
+        <v>-10914.5163</v>
       </c>
       <c r="H64" t="n">
-        <v>115.55</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C65" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D65" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E65" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F65" t="n">
-        <v>27436.0323</v>
+        <v>152</v>
       </c>
       <c r="G65" t="n">
-        <v>120.8666666666667</v>
+        <v>-11066.5163</v>
       </c>
       <c r="H65" t="n">
-        <v>115.6</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C66" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D66" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E66" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>9321.3115</v>
       </c>
       <c r="G66" t="n">
-        <v>121.2666666666667</v>
+        <v>-11066.5163</v>
       </c>
       <c r="H66" t="n">
-        <v>115.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3278,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C67" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D67" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E67" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F67" t="n">
-        <v>1275.9359</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>121.5333333333333</v>
+        <v>-11061.5163</v>
       </c>
       <c r="H67" t="n">
-        <v>115.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C68" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D68" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E68" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F68" t="n">
-        <v>37.9366</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>121.5333333333333</v>
+        <v>-12061.5163</v>
       </c>
       <c r="H68" t="n">
-        <v>115.9</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C69" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D69" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E69" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>29368.7103</v>
       </c>
       <c r="G69" t="n">
-        <v>121.5333333333333</v>
+        <v>-41430.2266</v>
       </c>
       <c r="H69" t="n">
-        <v>115.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C70" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D70" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E70" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F70" t="n">
-        <v>160.6892</v>
+        <v>233.7191</v>
       </c>
       <c r="G70" t="n">
-        <v>121.3333333333333</v>
+        <v>-41196.5075</v>
       </c>
       <c r="H70" t="n">
-        <v>116.05</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C71" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D71" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E71" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F71" t="n">
-        <v>4077.2474</v>
+        <v>19283.9393</v>
       </c>
       <c r="G71" t="n">
-        <v>120.7333333333333</v>
+        <v>-60480.4468</v>
       </c>
       <c r="H71" t="n">
-        <v>116.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C72" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D72" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E72" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>10531.1507</v>
       </c>
       <c r="G72" t="n">
-        <v>120.4666666666667</v>
+        <v>-49949.2961</v>
       </c>
       <c r="H72" t="n">
-        <v>116.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C73" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D73" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E73" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F73" t="n">
-        <v>838.4775</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>120.1333333333333</v>
+        <v>-49944.2961</v>
       </c>
       <c r="H73" t="n">
-        <v>116.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C74" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D74" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E74" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F74" t="n">
-        <v>385.1198</v>
+        <v>111.3729</v>
       </c>
       <c r="G74" t="n">
-        <v>120</v>
+        <v>-50055.669</v>
       </c>
       <c r="H74" t="n">
-        <v>116.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C75" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D75" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E75" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F75" t="n">
-        <v>12</v>
+        <v>10318.4049</v>
       </c>
       <c r="G75" t="n">
-        <v>119.9333333333333</v>
+        <v>-50055.669</v>
       </c>
       <c r="H75" t="n">
-        <v>116.45</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C76" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D76" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E76" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F76" t="n">
-        <v>21.6304</v>
+        <v>30.2548</v>
       </c>
       <c r="G76" t="n">
-        <v>119.9333333333333</v>
+        <v>-50085.9238</v>
       </c>
       <c r="H76" t="n">
-        <v>116.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C77" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D77" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E77" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F77" t="n">
-        <v>3.3696</v>
+        <v>712.0059</v>
       </c>
       <c r="G77" t="n">
-        <v>119.8666666666667</v>
+        <v>-49373.91790000001</v>
       </c>
       <c r="H77" t="n">
-        <v>116.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3696,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C78" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D78" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E78" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F78" t="n">
-        <v>4986.0699</v>
+        <v>23390.0157</v>
       </c>
       <c r="G78" t="n">
-        <v>119.8666666666667</v>
+        <v>-25983.90220000001</v>
       </c>
       <c r="H78" t="n">
-        <v>116.75</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C79" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D79" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E79" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>26261.9396</v>
       </c>
       <c r="G79" t="n">
-        <v>119.8666666666667</v>
+        <v>-52245.84180000001</v>
       </c>
       <c r="H79" t="n">
-        <v>116.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C80" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D80" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E80" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F80" t="n">
-        <v>1959.347107438017</v>
+        <v>1045.8682</v>
       </c>
       <c r="G80" t="n">
-        <v>120.0666666666667</v>
+        <v>-51199.97360000001</v>
       </c>
       <c r="H80" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C81" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>4216.7531</v>
       </c>
       <c r="G81" t="n">
-        <v>119.8666666666667</v>
+        <v>-46983.22050000001</v>
       </c>
       <c r="H81" t="n">
-        <v>117.05</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C82" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D82" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E82" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>5813.3412</v>
       </c>
       <c r="G82" t="n">
-        <v>119.8</v>
+        <v>-41169.87930000001</v>
       </c>
       <c r="H82" t="n">
-        <v>117.15</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3886,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C83" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D83" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F83" t="n">
-        <v>31550.9609</v>
+        <v>2866.8743</v>
       </c>
       <c r="G83" t="n">
-        <v>119.6</v>
+        <v>-38303.005</v>
       </c>
       <c r="H83" t="n">
-        <v>117.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D84" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E84" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F84" t="n">
-        <v>575.7155</v>
+        <v>15056.6372</v>
       </c>
       <c r="G84" t="n">
-        <v>119.6</v>
+        <v>-23246.36780000001</v>
       </c>
       <c r="H84" t="n">
-        <v>117.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C85" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D85" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E85" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F85" t="n">
-        <v>9627.4552</v>
+        <v>96951.63278281251</v>
       </c>
       <c r="G85" t="n">
-        <v>119.2666666666667</v>
+        <v>73705.2649828125</v>
       </c>
       <c r="H85" t="n">
-        <v>117.3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C86" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D86" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E86" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F86" t="n">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="G86" t="n">
-        <v>119.0666666666667</v>
+        <v>73687.2649828125</v>
       </c>
       <c r="H86" t="n">
-        <v>117.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C87" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D87" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E87" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F87" t="n">
-        <v>2475.7591</v>
+        <v>421.1546</v>
       </c>
       <c r="G87" t="n">
-        <v>118.6666666666667</v>
+        <v>73687.2649828125</v>
       </c>
       <c r="H87" t="n">
-        <v>117.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C88" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D88" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E88" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>1769.2185</v>
       </c>
       <c r="G88" t="n">
-        <v>118.4666666666667</v>
+        <v>71918.0464828125</v>
       </c>
       <c r="H88" t="n">
-        <v>117.35</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C89" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D89" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E89" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F89" t="n">
-        <v>1307.2258</v>
+        <v>95.9603</v>
       </c>
       <c r="G89" t="n">
-        <v>118.1333333333333</v>
+        <v>71822.08618281249</v>
       </c>
       <c r="H89" t="n">
-        <v>117.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C90" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D90" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E90" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>4.0397</v>
       </c>
       <c r="G90" t="n">
-        <v>117.9333333333333</v>
+        <v>71822.08618281249</v>
       </c>
       <c r="H90" t="n">
-        <v>117.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C91" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D91" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E91" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F91" t="n">
-        <v>3809.8578</v>
+        <v>1637.7626</v>
       </c>
       <c r="G91" t="n">
-        <v>117.6666666666667</v>
+        <v>71822.08618281249</v>
       </c>
       <c r="H91" t="n">
-        <v>117.45</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C92" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D92" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E92" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F92" t="n">
-        <v>1957.368</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
-        <v>117.6</v>
+        <v>71827.08618281249</v>
       </c>
       <c r="H92" t="n">
-        <v>117.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C93" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D93" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E93" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F93" t="n">
-        <v>283.7936</v>
+        <v>106</v>
       </c>
       <c r="G93" t="n">
-        <v>117.3333333333333</v>
+        <v>71933.08618281249</v>
       </c>
       <c r="H93" t="n">
-        <v>117.55</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C94" t="n">
         <v>118</v>
       </c>
       <c r="D94" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E94" t="n">
         <v>118</v>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>27436.0323</v>
       </c>
       <c r="G94" t="n">
-        <v>117.0666666666667</v>
+        <v>44497.05388281249</v>
       </c>
       <c r="H94" t="n">
-        <v>117.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C95" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D95" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E95" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F95" t="n">
-        <v>537.6319999999999</v>
+        <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>116.8666666666667</v>
+        <v>44502.05388281249</v>
       </c>
       <c r="H95" t="n">
-        <v>117.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C96" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D96" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E96" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F96" t="n">
-        <v>6348.9378</v>
+        <v>1275.9359</v>
       </c>
       <c r="G96" t="n">
-        <v>116.8</v>
+        <v>44502.05388281249</v>
       </c>
       <c r="H96" t="n">
-        <v>117.75</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D97" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E97" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>37.9366</v>
       </c>
       <c r="G97" t="n">
-        <v>116.8</v>
+        <v>44464.11728281249</v>
       </c>
       <c r="H97" t="n">
-        <v>117.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C98" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D98" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F98" t="n">
-        <v>208.3486</v>
+        <v>5</v>
       </c>
       <c r="G98" t="n">
-        <v>116.9333333333333</v>
+        <v>44469.11728281249</v>
       </c>
       <c r="H98" t="n">
-        <v>117.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C99" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D99" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E99" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F99" t="n">
-        <v>329.2834</v>
+        <v>160.6892</v>
       </c>
       <c r="G99" t="n">
-        <v>116.7333333333333</v>
+        <v>44469.11728281249</v>
       </c>
       <c r="H99" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C100" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D100" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E100" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F100" t="n">
-        <v>64.6866</v>
+        <v>4077.2474</v>
       </c>
       <c r="G100" t="n">
-        <v>116.8666666666667</v>
+        <v>40391.86988281249</v>
       </c>
       <c r="H100" t="n">
-        <v>118.1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F101" t="n">
         <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>117.0666666666667</v>
+        <v>40396.86988281249</v>
       </c>
       <c r="H101" t="n">
-        <v>118.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4608,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C102" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D102" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E102" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F102" t="n">
-        <v>9.2735</v>
+        <v>838.4775</v>
       </c>
       <c r="G102" t="n">
-        <v>117.2666666666667</v>
+        <v>39558.39238281249</v>
       </c>
       <c r="H102" t="n">
-        <v>118.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,33 +3971,30 @@
         <v>119</v>
       </c>
       <c r="C103" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D103" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E103" t="n">
         <v>119</v>
       </c>
       <c r="F103" t="n">
-        <v>84.03361344537815</v>
+        <v>385.1198</v>
       </c>
       <c r="G103" t="n">
-        <v>117.4666666666667</v>
+        <v>39943.51218281249</v>
       </c>
       <c r="H103" t="n">
-        <v>118.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E104" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F104" t="n">
-        <v>46.0359</v>
+        <v>12</v>
       </c>
       <c r="G104" t="n">
-        <v>117.6666666666667</v>
+        <v>39931.51218281249</v>
       </c>
       <c r="H104" t="n">
-        <v>118.5</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C105" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D105" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F105" t="n">
-        <v>3944.6656</v>
+        <v>21.6304</v>
       </c>
       <c r="G105" t="n">
-        <v>117.8</v>
+        <v>39953.14258281249</v>
       </c>
       <c r="H105" t="n">
-        <v>118.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C106" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D106" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E106" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F106" t="n">
-        <v>34131.8989</v>
+        <v>3.3696</v>
       </c>
       <c r="G106" t="n">
-        <v>117.8666666666667</v>
+        <v>39949.77298281249</v>
       </c>
       <c r="H106" t="n">
-        <v>118.65</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C107" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D107" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E107" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F107" t="n">
-        <v>112</v>
+        <v>4986.0699</v>
       </c>
       <c r="G107" t="n">
-        <v>117.8</v>
+        <v>44935.8428828125</v>
       </c>
       <c r="H107" t="n">
-        <v>118.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C108" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D108" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E108" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F108" t="n">
-        <v>94.6182</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>117.8</v>
+        <v>44940.8428828125</v>
       </c>
       <c r="H108" t="n">
-        <v>118.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C109" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D109" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E109" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F109" t="n">
-        <v>22401.7695</v>
+        <v>1959.347107438017</v>
       </c>
       <c r="G109" t="n">
-        <v>117.5333333333333</v>
+        <v>42981.49577537448</v>
       </c>
       <c r="H109" t="n">
-        <v>118.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C110" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D110" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E110" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F110" t="n">
-        <v>1769.2185</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>117.3333333333333</v>
+        <v>42971.49577537448</v>
       </c>
       <c r="H110" t="n">
-        <v>118.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4950,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C111" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D111" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E111" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F111" t="n">
-        <v>3843.1217</v>
+        <v>5</v>
       </c>
       <c r="G111" t="n">
-        <v>117.1333333333333</v>
+        <v>42976.49577537448</v>
       </c>
       <c r="H111" t="n">
-        <v>118.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C112" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D112" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E112" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F112" t="n">
-        <v>47</v>
+        <v>31550.9609</v>
       </c>
       <c r="G112" t="n">
-        <v>116.8</v>
+        <v>11425.53487537448</v>
       </c>
       <c r="H112" t="n">
-        <v>118.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D113" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E113" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F113" t="n">
-        <v>4.2736</v>
+        <v>575.7155</v>
       </c>
       <c r="G113" t="n">
-        <v>116.7333333333333</v>
+        <v>12001.25037537448</v>
       </c>
       <c r="H113" t="n">
-        <v>118.7</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,33 +4356,30 @@
         <v>117</v>
       </c>
       <c r="C114" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D114" t="n">
         <v>117</v>
       </c>
       <c r="E114" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F114" t="n">
-        <v>5</v>
+        <v>9627.4552</v>
       </c>
       <c r="G114" t="n">
-        <v>116.7333333333333</v>
+        <v>2373.795175374484</v>
       </c>
       <c r="H114" t="n">
-        <v>118.65</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D115" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F115" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="G115" t="n">
-        <v>116.7333333333333</v>
+        <v>2378.095175374484</v>
       </c>
       <c r="H115" t="n">
-        <v>118.55</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,36 +4423,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D116" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E116" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F116" t="n">
-        <v>5</v>
+        <v>2475.7591</v>
       </c>
       <c r="G116" t="n">
-        <v>116.6</v>
+        <v>-97.6639246255163</v>
       </c>
       <c r="H116" t="n">
-        <v>118.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,24 +4476,25 @@
         <v>116</v>
       </c>
       <c r="F117" t="n">
-        <v>4.5916</v>
+        <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>116.5333333333333</v>
+        <v>-92.6639246255163</v>
       </c>
       <c r="H117" t="n">
-        <v>118.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,36 +4503,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E118" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F118" t="n">
-        <v>5</v>
+        <v>1307.2258</v>
       </c>
       <c r="G118" t="n">
-        <v>116.3333333333333</v>
+        <v>-1399.889724625516</v>
       </c>
       <c r="H118" t="n">
-        <v>118.1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,36 +4542,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F119" t="n">
-        <v>1590.2266</v>
+        <v>5</v>
       </c>
       <c r="G119" t="n">
-        <v>116.2666666666667</v>
+        <v>-1394.889724625516</v>
       </c>
       <c r="H119" t="n">
-        <v>118.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5292,10 +4581,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D120" t="n">
         <v>116</v>
@@ -5304,24 +4593,25 @@
         <v>115</v>
       </c>
       <c r="F120" t="n">
-        <v>239</v>
+        <v>3809.8578</v>
       </c>
       <c r="G120" t="n">
-        <v>116.0666666666667</v>
+        <v>-1394.889724625516</v>
       </c>
       <c r="H120" t="n">
-        <v>117.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,36 +4620,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F121" t="n">
-        <v>5</v>
+        <v>1957.368</v>
       </c>
       <c r="G121" t="n">
-        <v>116</v>
+        <v>562.4782753744837</v>
       </c>
       <c r="H121" t="n">
-        <v>117.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,36 +4659,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C122" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D122" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F122" t="n">
-        <v>222</v>
+        <v>283.7936</v>
       </c>
       <c r="G122" t="n">
-        <v>115.8666666666667</v>
+        <v>278.6846753744837</v>
       </c>
       <c r="H122" t="n">
-        <v>117.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5406,36 +4698,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C123" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D123" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E123" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>115.8</v>
+        <v>283.6846753744837</v>
       </c>
       <c r="H123" t="n">
-        <v>117.7</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,36 +4737,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C124" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D124" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E124" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F124" t="n">
-        <v>5</v>
+        <v>537.6319999999999</v>
       </c>
       <c r="G124" t="n">
-        <v>115.9333333333333</v>
+        <v>283.6846753744837</v>
       </c>
       <c r="H124" t="n">
-        <v>117.6</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,36 +4776,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C125" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D125" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E125" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F125" t="n">
-        <v>5</v>
+        <v>6348.9378</v>
       </c>
       <c r="G125" t="n">
-        <v>116</v>
+        <v>-6065.253124625516</v>
       </c>
       <c r="H125" t="n">
-        <v>117.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,36 +4815,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C126" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D126" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E126" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G126" t="n">
-        <v>116.1333333333333</v>
+        <v>-6060.253124625516</v>
       </c>
       <c r="H126" t="n">
-        <v>117.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,36 +4854,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C127" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D127" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E127" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F127" t="n">
-        <v>5</v>
+        <v>208.3486</v>
       </c>
       <c r="G127" t="n">
-        <v>116.2</v>
+        <v>-6268.601724625516</v>
       </c>
       <c r="H127" t="n">
-        <v>117.4</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,36 +4893,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C128" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D128" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E128" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F128" t="n">
-        <v>535.174075862069</v>
+        <v>329.2834</v>
       </c>
       <c r="G128" t="n">
-        <v>116.1333333333333</v>
+        <v>-6597.885124625516</v>
       </c>
       <c r="H128" t="n">
-        <v>117.35</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,36 +4932,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C129" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D129" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E129" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F129" t="n">
-        <v>254.2858</v>
+        <v>64.6866</v>
       </c>
       <c r="G129" t="n">
-        <v>116</v>
+        <v>-6597.885124625516</v>
       </c>
       <c r="H129" t="n">
-        <v>117.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,40 +4971,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C130" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D130" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E130" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F130" t="n">
         <v>5</v>
       </c>
       <c r="G130" t="n">
-        <v>115.9333333333333</v>
+        <v>-6592.885124625516</v>
       </c>
       <c r="H130" t="n">
-        <v>117.2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>115</v>
-      </c>
-      <c r="L130" t="n">
-        <v>115</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,44 +5010,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C131" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D131" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E131" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F131" t="n">
-        <v>3703.8689</v>
+        <v>9.2735</v>
       </c>
       <c r="G131" t="n">
-        <v>115.8</v>
+        <v>-6602.158624625516</v>
       </c>
       <c r="H131" t="n">
-        <v>117.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>116</v>
-      </c>
-      <c r="L131" t="n">
-        <v>115</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,42 +5049,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C132" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D132" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E132" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F132" t="n">
-        <v>16</v>
+        <v>84.03361344537815</v>
       </c>
       <c r="G132" t="n">
-        <v>115.8</v>
+        <v>-6518.125011180138</v>
       </c>
       <c r="H132" t="n">
-        <v>117.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>115</v>
-      </c>
-      <c r="M132" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,44 +5088,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F133" t="n">
-        <v>1212.836924137931</v>
+        <v>46.0359</v>
       </c>
       <c r="G133" t="n">
-        <v>115.8</v>
+        <v>-6564.160911180138</v>
       </c>
       <c r="H133" t="n">
-        <v>117.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>116</v>
-      </c>
-      <c r="L133" t="n">
-        <v>115</v>
-      </c>
-      <c r="M133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,44 +5127,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F134" t="n">
-        <v>3684.2588</v>
+        <v>3944.6656</v>
       </c>
       <c r="G134" t="n">
-        <v>115.7333333333333</v>
+        <v>-6564.160911180138</v>
       </c>
       <c r="H134" t="n">
-        <v>116.95</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>116</v>
-      </c>
-      <c r="L134" t="n">
-        <v>115</v>
-      </c>
-      <c r="M134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5896,42 +5166,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C135" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D135" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E135" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F135" t="n">
-        <v>5</v>
+        <v>34131.8989</v>
       </c>
       <c r="G135" t="n">
-        <v>115.8</v>
+        <v>-40696.05981118014</v>
       </c>
       <c r="H135" t="n">
-        <v>116.9</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>115</v>
-      </c>
-      <c r="M135" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5940,42 +5205,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C136" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D136" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E136" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F136" t="n">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="G136" t="n">
-        <v>115.8</v>
+        <v>-40696.05981118014</v>
       </c>
       <c r="H136" t="n">
-        <v>116.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>115</v>
-      </c>
-      <c r="M136" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5984,42 +5244,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C137" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D137" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E137" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F137" t="n">
-        <v>60</v>
+        <v>94.6182</v>
       </c>
       <c r="G137" t="n">
-        <v>115.8666666666667</v>
+        <v>-40696.05981118014</v>
       </c>
       <c r="H137" t="n">
-        <v>116.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>115</v>
-      </c>
-      <c r="M137" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6028,42 +5283,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C138" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D138" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E138" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F138" t="n">
-        <v>1527.6949</v>
+        <v>22401.7695</v>
       </c>
       <c r="G138" t="n">
-        <v>115.9333333333333</v>
+        <v>-63097.82931118013</v>
       </c>
       <c r="H138" t="n">
-        <v>116.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>115</v>
-      </c>
-      <c r="M138" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,42 +5322,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C139" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D139" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E139" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F139" t="n">
-        <v>2036.6435</v>
+        <v>1769.2185</v>
       </c>
       <c r="G139" t="n">
-        <v>116.0666666666667</v>
+        <v>-61328.61081118013</v>
       </c>
       <c r="H139" t="n">
-        <v>116.65</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>115</v>
-      </c>
-      <c r="M139" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6116,42 +5361,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C140" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D140" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E140" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F140" t="n">
-        <v>5695.6298</v>
+        <v>3843.1217</v>
       </c>
       <c r="G140" t="n">
-        <v>116.1333333333333</v>
+        <v>-65171.73251118013</v>
       </c>
       <c r="H140" t="n">
-        <v>116.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>115</v>
-      </c>
-      <c r="M140" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,42 +5400,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C141" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D141" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E141" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F141" t="n">
-        <v>2935.0414</v>
+        <v>47</v>
       </c>
       <c r="G141" t="n">
-        <v>116.2666666666667</v>
+        <v>-65124.73251118013</v>
       </c>
       <c r="H141" t="n">
-        <v>116.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>115</v>
-      </c>
-      <c r="M141" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,42 +5439,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C142" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D142" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E142" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F142" t="n">
-        <v>5</v>
+        <v>4.2736</v>
       </c>
       <c r="G142" t="n">
-        <v>116.4</v>
+        <v>-65120.45891118013</v>
       </c>
       <c r="H142" t="n">
-        <v>116.55</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>115</v>
-      </c>
-      <c r="M142" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6248,42 +5478,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C143" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D143" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E143" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F143" t="n">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="G143" t="n">
-        <v>116.6</v>
+        <v>-65120.45891118013</v>
       </c>
       <c r="H143" t="n">
-        <v>116.6</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>115</v>
-      </c>
-      <c r="M143" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6304,30 +5529,25 @@
         <v>117</v>
       </c>
       <c r="F144" t="n">
-        <v>14.2091</v>
+        <v>5</v>
       </c>
       <c r="G144" t="n">
-        <v>116.7333333333333</v>
+        <v>-65120.45891118013</v>
       </c>
       <c r="H144" t="n">
-        <v>116.55</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>115</v>
-      </c>
-      <c r="M144" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,30 +5568,25 @@
         <v>117</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G145" t="n">
-        <v>116.8</v>
+        <v>-65120.45891118013</v>
       </c>
       <c r="H145" t="n">
-        <v>116.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>115</v>
-      </c>
-      <c r="M145" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6380,42 +5595,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C146" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D146" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E146" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F146" t="n">
-        <v>2988.3625</v>
+        <v>4.5916</v>
       </c>
       <c r="G146" t="n">
-        <v>117.0666666666667</v>
+        <v>-65125.05051118013</v>
       </c>
       <c r="H146" t="n">
-        <v>116.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>115</v>
-      </c>
-      <c r="M146" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,42 +5634,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C147" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D147" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E147" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F147" t="n">
-        <v>21626.532</v>
+        <v>5</v>
       </c>
       <c r="G147" t="n">
-        <v>117.3333333333333</v>
+        <v>-65125.05051118013</v>
       </c>
       <c r="H147" t="n">
-        <v>116.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>115</v>
-      </c>
-      <c r="M147" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,42 +5673,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C148" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D148" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E148" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F148" t="n">
-        <v>9.7051</v>
+        <v>1590.2266</v>
       </c>
       <c r="G148" t="n">
-        <v>117.6</v>
+        <v>-63534.82391118013</v>
       </c>
       <c r="H148" t="n">
-        <v>116.8</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>115</v>
-      </c>
-      <c r="M148" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6512,42 +5712,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C149" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D149" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E149" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F149" t="n">
-        <v>19.2678</v>
+        <v>239</v>
       </c>
       <c r="G149" t="n">
-        <v>117.8</v>
+        <v>-63773.82391118013</v>
       </c>
       <c r="H149" t="n">
-        <v>116.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>115</v>
-      </c>
-      <c r="M149" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,42 +5751,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C150" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D150" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E150" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F150" t="n">
-        <v>12490.4852</v>
+        <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>118</v>
+        <v>-63768.82391118013</v>
       </c>
       <c r="H150" t="n">
-        <v>116.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>115</v>
-      </c>
-      <c r="M150" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6600,42 +5790,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C151" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D151" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E151" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F151" t="n">
-        <v>313.4604</v>
+        <v>222</v>
       </c>
       <c r="G151" t="n">
-        <v>118.2</v>
+        <v>-63990.82391118013</v>
       </c>
       <c r="H151" t="n">
-        <v>116.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>115</v>
-      </c>
-      <c r="M151" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,42 +5829,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C152" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D152" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E152" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F152" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>118.3333333333333</v>
+        <v>-63980.82391118013</v>
       </c>
       <c r="H152" t="n">
-        <v>116.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>115</v>
-      </c>
-      <c r="M152" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6688,42 +5868,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C153" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D153" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E153" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F153" t="n">
-        <v>12.7574</v>
+        <v>5</v>
       </c>
       <c r="G153" t="n">
-        <v>118.4</v>
+        <v>-63980.82391118013</v>
       </c>
       <c r="H153" t="n">
-        <v>116.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>115</v>
-      </c>
-      <c r="M153" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6732,42 +5909,1180 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>116</v>
+      </c>
+      <c r="C154" t="n">
+        <v>116</v>
+      </c>
+      <c r="D154" t="n">
+        <v>116</v>
+      </c>
+      <c r="E154" t="n">
+        <v>116</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>116</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>116</v>
+      </c>
+      <c r="C155" t="n">
+        <v>116</v>
+      </c>
+      <c r="D155" t="n">
+        <v>116</v>
+      </c>
+      <c r="E155" t="n">
+        <v>116</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>116</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>116</v>
+      </c>
+      <c r="C156" t="n">
+        <v>116</v>
+      </c>
+      <c r="D156" t="n">
+        <v>116</v>
+      </c>
+      <c r="E156" t="n">
+        <v>116</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>116</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>116</v>
+      </c>
+      <c r="C157" t="n">
+        <v>116</v>
+      </c>
+      <c r="D157" t="n">
+        <v>116</v>
+      </c>
+      <c r="E157" t="n">
+        <v>116</v>
+      </c>
+      <c r="F157" t="n">
+        <v>535.174075862069</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>116</v>
+      </c>
+      <c r="C158" t="n">
+        <v>115</v>
+      </c>
+      <c r="D158" t="n">
+        <v>116</v>
+      </c>
+      <c r="E158" t="n">
+        <v>115</v>
+      </c>
+      <c r="F158" t="n">
+        <v>254.2858</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-64235.10971118013</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>116</v>
+      </c>
+      <c r="C159" t="n">
+        <v>116</v>
+      </c>
+      <c r="D159" t="n">
+        <v>116</v>
+      </c>
+      <c r="E159" t="n">
+        <v>116</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-64230.10971118013</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>116</v>
+      </c>
+      <c r="C160" t="n">
+        <v>115</v>
+      </c>
+      <c r="D160" t="n">
+        <v>116</v>
+      </c>
+      <c r="E160" t="n">
+        <v>115</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3703.8689</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-67933.97861118012</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>116</v>
+      </c>
+      <c r="C161" t="n">
+        <v>116</v>
+      </c>
+      <c r="D161" t="n">
+        <v>116</v>
+      </c>
+      <c r="E161" t="n">
+        <v>116</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>116</v>
+      </c>
+      <c r="C162" t="n">
+        <v>116</v>
+      </c>
+      <c r="D162" t="n">
+        <v>116</v>
+      </c>
+      <c r="E162" t="n">
+        <v>116</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1212.836924137931</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>116</v>
+      </c>
+      <c r="C163" t="n">
+        <v>116</v>
+      </c>
+      <c r="D163" t="n">
+        <v>116</v>
+      </c>
+      <c r="E163" t="n">
+        <v>116</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3684.2588</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>116</v>
+      </c>
+      <c r="C164" t="n">
+        <v>116</v>
+      </c>
+      <c r="D164" t="n">
+        <v>116</v>
+      </c>
+      <c r="E164" t="n">
+        <v>116</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>116</v>
+      </c>
+      <c r="C165" t="n">
+        <v>116</v>
+      </c>
+      <c r="D165" t="n">
+        <v>116</v>
+      </c>
+      <c r="E165" t="n">
+        <v>116</v>
+      </c>
+      <c r="F165" t="n">
+        <v>43</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>116</v>
+      </c>
+      <c r="C166" t="n">
+        <v>116</v>
+      </c>
+      <c r="D166" t="n">
+        <v>116</v>
+      </c>
+      <c r="E166" t="n">
+        <v>116</v>
+      </c>
+      <c r="F166" t="n">
+        <v>60</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>116</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>116</v>
+      </c>
+      <c r="C167" t="n">
+        <v>117</v>
+      </c>
+      <c r="D167" t="n">
+        <v>117</v>
+      </c>
+      <c r="E167" t="n">
+        <v>116</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1527.6949</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-66390.28371118012</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>116</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>118</v>
+      </c>
+      <c r="C168" t="n">
+        <v>118</v>
+      </c>
+      <c r="D168" t="n">
+        <v>118</v>
+      </c>
+      <c r="E168" t="n">
+        <v>118</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2036.6435</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-64353.64021118012</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>117</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>118</v>
+      </c>
+      <c r="C169" t="n">
+        <v>117</v>
+      </c>
+      <c r="D169" t="n">
+        <v>118</v>
+      </c>
+      <c r="E169" t="n">
+        <v>117</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5695.6298</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-70049.27001118012</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>118</v>
+      </c>
+      <c r="C170" t="n">
+        <v>118</v>
+      </c>
+      <c r="D170" t="n">
+        <v>118</v>
+      </c>
+      <c r="E170" t="n">
+        <v>118</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2935.0414</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-67114.22861118012</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>118</v>
+      </c>
+      <c r="C171" t="n">
+        <v>118</v>
+      </c>
+      <c r="D171" t="n">
+        <v>118</v>
+      </c>
+      <c r="E171" t="n">
+        <v>118</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-67114.22861118012</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>119</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C172" t="n">
         <v>119</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D172" t="n">
         <v>119</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E172" t="n">
         <v>119</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F172" t="n">
+        <v>195</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-66919.22861118012</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>117</v>
+      </c>
+      <c r="C173" t="n">
+        <v>117</v>
+      </c>
+      <c r="D173" t="n">
+        <v>117</v>
+      </c>
+      <c r="E173" t="n">
+        <v>117</v>
+      </c>
+      <c r="F173" t="n">
+        <v>14.2091</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-66933.43771118012</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>117</v>
+      </c>
+      <c r="C174" t="n">
+        <v>117</v>
+      </c>
+      <c r="D174" t="n">
+        <v>117</v>
+      </c>
+      <c r="E174" t="n">
+        <v>117</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-66933.43771118012</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>119</v>
+      </c>
+      <c r="C175" t="n">
+        <v>119</v>
+      </c>
+      <c r="D175" t="n">
+        <v>119</v>
+      </c>
+      <c r="E175" t="n">
+        <v>119</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2988.3625</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-63945.07521118011</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>119</v>
+      </c>
+      <c r="C176" t="n">
+        <v>120</v>
+      </c>
+      <c r="D176" t="n">
+        <v>120</v>
+      </c>
+      <c r="E176" t="n">
+        <v>119</v>
+      </c>
+      <c r="F176" t="n">
+        <v>21626.532</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-42318.54321118011</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>120</v>
+      </c>
+      <c r="C177" t="n">
+        <v>120</v>
+      </c>
+      <c r="D177" t="n">
+        <v>120</v>
+      </c>
+      <c r="E177" t="n">
+        <v>120</v>
+      </c>
+      <c r="F177" t="n">
+        <v>9.7051</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-42318.54321118011</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>119</v>
+      </c>
+      <c r="C178" t="n">
+        <v>119</v>
+      </c>
+      <c r="D178" t="n">
+        <v>119</v>
+      </c>
+      <c r="E178" t="n">
+        <v>119</v>
+      </c>
+      <c r="F178" t="n">
+        <v>19.2678</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-42337.81101118011</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>119</v>
+      </c>
+      <c r="C179" t="n">
+        <v>119</v>
+      </c>
+      <c r="D179" t="n">
+        <v>119</v>
+      </c>
+      <c r="E179" t="n">
+        <v>119</v>
+      </c>
+      <c r="F179" t="n">
+        <v>12490.4852</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-42337.81101118011</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>119</v>
+      </c>
+      <c r="C180" t="n">
+        <v>119</v>
+      </c>
+      <c r="D180" t="n">
+        <v>119</v>
+      </c>
+      <c r="E180" t="n">
+        <v>119</v>
+      </c>
+      <c r="F180" t="n">
+        <v>313.4604</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-42337.81101118011</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>118</v>
+      </c>
+      <c r="C181" t="n">
+        <v>118</v>
+      </c>
+      <c r="D181" t="n">
+        <v>118</v>
+      </c>
+      <c r="E181" t="n">
+        <v>118</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-42342.81101118011</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>119</v>
+      </c>
+      <c r="C182" t="n">
+        <v>118</v>
+      </c>
+      <c r="D182" t="n">
+        <v>119</v>
+      </c>
+      <c r="E182" t="n">
+        <v>118</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12.7574</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-42342.81101118011</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>119</v>
+      </c>
+      <c r="C183" t="n">
+        <v>119</v>
+      </c>
+      <c r="D183" t="n">
+        <v>119</v>
+      </c>
+      <c r="E183" t="n">
+        <v>119</v>
+      </c>
+      <c r="F183" t="n">
         <v>0.7</v>
       </c>
-      <c r="G154" t="n">
-        <v>118.4666666666667</v>
-      </c>
-      <c r="H154" t="n">
-        <v>117</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>115</v>
-      </c>
-      <c r="M154" t="inlineStr">
+      <c r="G183" t="n">
+        <v>-42342.11101118012</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N154" t="n">
+      <c r="M183" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F2" t="n">
-        <v>384</v>
+        <v>3664.9032</v>
       </c>
       <c r="G2" t="n">
-        <v>18318.964</v>
+        <v>114.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" t="n">
         <v>115</v>
       </c>
       <c r="D3" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" t="n">
-        <v>3379.597</v>
+        <v>3130.5737</v>
       </c>
       <c r="G3" t="n">
-        <v>14939.367</v>
+        <v>114.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>177.6049</v>
+        <v>9193.1389</v>
       </c>
       <c r="G4" t="n">
-        <v>14939.367</v>
+        <v>114</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" t="n">
-        <v>260.7334</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>14939.367</v>
+        <v>113.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G6" t="n">
-        <v>14939.367</v>
+        <v>114</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>403.1456</v>
       </c>
       <c r="G7" t="n">
-        <v>14944.367</v>
+        <v>114</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,13 +647,14 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="n">
         <v>115</v>
@@ -652,13 +663,13 @@
         <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" t="n">
-        <v>38.7718</v>
+        <v>505</v>
       </c>
       <c r="G8" t="n">
-        <v>14905.5952</v>
+        <v>114.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F9" t="n">
-        <v>51.097</v>
+        <v>2200</v>
       </c>
       <c r="G9" t="n">
-        <v>14956.6922</v>
+        <v>114.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F10" t="n">
-        <v>229.9351</v>
+        <v>2091.8544</v>
       </c>
       <c r="G10" t="n">
-        <v>14956.6922</v>
+        <v>114</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" t="n">
-        <v>5114.607</v>
+        <v>3000</v>
       </c>
       <c r="G11" t="n">
-        <v>9842.085199999996</v>
+        <v>114</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" t="n">
-        <v>854.9216</v>
+        <v>2369.6691</v>
       </c>
       <c r="G12" t="n">
-        <v>9842.085199999996</v>
+        <v>114</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -830,233 +846,292 @@
         <v>115</v>
       </c>
       <c r="F13" t="n">
-        <v>278.6683</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>9842.085199999996</v>
+        <v>114.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>114</v>
+      </c>
+      <c r="K13" t="n">
+        <v>114</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" t="n">
-        <v>20.7903</v>
+        <v>3222.6088</v>
       </c>
       <c r="G14" t="n">
-        <v>9842.085199999996</v>
+        <v>114.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="n">
+        <v>114</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>10277.8203</v>
       </c>
       <c r="G15" t="n">
-        <v>9847.085199999996</v>
+        <v>114</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>114</v>
+      </c>
+      <c r="K15" t="n">
+        <v>114</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16" t="n">
-        <v>655.0094</v>
+        <v>3515.9508</v>
       </c>
       <c r="G16" t="n">
-        <v>9192.075799999995</v>
+        <v>113.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>114</v>
+      </c>
+      <c r="K16" t="n">
+        <v>114</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>200</v>
       </c>
       <c r="G17" t="n">
-        <v>9196.375799999994</v>
+        <v>113.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>113</v>
+      </c>
+      <c r="K17" t="n">
+        <v>114</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E18" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" t="n">
-        <v>5839.1929</v>
+        <v>7067.8203</v>
       </c>
       <c r="G18" t="n">
-        <v>15035.56869999999</v>
+        <v>114</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>114</v>
+      </c>
+      <c r="K18" t="n">
+        <v>114</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>520.9508</v>
       </c>
       <c r="G19" t="n">
-        <v>14035.56869999999</v>
+        <v>114</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>114</v>
+      </c>
+      <c r="K19" t="n">
+        <v>114</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1075,10 +1150,10 @@
         <v>115</v>
       </c>
       <c r="F20" t="n">
-        <v>5549.4687</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>8486.099999999995</v>
+        <v>114.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1162,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>114</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>8511.099999999995</v>
+        <v>114.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,11 +1204,18 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>114</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1136,19 +1225,19 @@
         <v>115</v>
       </c>
       <c r="C22" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="n">
         <v>115</v>
       </c>
       <c r="E22" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" t="n">
-        <v>119.3987</v>
+        <v>5383.9173</v>
       </c>
       <c r="G22" t="n">
-        <v>8391.701299999995</v>
+        <v>114</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1246,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>114</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" t="n">
-        <v>5583.0455</v>
+        <v>152</v>
       </c>
       <c r="G23" t="n">
-        <v>8391.701299999995</v>
+        <v>113.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1288,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>114</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" t="n">
-        <v>14643.1967</v>
+        <v>9321.3115</v>
       </c>
       <c r="G24" t="n">
-        <v>8391.701299999995</v>
+        <v>113</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1330,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>114</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>8396.701299999995</v>
+        <v>113.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1372,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>114</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C26" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D26" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F26" t="n">
-        <v>5555</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="n">
-        <v>8396.701299999995</v>
+        <v>113.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1414,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>114</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E27" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F27" t="n">
-        <v>547.0001999999999</v>
+        <v>29368.7103</v>
       </c>
       <c r="G27" t="n">
-        <v>8396.701299999995</v>
+        <v>112</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1456,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>114</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E28" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F28" t="n">
-        <v>1416.0342</v>
+        <v>233.7191</v>
       </c>
       <c r="G28" t="n">
-        <v>6980.667099999995</v>
+        <v>111.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1498,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>114</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D29" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E29" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F29" t="n">
-        <v>10000</v>
+        <v>19283.9393</v>
       </c>
       <c r="G29" t="n">
-        <v>6980.667099999995</v>
+        <v>111.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1540,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>114</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C30" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F30" t="n">
-        <v>3406.4482</v>
+        <v>10531.1507</v>
       </c>
       <c r="G30" t="n">
-        <v>6980.667099999995</v>
+        <v>111.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1582,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>114</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>6985.667099999995</v>
+        <v>113</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1624,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>114</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7655</v>
+        <v>111.3729</v>
       </c>
       <c r="G32" t="n">
-        <v>6579.901599999996</v>
+        <v>113.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1666,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>114</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D33" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E33" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>10318.4049</v>
       </c>
       <c r="G33" t="n">
-        <v>6584.901599999996</v>
+        <v>113</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,11 +1708,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>114</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1556,19 +1729,19 @@
         <v>114</v>
       </c>
       <c r="C34" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D34" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" t="n">
-        <v>6785.2181</v>
+        <v>30.2548</v>
       </c>
       <c r="G34" t="n">
-        <v>-200.3165000000045</v>
+        <v>112.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,11 +1750,18 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>114</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1600,10 +1780,10 @@
         <v>114</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>712.0059</v>
       </c>
       <c r="G35" t="n">
-        <v>-300.3165000000045</v>
+        <v>113</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,18 +1792,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>114</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" t="n">
         <v>115</v>
@@ -1632,13 +1819,13 @@
         <v>115</v>
       </c>
       <c r="E36" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>23390.0157</v>
       </c>
       <c r="G36" t="n">
-        <v>-295.3165000000045</v>
+        <v>114.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,11 +1834,18 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>114</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1670,10 +1864,10 @@
         <v>114</v>
       </c>
       <c r="F37" t="n">
-        <v>946.8235</v>
+        <v>26261.9396</v>
       </c>
       <c r="G37" t="n">
-        <v>-1242.140000000004</v>
+        <v>114.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1876,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>114</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" t="n">
-        <v>8519</v>
+        <v>1045.8682</v>
       </c>
       <c r="G38" t="n">
-        <v>7276.859999999995</v>
+        <v>114.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1918,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>114</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" t="n">
-        <v>300</v>
+        <v>4216.7531</v>
       </c>
       <c r="G39" t="n">
-        <v>6976.859999999995</v>
+        <v>116</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1960,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>114</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C40" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D40" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E40" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F40" t="n">
-        <v>22.6483</v>
+        <v>5813.3412</v>
       </c>
       <c r="G40" t="n">
-        <v>6954.211699999995</v>
+        <v>118</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2002,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>114</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C41" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D41" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E41" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>2866.8743</v>
       </c>
       <c r="G41" t="n">
-        <v>6958.511699999995</v>
+        <v>119.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2044,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>114</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D42" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E42" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>15056.6372</v>
       </c>
       <c r="G42" t="n">
-        <v>6958.511699999995</v>
+        <v>121.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2086,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>114</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C43" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D43" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E43" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>96951.63278281251</v>
       </c>
       <c r="G43" t="n">
-        <v>6958.511699999995</v>
+        <v>125.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2128,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>114</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C44" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D44" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E44" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F44" t="n">
-        <v>3664.9032</v>
+        <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>3293.608499999995</v>
+        <v>126</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,45 +2170,61 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>114</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C45" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D45" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E45" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F45" t="n">
-        <v>3130.5737</v>
+        <v>421.1546</v>
       </c>
       <c r="G45" t="n">
-        <v>6424.182199999996</v>
+        <v>124</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>114</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>1.082719298245614</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.017699115044248</v>
       </c>
     </row>
     <row r="46">
@@ -1973,28 +2232,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C46" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D46" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E46" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F46" t="n">
-        <v>9193.1389</v>
+        <v>1769.2185</v>
       </c>
       <c r="G46" t="n">
-        <v>-2768.956700000004</v>
+        <v>123</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2261,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C47" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D47" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E47" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>95.9603</v>
       </c>
       <c r="G47" t="n">
-        <v>-2668.956700000004</v>
+        <v>121</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,28 +2297,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C48" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D48" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E48" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F48" t="n">
-        <v>3000</v>
+        <v>4.0397</v>
       </c>
       <c r="G48" t="n">
-        <v>-2668.956700000004</v>
+        <v>120</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2333,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C49" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D49" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E49" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>403.1456</v>
+        <v>1637.7626</v>
       </c>
       <c r="G49" t="n">
-        <v>-2668.956700000004</v>
+        <v>120</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2369,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C50" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D50" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E50" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F50" t="n">
-        <v>505</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>-2163.956700000004</v>
+        <v>120.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2405,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C51" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D51" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E51" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F51" t="n">
-        <v>2200</v>
+        <v>106</v>
       </c>
       <c r="G51" t="n">
-        <v>-4363.956700000004</v>
+        <v>121.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2441,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C52" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D52" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E52" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F52" t="n">
-        <v>2091.8544</v>
+        <v>27436.0323</v>
       </c>
       <c r="G52" t="n">
-        <v>-4363.956700000004</v>
+        <v>120</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2477,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C53" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D53" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E53" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F53" t="n">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>-4363.956700000004</v>
+        <v>119.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2513,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C54" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D54" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E54" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F54" t="n">
-        <v>2369.6691</v>
+        <v>1275.9359</v>
       </c>
       <c r="G54" t="n">
-        <v>-4363.956700000004</v>
+        <v>121</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2549,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C55" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D55" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E55" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>37.9366</v>
       </c>
       <c r="G55" t="n">
-        <v>-4358.956700000004</v>
+        <v>120</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2585,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C56" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D56" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E56" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F56" t="n">
-        <v>3222.6088</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>-7581.565500000004</v>
+        <v>119.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2621,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C57" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D57" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E57" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F57" t="n">
-        <v>10277.8203</v>
+        <v>160.6892</v>
       </c>
       <c r="G57" t="n">
-        <v>-7581.565500000004</v>
+        <v>120</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2657,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D58" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E58" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F58" t="n">
-        <v>3515.9508</v>
+        <v>4077.2474</v>
       </c>
       <c r="G58" t="n">
-        <v>-11097.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2693,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D59" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E59" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>-10897.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2729,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C60" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D60" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E60" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F60" t="n">
-        <v>7067.8203</v>
+        <v>838.4775</v>
       </c>
       <c r="G60" t="n">
-        <v>-10897.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2765,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C61" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D61" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E61" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F61" t="n">
-        <v>520.9508</v>
+        <v>385.1198</v>
       </c>
       <c r="G61" t="n">
-        <v>-10897.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2801,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C62" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D62" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E62" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G62" t="n">
-        <v>-10892.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2837,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C63" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D63" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E63" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F63" t="n">
-        <v>22</v>
+        <v>21.6304</v>
       </c>
       <c r="G63" t="n">
-        <v>-10914.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2873,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C64" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D64" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E64" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F64" t="n">
-        <v>5383.9173</v>
+        <v>3.3696</v>
       </c>
       <c r="G64" t="n">
-        <v>-10914.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2909,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C65" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D65" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E65" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F65" t="n">
-        <v>152</v>
+        <v>4986.0699</v>
       </c>
       <c r="G65" t="n">
-        <v>-11066.5163</v>
+        <v>120</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2945,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C66" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D66" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E66" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F66" t="n">
-        <v>9321.3115</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>-11066.5163</v>
+        <v>121.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2981,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C67" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D67" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E67" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>1959.347107438017</v>
       </c>
       <c r="G67" t="n">
-        <v>-11061.5163</v>
+        <v>121.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +3017,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C68" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D68" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E68" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>-12061.5163</v>
+        <v>119.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +3053,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C69" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D69" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E69" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F69" t="n">
-        <v>29368.7103</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>-41430.2266</v>
+        <v>119</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +3089,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C70" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D70" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E70" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F70" t="n">
-        <v>233.7191</v>
+        <v>31550.9609</v>
       </c>
       <c r="G70" t="n">
-        <v>-41196.5075</v>
+        <v>118</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +3125,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C71" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D71" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E71" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F71" t="n">
-        <v>19283.9393</v>
+        <v>575.7155</v>
       </c>
       <c r="G71" t="n">
-        <v>-60480.4468</v>
+        <v>118</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +3161,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C72" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D72" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E72" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F72" t="n">
-        <v>10531.1507</v>
+        <v>9627.4552</v>
       </c>
       <c r="G72" t="n">
-        <v>-49949.2961</v>
+        <v>117.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3197,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C73" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D73" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="G73" t="n">
-        <v>-49944.2961</v>
+        <v>115.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3233,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C74" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D74" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F74" t="n">
-        <v>111.3729</v>
+        <v>2475.7591</v>
       </c>
       <c r="G74" t="n">
-        <v>-50055.669</v>
+        <v>115</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3269,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C75" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D75" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E75" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F75" t="n">
-        <v>10318.4049</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>-50055.669</v>
+        <v>115</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3305,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C76" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D76" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F76" t="n">
-        <v>30.2548</v>
+        <v>1307.2258</v>
       </c>
       <c r="G76" t="n">
-        <v>-50085.9238</v>
+        <v>115.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3341,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C77" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D77" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F77" t="n">
-        <v>712.0059</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>-49373.91790000001</v>
+        <v>115.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3377,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C78" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D78" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F78" t="n">
-        <v>23390.0157</v>
+        <v>3809.8578</v>
       </c>
       <c r="G78" t="n">
-        <v>-25983.90220000001</v>
+        <v>116</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3413,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C79" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D79" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E79" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F79" t="n">
-        <v>26261.9396</v>
+        <v>1957.368</v>
       </c>
       <c r="G79" t="n">
-        <v>-52245.84180000001</v>
+        <v>117</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3449,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D80" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F80" t="n">
-        <v>1045.8682</v>
+        <v>283.7936</v>
       </c>
       <c r="G80" t="n">
-        <v>-51199.97360000001</v>
+        <v>117.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3485,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C81" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D81" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F81" t="n">
-        <v>4216.7531</v>
+        <v>5</v>
       </c>
       <c r="G81" t="n">
-        <v>-46983.22050000001</v>
+        <v>117.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3521,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3236,19 +3531,19 @@
         <v>118</v>
       </c>
       <c r="C82" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" t="n">
         <v>118</v>
       </c>
       <c r="F82" t="n">
-        <v>5813.3412</v>
+        <v>537.6319999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>-41169.87930000001</v>
+        <v>118</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3557,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D83" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E83" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F83" t="n">
-        <v>2866.8743</v>
+        <v>6348.9378</v>
       </c>
       <c r="G83" t="n">
-        <v>-38303.005</v>
+        <v>117.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3593,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D84" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E84" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" t="n">
-        <v>15056.6372</v>
+        <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>-23246.36780000001</v>
+        <v>118.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3629,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C85" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D85" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E85" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F85" t="n">
-        <v>96951.63278281251</v>
+        <v>208.3486</v>
       </c>
       <c r="G85" t="n">
-        <v>73705.2649828125</v>
+        <v>119</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,34 +3665,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C86" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D86" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E86" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F86" t="n">
-        <v>18</v>
+        <v>329.2834</v>
       </c>
       <c r="G86" t="n">
-        <v>73687.2649828125</v>
+        <v>117.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3701,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C87" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D87" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E87" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F87" t="n">
-        <v>421.1546</v>
+        <v>64.6866</v>
       </c>
       <c r="G87" t="n">
-        <v>73687.2649828125</v>
+        <v>117</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,34 +3737,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C88" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D88" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E88" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F88" t="n">
-        <v>1769.2185</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>71918.0464828125</v>
+        <v>118</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,28 +3773,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C89" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D89" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E89" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F89" t="n">
-        <v>95.9603</v>
+        <v>9.2735</v>
       </c>
       <c r="G89" t="n">
-        <v>71822.08618281249</v>
+        <v>118</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3809,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D90" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E90" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F90" t="n">
-        <v>4.0397</v>
+        <v>84.03361344537815</v>
       </c>
       <c r="G90" t="n">
-        <v>71822.08618281249</v>
+        <v>118</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3845,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D91" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E91" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F91" t="n">
-        <v>1637.7626</v>
+        <v>46.0359</v>
       </c>
       <c r="G91" t="n">
-        <v>71822.08618281249</v>
+        <v>118.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3881,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C92" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D92" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E92" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>3944.6656</v>
       </c>
       <c r="G92" t="n">
-        <v>71827.08618281249</v>
+        <v>118</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3917,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C93" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D93" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E93" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F93" t="n">
-        <v>106</v>
+        <v>34131.8989</v>
       </c>
       <c r="G93" t="n">
-        <v>71933.08618281249</v>
+        <v>117.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3953,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C94" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D94" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E94" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F94" t="n">
-        <v>27436.0323</v>
+        <v>112</v>
       </c>
       <c r="G94" t="n">
-        <v>44497.05388281249</v>
+        <v>117</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3989,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C95" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D95" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E95" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>94.6182</v>
       </c>
       <c r="G95" t="n">
-        <v>44502.05388281249</v>
+        <v>117</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +4025,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C96" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D96" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E96" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F96" t="n">
-        <v>1275.9359</v>
+        <v>22401.7695</v>
       </c>
       <c r="G96" t="n">
-        <v>44502.05388281249</v>
+        <v>115.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +4061,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C97" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D97" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E97" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F97" t="n">
-        <v>37.9366</v>
+        <v>1769.2185</v>
       </c>
       <c r="G97" t="n">
-        <v>44464.11728281249</v>
+        <v>114.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +4097,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C98" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D98" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E98" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>3843.1217</v>
       </c>
       <c r="G98" t="n">
-        <v>44469.11728281249</v>
+        <v>114.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +4133,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C99" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D99" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E99" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F99" t="n">
-        <v>160.6892</v>
+        <v>47</v>
       </c>
       <c r="G99" t="n">
-        <v>44469.11728281249</v>
+        <v>114.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +4169,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D100" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E100" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F100" t="n">
-        <v>4077.2474</v>
+        <v>4.2736</v>
       </c>
       <c r="G100" t="n">
-        <v>40391.86988281249</v>
+        <v>116</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4205,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C101" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D101" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E101" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F101" t="n">
         <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>40396.86988281249</v>
+        <v>117</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4241,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E102" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F102" t="n">
-        <v>838.4775</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>39558.39238281249</v>
+        <v>117</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4277,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C103" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D103" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E103" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F103" t="n">
-        <v>385.1198</v>
+        <v>5</v>
       </c>
       <c r="G103" t="n">
-        <v>39943.51218281249</v>
+        <v>117</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4313,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C104" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D104" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E104" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F104" t="n">
-        <v>12</v>
+        <v>4.5916</v>
       </c>
       <c r="G104" t="n">
-        <v>39931.51218281249</v>
+        <v>116.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4349,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C105" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D105" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E105" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F105" t="n">
-        <v>21.6304</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>39953.14258281249</v>
+        <v>116</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4385,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C106" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D106" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E106" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F106" t="n">
-        <v>3.3696</v>
+        <v>1590.2266</v>
       </c>
       <c r="G106" t="n">
-        <v>39949.77298281249</v>
+        <v>116.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4421,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C107" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D107" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E107" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F107" t="n">
-        <v>4986.0699</v>
+        <v>239</v>
       </c>
       <c r="G107" t="n">
-        <v>44935.8428828125</v>
+        <v>116</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4457,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C108" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D108" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E108" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F108" t="n">
         <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>44940.8428828125</v>
+        <v>115.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,34 +4493,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C109" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D109" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E109" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F109" t="n">
-        <v>1959.347107438017</v>
+        <v>222</v>
       </c>
       <c r="G109" t="n">
-        <v>42981.49577537448</v>
+        <v>115.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4207,28 +4529,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C110" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D110" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E110" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F110" t="n">
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>42971.49577537448</v>
+        <v>115.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4565,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C111" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D111" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E111" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F111" t="n">
         <v>5</v>
       </c>
       <c r="G111" t="n">
-        <v>42976.49577537448</v>
+        <v>116</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4601,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C112" t="n">
         <v>116</v>
       </c>
       <c r="D112" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E112" t="n">
         <v>116</v>
       </c>
       <c r="F112" t="n">
-        <v>31550.9609</v>
+        <v>5</v>
       </c>
       <c r="G112" t="n">
-        <v>11425.53487537448</v>
+        <v>116</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,6 +4637,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4321,19 +4647,19 @@
         <v>116</v>
       </c>
       <c r="C113" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D113" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E113" t="n">
         <v>116</v>
       </c>
       <c r="F113" t="n">
-        <v>575.7155</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>12001.25037537448</v>
+        <v>116</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4673,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D114" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E114" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F114" t="n">
-        <v>9627.4552</v>
+        <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>2373.795175374484</v>
+        <v>116</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,6 +4709,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4400,10 +4728,10 @@
         <v>116</v>
       </c>
       <c r="F115" t="n">
-        <v>4.3</v>
+        <v>535.174075862069</v>
       </c>
       <c r="G115" t="n">
-        <v>2378.095175374484</v>
+        <v>116</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,47 +4745,43 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D116" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E116" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F116" t="n">
-        <v>2475.7591</v>
+        <v>254.2858</v>
       </c>
       <c r="G116" t="n">
-        <v>-97.6639246255163</v>
+        <v>115.5</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>116</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4479,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>-92.6639246255163</v>
+        <v>115.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4489,36 +4813,33 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" t="n">
         <v>115</v>
       </c>
       <c r="D118" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E118" t="n">
         <v>115</v>
       </c>
       <c r="F118" t="n">
-        <v>1307.2258</v>
+        <v>3703.8689</v>
       </c>
       <c r="G118" t="n">
-        <v>-1399.889724625516</v>
+        <v>115.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,14 +4849,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4554,10 +4872,10 @@
         <v>116</v>
       </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G119" t="n">
-        <v>-1394.889724625516</v>
+        <v>115.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4567,21 +4885,18 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C120" t="n">
         <v>116</v>
@@ -4590,13 +4905,13 @@
         <v>116</v>
       </c>
       <c r="E120" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F120" t="n">
-        <v>3809.8578</v>
+        <v>1212.836924137931</v>
       </c>
       <c r="G120" t="n">
-        <v>-1394.889724625516</v>
+        <v>116</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4606,36 +4921,33 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D121" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E121" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F121" t="n">
-        <v>1957.368</v>
+        <v>3684.2588</v>
       </c>
       <c r="G121" t="n">
-        <v>562.4782753744837</v>
+        <v>116</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,36 +4957,33 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D122" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E122" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F122" t="n">
-        <v>283.7936</v>
+        <v>5</v>
       </c>
       <c r="G122" t="n">
-        <v>278.6846753744837</v>
+        <v>116</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4684,36 +4993,33 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F123" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G123" t="n">
-        <v>283.6846753744837</v>
+        <v>116</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4723,36 +5029,33 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C124" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D124" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E124" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F124" t="n">
-        <v>537.6319999999999</v>
+        <v>60</v>
       </c>
       <c r="G124" t="n">
-        <v>283.6846753744837</v>
+        <v>116</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4762,21 +5065,18 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" t="n">
         <v>117</v>
@@ -4785,13 +5085,13 @@
         <v>117</v>
       </c>
       <c r="E125" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F125" t="n">
-        <v>6348.9378</v>
+        <v>1527.6949</v>
       </c>
       <c r="G125" t="n">
-        <v>-6065.253124625516</v>
+        <v>116.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4801,36 +5101,33 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C126" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D126" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E126" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F126" t="n">
-        <v>5</v>
+        <v>2036.6435</v>
       </c>
       <c r="G126" t="n">
-        <v>-6060.253124625516</v>
+        <v>117.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4840,14 +5137,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4857,19 +5151,19 @@
         <v>118</v>
       </c>
       <c r="C127" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D127" t="n">
         <v>118</v>
       </c>
       <c r="E127" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F127" t="n">
-        <v>208.3486</v>
+        <v>5695.6298</v>
       </c>
       <c r="G127" t="n">
-        <v>-6268.601724625516</v>
+        <v>117.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4879,36 +5173,33 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C128" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D128" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E128" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F128" t="n">
-        <v>329.2834</v>
+        <v>2935.0414</v>
       </c>
       <c r="G128" t="n">
-        <v>-6597.885124625516</v>
+        <v>117.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4918,36 +5209,33 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C129" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D129" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F129" t="n">
-        <v>64.6866</v>
+        <v>5</v>
       </c>
       <c r="G129" t="n">
-        <v>-6597.885124625516</v>
+        <v>118</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4957,14 +5245,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4983,10 +5268,10 @@
         <v>119</v>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="G130" t="n">
-        <v>-6592.885124625516</v>
+        <v>118.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4996,14 +5281,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5022,10 +5304,10 @@
         <v>117</v>
       </c>
       <c r="F131" t="n">
-        <v>9.2735</v>
+        <v>14.2091</v>
       </c>
       <c r="G131" t="n">
-        <v>-6602.158624625516</v>
+        <v>118</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5035,36 +5317,33 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C132" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D132" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E132" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F132" t="n">
-        <v>84.03361344537815</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>-6518.125011180138</v>
+        <v>117</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5074,36 +5353,33 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C133" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D133" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E133" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F133" t="n">
-        <v>46.0359</v>
+        <v>2988.3625</v>
       </c>
       <c r="G133" t="n">
-        <v>-6564.160911180138</v>
+        <v>118</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5113,270 +5389,249 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C134" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D134" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F134" t="n">
-        <v>3944.6656</v>
+        <v>21626.532</v>
       </c>
       <c r="G134" t="n">
-        <v>-6564.160911180138</v>
+        <v>119.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C135" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D135" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E135" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F135" t="n">
-        <v>34131.8989</v>
+        <v>9.7051</v>
       </c>
       <c r="G135" t="n">
-        <v>-40696.05981118014</v>
+        <v>120</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C136" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D136" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E136" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F136" t="n">
-        <v>112</v>
+        <v>19.2678</v>
       </c>
       <c r="G136" t="n">
-        <v>-40696.05981118014</v>
+        <v>119.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C137" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D137" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E137" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F137" t="n">
-        <v>94.6182</v>
+        <v>12490.4852</v>
       </c>
       <c r="G137" t="n">
-        <v>-40696.05981118014</v>
+        <v>119</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C138" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D138" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E138" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F138" t="n">
-        <v>22401.7695</v>
+        <v>313.4604</v>
       </c>
       <c r="G138" t="n">
-        <v>-63097.82931118013</v>
+        <v>119</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C139" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D139" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E139" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F139" t="n">
-        <v>1769.2185</v>
+        <v>5</v>
       </c>
       <c r="G139" t="n">
-        <v>-61328.61081118013</v>
+        <v>118.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C140" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D140" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E140" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F140" t="n">
-        <v>3843.1217</v>
+        <v>12.7574</v>
       </c>
       <c r="G140" t="n">
-        <v>-65171.73251118013</v>
+        <v>118</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5386,1705 +5641,47 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C141" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D141" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E141" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F141" t="n">
-        <v>47</v>
+        <v>0.7</v>
       </c>
       <c r="G141" t="n">
-        <v>-65124.73251118013</v>
+        <v>118.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>117</v>
-      </c>
-      <c r="C142" t="n">
-        <v>117</v>
-      </c>
-      <c r="D142" t="n">
-        <v>117</v>
-      </c>
-      <c r="E142" t="n">
-        <v>117</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4.2736</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>117</v>
-      </c>
-      <c r="C143" t="n">
-        <v>117</v>
-      </c>
-      <c r="D143" t="n">
-        <v>117</v>
-      </c>
-      <c r="E143" t="n">
-        <v>117</v>
-      </c>
-      <c r="F143" t="n">
-        <v>5</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>117</v>
-      </c>
-      <c r="C144" t="n">
-        <v>117</v>
-      </c>
-      <c r="D144" t="n">
-        <v>117</v>
-      </c>
-      <c r="E144" t="n">
-        <v>117</v>
-      </c>
-      <c r="F144" t="n">
-        <v>5</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>117</v>
-      </c>
-      <c r="C145" t="n">
-        <v>117</v>
-      </c>
-      <c r="D145" t="n">
-        <v>117</v>
-      </c>
-      <c r="E145" t="n">
-        <v>117</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>116</v>
-      </c>
-      <c r="C146" t="n">
-        <v>116</v>
-      </c>
-      <c r="D146" t="n">
-        <v>116</v>
-      </c>
-      <c r="E146" t="n">
-        <v>116</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4.5916</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-65125.05051118013</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>116</v>
-      </c>
-      <c r="C147" t="n">
-        <v>116</v>
-      </c>
-      <c r="D147" t="n">
-        <v>116</v>
-      </c>
-      <c r="E147" t="n">
-        <v>116</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-65125.05051118013</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>117</v>
-      </c>
-      <c r="C148" t="n">
-        <v>117</v>
-      </c>
-      <c r="D148" t="n">
-        <v>117</v>
-      </c>
-      <c r="E148" t="n">
-        <v>117</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1590.2266</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-63534.82391118013</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>116</v>
-      </c>
-      <c r="C149" t="n">
-        <v>115</v>
-      </c>
-      <c r="D149" t="n">
-        <v>116</v>
-      </c>
-      <c r="E149" t="n">
-        <v>115</v>
-      </c>
-      <c r="F149" t="n">
-        <v>239</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-63773.82391118013</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>116</v>
-      </c>
-      <c r="C150" t="n">
-        <v>116</v>
-      </c>
-      <c r="D150" t="n">
-        <v>116</v>
-      </c>
-      <c r="E150" t="n">
-        <v>116</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-63768.82391118013</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>115</v>
-      </c>
-      <c r="C151" t="n">
-        <v>115</v>
-      </c>
-      <c r="D151" t="n">
-        <v>115</v>
-      </c>
-      <c r="E151" t="n">
-        <v>115</v>
-      </c>
-      <c r="F151" t="n">
-        <v>222</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-63990.82391118013</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>116</v>
-      </c>
-      <c r="C152" t="n">
-        <v>116</v>
-      </c>
-      <c r="D152" t="n">
-        <v>116</v>
-      </c>
-      <c r="E152" t="n">
-        <v>116</v>
-      </c>
-      <c r="F152" t="n">
-        <v>10</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>116</v>
-      </c>
-      <c r="C153" t="n">
-        <v>116</v>
-      </c>
-      <c r="D153" t="n">
-        <v>116</v>
-      </c>
-      <c r="E153" t="n">
-        <v>116</v>
-      </c>
-      <c r="F153" t="n">
-        <v>5</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>116</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>116</v>
-      </c>
-      <c r="C154" t="n">
-        <v>116</v>
-      </c>
-      <c r="D154" t="n">
-        <v>116</v>
-      </c>
-      <c r="E154" t="n">
-        <v>116</v>
-      </c>
-      <c r="F154" t="n">
-        <v>5</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>116</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>116</v>
-      </c>
-      <c r="C155" t="n">
-        <v>116</v>
-      </c>
-      <c r="D155" t="n">
-        <v>116</v>
-      </c>
-      <c r="E155" t="n">
-        <v>116</v>
-      </c>
-      <c r="F155" t="n">
-        <v>10</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>116</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>116</v>
-      </c>
-      <c r="C156" t="n">
-        <v>116</v>
-      </c>
-      <c r="D156" t="n">
-        <v>116</v>
-      </c>
-      <c r="E156" t="n">
-        <v>116</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>116</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>116</v>
-      </c>
-      <c r="C157" t="n">
-        <v>116</v>
-      </c>
-      <c r="D157" t="n">
-        <v>116</v>
-      </c>
-      <c r="E157" t="n">
-        <v>116</v>
-      </c>
-      <c r="F157" t="n">
-        <v>535.174075862069</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>116</v>
-      </c>
-      <c r="C158" t="n">
-        <v>115</v>
-      </c>
-      <c r="D158" t="n">
-        <v>116</v>
-      </c>
-      <c r="E158" t="n">
-        <v>115</v>
-      </c>
-      <c r="F158" t="n">
-        <v>254.2858</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-64235.10971118013</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>116</v>
-      </c>
-      <c r="C159" t="n">
-        <v>116</v>
-      </c>
-      <c r="D159" t="n">
-        <v>116</v>
-      </c>
-      <c r="E159" t="n">
-        <v>116</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-64230.10971118013</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>116</v>
-      </c>
-      <c r="C160" t="n">
-        <v>115</v>
-      </c>
-      <c r="D160" t="n">
-        <v>116</v>
-      </c>
-      <c r="E160" t="n">
-        <v>115</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3703.8689</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-67933.97861118012</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>116</v>
-      </c>
-      <c r="C161" t="n">
-        <v>116</v>
-      </c>
-      <c r="D161" t="n">
-        <v>116</v>
-      </c>
-      <c r="E161" t="n">
-        <v>116</v>
-      </c>
-      <c r="F161" t="n">
-        <v>16</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>116</v>
-      </c>
-      <c r="C162" t="n">
-        <v>116</v>
-      </c>
-      <c r="D162" t="n">
-        <v>116</v>
-      </c>
-      <c r="E162" t="n">
-        <v>116</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1212.836924137931</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>116</v>
-      </c>
-      <c r="C163" t="n">
-        <v>116</v>
-      </c>
-      <c r="D163" t="n">
-        <v>116</v>
-      </c>
-      <c r="E163" t="n">
-        <v>116</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3684.2588</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>116</v>
-      </c>
-      <c r="C164" t="n">
-        <v>116</v>
-      </c>
-      <c r="D164" t="n">
-        <v>116</v>
-      </c>
-      <c r="E164" t="n">
-        <v>116</v>
-      </c>
-      <c r="F164" t="n">
-        <v>5</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>116</v>
-      </c>
-      <c r="C165" t="n">
-        <v>116</v>
-      </c>
-      <c r="D165" t="n">
-        <v>116</v>
-      </c>
-      <c r="E165" t="n">
-        <v>116</v>
-      </c>
-      <c r="F165" t="n">
-        <v>43</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>116</v>
-      </c>
-      <c r="C166" t="n">
-        <v>116</v>
-      </c>
-      <c r="D166" t="n">
-        <v>116</v>
-      </c>
-      <c r="E166" t="n">
-        <v>116</v>
-      </c>
-      <c r="F166" t="n">
-        <v>60</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>116</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>116</v>
-      </c>
-      <c r="C167" t="n">
-        <v>117</v>
-      </c>
-      <c r="D167" t="n">
-        <v>117</v>
-      </c>
-      <c r="E167" t="n">
-        <v>116</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1527.6949</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-66390.28371118012</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>116</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>118</v>
-      </c>
-      <c r="C168" t="n">
-        <v>118</v>
-      </c>
-      <c r="D168" t="n">
-        <v>118</v>
-      </c>
-      <c r="E168" t="n">
-        <v>118</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2036.6435</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-64353.64021118012</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>117</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>118</v>
-      </c>
-      <c r="C169" t="n">
-        <v>117</v>
-      </c>
-      <c r="D169" t="n">
-        <v>118</v>
-      </c>
-      <c r="E169" t="n">
-        <v>117</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5695.6298</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-70049.27001118012</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>118</v>
-      </c>
-      <c r="C170" t="n">
-        <v>118</v>
-      </c>
-      <c r="D170" t="n">
-        <v>118</v>
-      </c>
-      <c r="E170" t="n">
-        <v>118</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2935.0414</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-67114.22861118012</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>118</v>
-      </c>
-      <c r="C171" t="n">
-        <v>118</v>
-      </c>
-      <c r="D171" t="n">
-        <v>118</v>
-      </c>
-      <c r="E171" t="n">
-        <v>118</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-67114.22861118012</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>119</v>
-      </c>
-      <c r="C172" t="n">
-        <v>119</v>
-      </c>
-      <c r="D172" t="n">
-        <v>119</v>
-      </c>
-      <c r="E172" t="n">
-        <v>119</v>
-      </c>
-      <c r="F172" t="n">
-        <v>195</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-66919.22861118012</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>117</v>
-      </c>
-      <c r="C173" t="n">
-        <v>117</v>
-      </c>
-      <c r="D173" t="n">
-        <v>117</v>
-      </c>
-      <c r="E173" t="n">
-        <v>117</v>
-      </c>
-      <c r="F173" t="n">
-        <v>14.2091</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-66933.43771118012</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>117</v>
-      </c>
-      <c r="C174" t="n">
-        <v>117</v>
-      </c>
-      <c r="D174" t="n">
-        <v>117</v>
-      </c>
-      <c r="E174" t="n">
-        <v>117</v>
-      </c>
-      <c r="F174" t="n">
-        <v>10</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-66933.43771118012</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>119</v>
-      </c>
-      <c r="C175" t="n">
-        <v>119</v>
-      </c>
-      <c r="D175" t="n">
-        <v>119</v>
-      </c>
-      <c r="E175" t="n">
-        <v>119</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2988.3625</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-63945.07521118011</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>119</v>
-      </c>
-      <c r="C176" t="n">
-        <v>120</v>
-      </c>
-      <c r="D176" t="n">
-        <v>120</v>
-      </c>
-      <c r="E176" t="n">
-        <v>119</v>
-      </c>
-      <c r="F176" t="n">
-        <v>21626.532</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-42318.54321118011</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>120</v>
-      </c>
-      <c r="C177" t="n">
-        <v>120</v>
-      </c>
-      <c r="D177" t="n">
-        <v>120</v>
-      </c>
-      <c r="E177" t="n">
-        <v>120</v>
-      </c>
-      <c r="F177" t="n">
-        <v>9.7051</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-42318.54321118011</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>119</v>
-      </c>
-      <c r="C178" t="n">
-        <v>119</v>
-      </c>
-      <c r="D178" t="n">
-        <v>119</v>
-      </c>
-      <c r="E178" t="n">
-        <v>119</v>
-      </c>
-      <c r="F178" t="n">
-        <v>19.2678</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-42337.81101118011</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>119</v>
-      </c>
-      <c r="C179" t="n">
-        <v>119</v>
-      </c>
-      <c r="D179" t="n">
-        <v>119</v>
-      </c>
-      <c r="E179" t="n">
-        <v>119</v>
-      </c>
-      <c r="F179" t="n">
-        <v>12490.4852</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-42337.81101118011</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>119</v>
-      </c>
-      <c r="C180" t="n">
-        <v>119</v>
-      </c>
-      <c r="D180" t="n">
-        <v>119</v>
-      </c>
-      <c r="E180" t="n">
-        <v>119</v>
-      </c>
-      <c r="F180" t="n">
-        <v>313.4604</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-42337.81101118011</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>118</v>
-      </c>
-      <c r="C181" t="n">
-        <v>118</v>
-      </c>
-      <c r="D181" t="n">
-        <v>118</v>
-      </c>
-      <c r="E181" t="n">
-        <v>118</v>
-      </c>
-      <c r="F181" t="n">
-        <v>5</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-42342.81101118011</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>119</v>
-      </c>
-      <c r="C182" t="n">
-        <v>118</v>
-      </c>
-      <c r="D182" t="n">
-        <v>119</v>
-      </c>
-      <c r="E182" t="n">
-        <v>118</v>
-      </c>
-      <c r="F182" t="n">
-        <v>12.7574</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-42342.81101118011</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>119</v>
-      </c>
-      <c r="C183" t="n">
-        <v>119</v>
-      </c>
-      <c r="D183" t="n">
-        <v>119</v>
-      </c>
-      <c r="E183" t="n">
-        <v>119</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-42342.11101118012</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>3664.9032</v>
+        <v>338.0521</v>
       </c>
       <c r="G2" t="n">
-        <v>114.5</v>
+        <v>10444.20749999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>3130.5737</v>
+        <v>32.2658</v>
       </c>
       <c r="G3" t="n">
-        <v>114.5</v>
+        <v>10411.94169999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>112</v>
+      </c>
+      <c r="K3" t="n">
+        <v>112</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -522,20 +526,28 @@
         <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>9193.1389</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>114</v>
+        <v>10414.34169999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>111</v>
+      </c>
+      <c r="K4" t="n">
+        <v>112</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="n">
         <v>114</v>
@@ -555,23 +567,31 @@
         <v>114</v>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>5438.7033</v>
       </c>
       <c r="G5" t="n">
-        <v>113.5</v>
+        <v>15853.04499999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>113</v>
+      </c>
+      <c r="K5" t="n">
+        <v>112</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>863.7125</v>
       </c>
       <c r="G6" t="n">
-        <v>114</v>
+        <v>16716.7575</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +638,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F7" t="n">
-        <v>403.1456</v>
+        <v>9921.757900000001</v>
       </c>
       <c r="G7" t="n">
-        <v>114</v>
+        <v>26638.5154</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +674,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" t="n">
-        <v>505</v>
+        <v>9558.137000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>114.5</v>
+        <v>26638.5154</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +710,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F9" t="n">
-        <v>2200</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>114.5</v>
+        <v>26643.5154</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +746,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E10" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F10" t="n">
-        <v>2091.8544</v>
+        <v>3901.6491</v>
       </c>
       <c r="G10" t="n">
-        <v>114</v>
+        <v>30545.1645</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +782,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F11" t="n">
-        <v>3000</v>
+        <v>4340.96</v>
       </c>
       <c r="G11" t="n">
-        <v>114</v>
+        <v>26204.2045</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +818,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C12" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E12" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F12" t="n">
-        <v>2369.6691</v>
+        <v>944.0213</v>
       </c>
       <c r="G12" t="n">
-        <v>114</v>
+        <v>27148.2258</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,35 +854,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>2216.7528</v>
       </c>
       <c r="G13" t="n">
-        <v>114.5</v>
+        <v>27148.2258</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>114</v>
-      </c>
-      <c r="K13" t="n">
-        <v>114</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -874,40 +890,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E14" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F14" t="n">
-        <v>3222.6088</v>
+        <v>4351.7939</v>
       </c>
       <c r="G14" t="n">
-        <v>114.5</v>
+        <v>22796.4319</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>115</v>
-      </c>
-      <c r="K14" t="n">
-        <v>114</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -918,40 +926,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F15" t="n">
-        <v>10277.8203</v>
+        <v>110</v>
       </c>
       <c r="G15" t="n">
-        <v>114</v>
+        <v>22686.4319</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>114</v>
-      </c>
-      <c r="K15" t="n">
-        <v>114</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -962,40 +962,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" t="n">
-        <v>3515.9508</v>
+        <v>1632.4917</v>
       </c>
       <c r="G16" t="n">
-        <v>113.5</v>
+        <v>22686.4319</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>114</v>
-      </c>
-      <c r="K16" t="n">
-        <v>114</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1006,40 +998,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E17" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G17" t="n">
-        <v>113.5</v>
+        <v>22806.4319</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>113</v>
-      </c>
-      <c r="K17" t="n">
-        <v>114</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1050,40 +1034,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E18" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F18" t="n">
-        <v>7067.8203</v>
+        <v>3800</v>
       </c>
       <c r="G18" t="n">
-        <v>114</v>
+        <v>26606.4319</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>114</v>
-      </c>
-      <c r="K18" t="n">
-        <v>114</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1094,40 +1070,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C19" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D19" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E19" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F19" t="n">
-        <v>520.9508</v>
+        <v>91.1233</v>
       </c>
       <c r="G19" t="n">
-        <v>114</v>
+        <v>26606.4319</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>114</v>
-      </c>
-      <c r="K19" t="n">
-        <v>114</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1138,22 +1106,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C20" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D20" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E20" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1690.6886</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5</v>
+        <v>28297.1205</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1162,14 +1130,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>114</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1180,22 +1142,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C21" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D21" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E21" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="n">
-        <v>114.5</v>
+        <v>28297.1205</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1204,14 +1166,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>114</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1222,22 +1178,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C22" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D22" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F22" t="n">
-        <v>5383.9173</v>
+        <v>4.7603</v>
       </c>
       <c r="G22" t="n">
-        <v>114</v>
+        <v>28292.3602</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1246,14 +1202,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>114</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C23" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D23" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E23" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F23" t="n">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>113.5</v>
+        <v>28297.3602</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1288,14 +1238,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>114</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1306,22 +1250,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C24" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D24" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E24" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F24" t="n">
-        <v>9321.3115</v>
+        <v>9978.396199999999</v>
       </c>
       <c r="G24" t="n">
-        <v>113</v>
+        <v>18318.964</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1330,14 +1274,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>114</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1348,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C25" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D25" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E25" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>3319.826</v>
       </c>
       <c r="G25" t="n">
-        <v>113.5</v>
+        <v>18318.964</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1372,14 +1310,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>114</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1390,22 +1322,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C26" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D26" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E26" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>1524.9964</v>
       </c>
       <c r="G26" t="n">
-        <v>113.5</v>
+        <v>18318.964</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1414,14 +1346,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>114</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1358,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C27" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D27" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E27" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F27" t="n">
-        <v>29368.7103</v>
+        <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>112</v>
+        <v>18318.964</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1456,14 +1382,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>114</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1474,22 +1394,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C28" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E28" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F28" t="n">
-        <v>233.7191</v>
+        <v>2206.962</v>
       </c>
       <c r="G28" t="n">
-        <v>111.5</v>
+        <v>18318.964</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1498,14 +1418,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>114</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1516,22 +1430,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C29" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E29" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F29" t="n">
-        <v>19283.9393</v>
+        <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>111.5</v>
+        <v>18318.964</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1540,14 +1454,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>114</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1558,22 +1466,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C30" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D30" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E30" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F30" t="n">
-        <v>10531.1507</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>111.5</v>
+        <v>18318.964</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1582,14 +1490,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>114</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1600,22 +1502,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D31" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E31" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>384</v>
       </c>
       <c r="G31" t="n">
-        <v>113</v>
+        <v>18318.964</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1624,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>114</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1642,22 +1538,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C32" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D32" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E32" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F32" t="n">
-        <v>111.3729</v>
+        <v>3379.597</v>
       </c>
       <c r="G32" t="n">
-        <v>113.5</v>
+        <v>14939.367</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1666,14 +1562,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>114</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1684,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D33" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F33" t="n">
-        <v>10318.4049</v>
+        <v>177.6049</v>
       </c>
       <c r="G33" t="n">
-        <v>113</v>
+        <v>14939.367</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1708,14 +1598,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>114</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1726,22 +1610,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D34" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F34" t="n">
-        <v>30.2548</v>
+        <v>260.7334</v>
       </c>
       <c r="G34" t="n">
-        <v>112.5</v>
+        <v>14939.367</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1750,14 +1634,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>114</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1768,22 +1646,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F35" t="n">
-        <v>712.0059</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>113</v>
+        <v>14939.367</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1792,14 +1670,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>114</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1810,22 +1682,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C36" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E36" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F36" t="n">
-        <v>23390.0157</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>114.5</v>
+        <v>14944.367</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1834,14 +1706,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>114</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1852,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F37" t="n">
-        <v>26261.9396</v>
+        <v>38.7718</v>
       </c>
       <c r="G37" t="n">
-        <v>114.5</v>
+        <v>14905.5952</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1876,14 +1742,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>114</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1894,22 +1754,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E38" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F38" t="n">
-        <v>1045.8682</v>
+        <v>51.097</v>
       </c>
       <c r="G38" t="n">
-        <v>114.5</v>
+        <v>14956.6922</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1918,14 +1778,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>114</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1936,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" t="n">
         <v>117</v>
@@ -1945,13 +1799,13 @@
         <v>117</v>
       </c>
       <c r="E39" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F39" t="n">
-        <v>4216.7531</v>
+        <v>229.9351</v>
       </c>
       <c r="G39" t="n">
-        <v>116</v>
+        <v>14956.6922</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1960,14 +1814,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>114</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1978,22 +1826,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D40" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E40" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F40" t="n">
-        <v>5813.3412</v>
+        <v>5114.607</v>
       </c>
       <c r="G40" t="n">
-        <v>118</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2002,14 +1850,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>114</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2020,22 +1862,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C41" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D41" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F41" t="n">
-        <v>2866.8743</v>
+        <v>854.9216</v>
       </c>
       <c r="G41" t="n">
-        <v>119.5</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2044,14 +1886,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>114</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2062,22 +1898,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C42" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D42" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E42" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F42" t="n">
-        <v>15056.6372</v>
+        <v>278.6683</v>
       </c>
       <c r="G42" t="n">
-        <v>121.5</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2086,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>114</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2104,22 +1934,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C43" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D43" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>96951.63278281251</v>
+        <v>20.7903</v>
       </c>
       <c r="G43" t="n">
-        <v>125.5</v>
+        <v>9842.085199999996</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2128,14 +1958,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>114</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2146,22 +1970,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C44" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D44" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E44" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F44" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>126</v>
+        <v>9847.085199999996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2170,14 +1994,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>114</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2188,72 +2006,64 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C45" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D45" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E45" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F45" t="n">
-        <v>421.1546</v>
+        <v>655.0094</v>
       </c>
       <c r="G45" t="n">
-        <v>124</v>
+        <v>9192.075799999995</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>114</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>1.082719298245614</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.017699115044248</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C46" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D46" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E46" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F46" t="n">
-        <v>1769.2185</v>
+        <v>4.3</v>
       </c>
       <c r="G46" t="n">
-        <v>123</v>
+        <v>9196.375799999994</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2268,28 +2078,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D47" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E47" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F47" t="n">
-        <v>95.9603</v>
+        <v>5839.1929</v>
       </c>
       <c r="G47" t="n">
-        <v>121</v>
+        <v>15035.56869999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2304,22 +2114,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C48" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D48" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E48" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F48" t="n">
-        <v>4.0397</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>120</v>
+        <v>14035.56869999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2340,22 +2150,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C49" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D49" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F49" t="n">
-        <v>1637.7626</v>
+        <v>5549.4687</v>
       </c>
       <c r="G49" t="n">
-        <v>120</v>
+        <v>8486.099999999995</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2376,22 +2186,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C50" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D50" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E50" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>120.5</v>
+        <v>8511.099999999995</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2412,22 +2222,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C51" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D51" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F51" t="n">
-        <v>106</v>
+        <v>119.3987</v>
       </c>
       <c r="G51" t="n">
-        <v>121.5</v>
+        <v>8391.701299999995</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2448,22 +2258,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C52" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D52" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E52" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F52" t="n">
-        <v>27436.0323</v>
+        <v>5583.0455</v>
       </c>
       <c r="G52" t="n">
-        <v>120</v>
+        <v>8391.701299999995</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2484,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C53" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D53" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>14643.1967</v>
       </c>
       <c r="G53" t="n">
-        <v>119.5</v>
+        <v>8391.701299999995</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2520,22 +2330,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C54" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D54" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E54" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F54" t="n">
-        <v>1275.9359</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>121</v>
+        <v>8396.701299999995</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2556,22 +2366,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C55" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D55" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E55" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F55" t="n">
-        <v>37.9366</v>
+        <v>5555</v>
       </c>
       <c r="G55" t="n">
-        <v>120</v>
+        <v>8396.701299999995</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2592,22 +2402,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C56" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D56" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E56" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>547.0001999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>119.5</v>
+        <v>8396.701299999995</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2628,22 +2438,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D57" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E57" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F57" t="n">
-        <v>160.6892</v>
+        <v>1416.0342</v>
       </c>
       <c r="G57" t="n">
-        <v>120</v>
+        <v>6980.667099999995</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2664,22 +2474,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C58" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D58" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E58" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F58" t="n">
-        <v>4077.2474</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>119.5</v>
+        <v>6980.667099999995</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2700,22 +2510,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C59" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D59" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>3406.4482</v>
       </c>
       <c r="G59" t="n">
-        <v>119.5</v>
+        <v>6980.667099999995</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2736,22 +2546,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C60" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D60" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E60" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F60" t="n">
-        <v>838.4775</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>119.5</v>
+        <v>6985.667099999995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2772,22 +2582,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C61" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D61" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E61" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F61" t="n">
-        <v>385.1198</v>
+        <v>405.7655</v>
       </c>
       <c r="G61" t="n">
-        <v>119.5</v>
+        <v>6579.901599999996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2808,22 +2618,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C62" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D62" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E62" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>119.5</v>
+        <v>6584.901599999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2844,22 +2654,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C63" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D63" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E63" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F63" t="n">
-        <v>21.6304</v>
+        <v>6785.2181</v>
       </c>
       <c r="G63" t="n">
-        <v>119.5</v>
+        <v>-200.3165000000045</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2880,22 +2690,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C64" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D64" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E64" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F64" t="n">
-        <v>3.3696</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>119.5</v>
+        <v>-300.3165000000045</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2916,22 +2726,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C65" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D65" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E65" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F65" t="n">
-        <v>4986.0699</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>120</v>
+        <v>-295.3165000000045</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2952,22 +2762,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C66" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D66" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E66" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>946.8235</v>
       </c>
       <c r="G66" t="n">
-        <v>121.5</v>
+        <v>-1242.140000000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2988,22 +2798,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C67" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D67" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E67" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F67" t="n">
-        <v>1959.347107438017</v>
+        <v>8519</v>
       </c>
       <c r="G67" t="n">
-        <v>121.5</v>
+        <v>7276.859999999995</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3024,22 +2834,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G68" t="n">
-        <v>119.5</v>
+        <v>6976.859999999995</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3060,22 +2870,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C69" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D69" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E69" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>22.6483</v>
       </c>
       <c r="G69" t="n">
-        <v>119</v>
+        <v>6954.211699999995</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3096,22 +2906,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C70" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D70" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E70" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" t="n">
-        <v>31550.9609</v>
+        <v>4.3</v>
       </c>
       <c r="G70" t="n">
-        <v>118</v>
+        <v>6958.511699999995</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3132,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D71" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E71" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" t="n">
-        <v>575.7155</v>
+        <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>118</v>
+        <v>6958.511699999995</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3168,22 +2978,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" t="n">
         <v>115</v>
       </c>
       <c r="D72" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E72" t="n">
         <v>115</v>
       </c>
       <c r="F72" t="n">
-        <v>9627.4552</v>
+        <v>300</v>
       </c>
       <c r="G72" t="n">
-        <v>117.5</v>
+        <v>6958.511699999995</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3204,22 +3014,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E73" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F73" t="n">
-        <v>4.3</v>
+        <v>3664.9032</v>
       </c>
       <c r="G73" t="n">
-        <v>115.5</v>
+        <v>3293.608499999995</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3240,10 +3050,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D74" t="n">
         <v>115</v>
@@ -3252,10 +3062,10 @@
         <v>114</v>
       </c>
       <c r="F74" t="n">
-        <v>2475.7591</v>
+        <v>3130.5737</v>
       </c>
       <c r="G74" t="n">
-        <v>115</v>
+        <v>6424.182199999996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3276,22 +3086,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C75" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D75" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E75" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>9193.1389</v>
       </c>
       <c r="G75" t="n">
-        <v>115</v>
+        <v>-2768.956700000004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3312,22 +3122,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C76" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E76" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F76" t="n">
-        <v>1307.2258</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>115.5</v>
+        <v>-2668.956700000004</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3348,22 +3158,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C77" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E77" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="n">
-        <v>115.5</v>
+        <v>-2668.956700000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3384,22 +3194,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D78" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E78" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78" t="n">
-        <v>3809.8578</v>
+        <v>403.1456</v>
       </c>
       <c r="G78" t="n">
-        <v>116</v>
+        <v>-2668.956700000004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3420,22 +3230,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C79" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D79" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E79" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F79" t="n">
-        <v>1957.368</v>
+        <v>505</v>
       </c>
       <c r="G79" t="n">
-        <v>117</v>
+        <v>-2163.956700000004</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3456,22 +3266,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D80" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F80" t="n">
-        <v>283.7936</v>
+        <v>2200</v>
       </c>
       <c r="G80" t="n">
-        <v>117.5</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3492,22 +3302,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C81" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D81" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E81" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>2091.8544</v>
       </c>
       <c r="G81" t="n">
-        <v>117.5</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3528,22 +3338,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D82" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E82" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F82" t="n">
-        <v>537.6319999999999</v>
+        <v>3000</v>
       </c>
       <c r="G82" t="n">
-        <v>118</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3564,22 +3374,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C83" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D83" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E83" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F83" t="n">
-        <v>6348.9378</v>
+        <v>2369.6691</v>
       </c>
       <c r="G83" t="n">
-        <v>117.5</v>
+        <v>-4363.956700000004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3600,22 +3410,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C84" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D84" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E84" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F84" t="n">
         <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>118.5</v>
+        <v>-4358.956700000004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3636,22 +3446,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C85" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D85" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E85" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F85" t="n">
-        <v>208.3486</v>
+        <v>3222.6088</v>
       </c>
       <c r="G85" t="n">
-        <v>119</v>
+        <v>-7581.565500000004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3672,22 +3482,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C86" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D86" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E86" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F86" t="n">
-        <v>329.2834</v>
+        <v>10277.8203</v>
       </c>
       <c r="G86" t="n">
-        <v>117.5</v>
+        <v>-7581.565500000004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3708,22 +3518,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C87" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D87" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E87" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F87" t="n">
-        <v>64.6866</v>
+        <v>3515.9508</v>
       </c>
       <c r="G87" t="n">
-        <v>117</v>
+        <v>-11097.5163</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3744,22 +3554,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C88" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D88" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E88" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="G88" t="n">
-        <v>118</v>
+        <v>-10897.5163</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3780,22 +3590,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C89" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D89" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E89" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F89" t="n">
-        <v>9.2735</v>
+        <v>7067.8203</v>
       </c>
       <c r="G89" t="n">
-        <v>118</v>
+        <v>-10897.5163</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3816,22 +3626,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C90" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D90" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E90" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F90" t="n">
-        <v>84.03361344537815</v>
+        <v>520.9508</v>
       </c>
       <c r="G90" t="n">
-        <v>118</v>
+        <v>-10897.5163</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3852,22 +3662,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C91" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D91" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E91" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F91" t="n">
-        <v>46.0359</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>118.5</v>
+        <v>-10892.5163</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3888,22 +3698,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C92" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D92" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E92" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F92" t="n">
-        <v>3944.6656</v>
+        <v>22</v>
       </c>
       <c r="G92" t="n">
-        <v>118</v>
+        <v>-10914.5163</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3924,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D93" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E93" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F93" t="n">
-        <v>34131.8989</v>
+        <v>5383.9173</v>
       </c>
       <c r="G93" t="n">
-        <v>117.5</v>
+        <v>-10914.5163</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3960,22 +3770,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C94" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D94" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E94" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F94" t="n">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="G94" t="n">
-        <v>117</v>
+        <v>-11066.5163</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3996,22 +3806,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C95" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D95" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E95" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F95" t="n">
-        <v>94.6182</v>
+        <v>9321.3115</v>
       </c>
       <c r="G95" t="n">
-        <v>117</v>
+        <v>-11066.5163</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4032,22 +3842,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" t="n">
         <v>114</v>
       </c>
       <c r="D96" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96" t="n">
         <v>114</v>
       </c>
       <c r="F96" t="n">
-        <v>22401.7695</v>
+        <v>5</v>
       </c>
       <c r="G96" t="n">
-        <v>115.5</v>
+        <v>-11061.5163</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4068,22 +3878,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D97" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E97" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F97" t="n">
-        <v>1769.2185</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>114.5</v>
+        <v>-12061.5163</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4104,22 +3914,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C98" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D98" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E98" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F98" t="n">
-        <v>3843.1217</v>
+        <v>29368.7103</v>
       </c>
       <c r="G98" t="n">
-        <v>114.5</v>
+        <v>-41430.2266</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4140,22 +3950,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C99" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D99" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E99" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F99" t="n">
-        <v>47</v>
+        <v>233.7191</v>
       </c>
       <c r="G99" t="n">
-        <v>114.5</v>
+        <v>-41196.5075</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4176,22 +3986,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C100" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D100" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E100" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F100" t="n">
-        <v>4.2736</v>
+        <v>19283.9393</v>
       </c>
       <c r="G100" t="n">
-        <v>116</v>
+        <v>-60480.4468</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4212,32 +4022,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C101" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D101" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E101" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>10531.1507</v>
       </c>
       <c r="G101" t="n">
-        <v>117</v>
+        <v>-49949.2961</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>111</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4248,32 +4064,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C102" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D102" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E102" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F102" t="n">
         <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>117</v>
+        <v>-49944.2961</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>112</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4284,32 +4106,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C103" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D103" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E103" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>111.3729</v>
       </c>
       <c r="G103" t="n">
-        <v>117</v>
+        <v>-50055.669</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>114</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4320,32 +4148,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C104" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D104" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E104" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F104" t="n">
-        <v>4.5916</v>
+        <v>10318.4049</v>
       </c>
       <c r="G104" t="n">
-        <v>116.5</v>
+        <v>-50055.669</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>113</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4356,32 +4190,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C105" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D105" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E105" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>30.2548</v>
       </c>
       <c r="G105" t="n">
-        <v>116</v>
+        <v>-50085.9238</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>113</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4392,32 +4232,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C106" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D106" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E106" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F106" t="n">
-        <v>1590.2266</v>
+        <v>712.0059</v>
       </c>
       <c r="G106" t="n">
-        <v>116.5</v>
+        <v>-49373.91790000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>112</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4428,32 +4274,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107" t="n">
         <v>115</v>
       </c>
       <c r="D107" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E107" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F107" t="n">
-        <v>239</v>
+        <v>23390.0157</v>
       </c>
       <c r="G107" t="n">
-        <v>116</v>
+        <v>-25983.90220000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>114</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4464,22 +4316,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C108" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D108" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E108" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>26261.9396</v>
       </c>
       <c r="G108" t="n">
-        <v>115.5</v>
+        <v>-52245.84180000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4489,7 +4341,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4512,10 +4368,10 @@
         <v>115</v>
       </c>
       <c r="F109" t="n">
-        <v>222</v>
+        <v>1045.8682</v>
       </c>
       <c r="G109" t="n">
-        <v>115.5</v>
+        <v>-51199.97360000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4525,7 +4381,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4539,19 +4399,19 @@
         <v>116</v>
       </c>
       <c r="C110" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D110" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E110" t="n">
         <v>116</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>4216.7531</v>
       </c>
       <c r="G110" t="n">
-        <v>115.5</v>
+        <v>-46983.22050000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4561,7 +4421,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4572,22 +4436,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C111" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D111" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E111" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F111" t="n">
-        <v>5</v>
+        <v>5813.3412</v>
       </c>
       <c r="G111" t="n">
-        <v>116</v>
+        <v>-41169.87930000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4597,7 +4461,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4608,22 +4476,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C112" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D112" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E112" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>2866.8743</v>
       </c>
       <c r="G112" t="n">
-        <v>116</v>
+        <v>-38303.005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4633,7 +4501,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4644,22 +4516,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C113" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D113" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E113" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>15056.6372</v>
       </c>
       <c r="G113" t="n">
-        <v>116</v>
+        <v>-23246.36780000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4669,7 +4541,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4680,22 +4556,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C114" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D114" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E114" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F114" t="n">
-        <v>5</v>
+        <v>96951.63278281251</v>
       </c>
       <c r="G114" t="n">
-        <v>116</v>
+        <v>73705.2649828125</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4705,7 +4581,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4716,22 +4596,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C115" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D115" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E115" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F115" t="n">
-        <v>535.174075862069</v>
+        <v>18</v>
       </c>
       <c r="G115" t="n">
-        <v>116</v>
+        <v>73687.2649828125</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4741,7 +4621,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4752,35 +4636,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C116" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D116" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E116" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F116" t="n">
-        <v>254.2858</v>
+        <v>421.1546</v>
       </c>
       <c r="G116" t="n">
-        <v>115.5</v>
+        <v>73687.2649828125</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4788,28 +4674,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C117" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D117" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E117" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F117" t="n">
-        <v>5</v>
+        <v>1769.2185</v>
       </c>
       <c r="G117" t="n">
-        <v>115.5</v>
+        <v>71918.0464828125</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4824,28 +4710,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C118" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D118" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E118" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F118" t="n">
-        <v>3703.8689</v>
+        <v>95.9603</v>
       </c>
       <c r="G118" t="n">
-        <v>115.5</v>
+        <v>71822.08618281249</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4860,22 +4746,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C119" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D119" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E119" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F119" t="n">
-        <v>16</v>
+        <v>4.0397</v>
       </c>
       <c r="G119" t="n">
-        <v>115.5</v>
+        <v>71822.08618281249</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4896,22 +4782,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C120" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D120" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E120" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F120" t="n">
-        <v>1212.836924137931</v>
+        <v>1637.7626</v>
       </c>
       <c r="G120" t="n">
-        <v>116</v>
+        <v>71822.08618281249</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4932,22 +4818,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C121" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D121" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E121" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F121" t="n">
-        <v>3684.2588</v>
+        <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>116</v>
+        <v>71827.08618281249</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4968,22 +4854,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D122" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E122" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F122" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="G122" t="n">
-        <v>116</v>
+        <v>71933.08618281249</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5004,28 +4890,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D123" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E123" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F123" t="n">
-        <v>43</v>
+        <v>27436.0323</v>
       </c>
       <c r="G123" t="n">
-        <v>116</v>
+        <v>44497.05388281249</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5040,28 +4926,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C124" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D124" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E124" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F124" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>116</v>
+        <v>44502.05388281249</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5076,28 +4962,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C125" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D125" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E125" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F125" t="n">
-        <v>1527.6949</v>
+        <v>1275.9359</v>
       </c>
       <c r="G125" t="n">
-        <v>116.5</v>
+        <v>44502.05388281249</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5112,28 +4998,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C126" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D126" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E126" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F126" t="n">
-        <v>2036.6435</v>
+        <v>37.9366</v>
       </c>
       <c r="G126" t="n">
-        <v>117.5</v>
+        <v>44464.11728281249</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5148,22 +5034,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C127" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D127" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E127" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F127" t="n">
-        <v>5695.6298</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>117.5</v>
+        <v>44469.11728281249</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5184,22 +5070,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C128" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D128" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E128" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F128" t="n">
-        <v>2935.0414</v>
+        <v>160.6892</v>
       </c>
       <c r="G128" t="n">
-        <v>117.5</v>
+        <v>44469.11728281249</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5223,19 +5109,19 @@
         <v>118</v>
       </c>
       <c r="C129" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D129" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E129" t="n">
         <v>118</v>
       </c>
       <c r="F129" t="n">
-        <v>5</v>
+        <v>4077.2474</v>
       </c>
       <c r="G129" t="n">
-        <v>118</v>
+        <v>40391.86988281249</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5256,22 +5142,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C130" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D130" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E130" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F130" t="n">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="G130" t="n">
-        <v>118.5</v>
+        <v>40396.86988281249</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5292,22 +5178,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C131" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D131" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E131" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F131" t="n">
-        <v>14.2091</v>
+        <v>838.4775</v>
       </c>
       <c r="G131" t="n">
-        <v>118</v>
+        <v>39558.39238281249</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5328,22 +5214,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C132" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D132" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E132" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>385.1198</v>
       </c>
       <c r="G132" t="n">
-        <v>117</v>
+        <v>39943.51218281249</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5376,10 +5262,10 @@
         <v>119</v>
       </c>
       <c r="F133" t="n">
-        <v>2988.3625</v>
+        <v>12</v>
       </c>
       <c r="G133" t="n">
-        <v>118</v>
+        <v>39931.51218281249</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5412,16 +5298,16 @@
         <v>119</v>
       </c>
       <c r="F134" t="n">
-        <v>21626.532</v>
+        <v>21.6304</v>
       </c>
       <c r="G134" t="n">
-        <v>119.5</v>
+        <v>39953.14258281249</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5436,22 +5322,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C135" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D135" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E135" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F135" t="n">
-        <v>9.7051</v>
+        <v>3.3696</v>
       </c>
       <c r="G135" t="n">
-        <v>120</v>
+        <v>39949.77298281249</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5475,19 +5361,19 @@
         <v>119</v>
       </c>
       <c r="C136" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D136" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E136" t="n">
         <v>119</v>
       </c>
       <c r="F136" t="n">
-        <v>19.2678</v>
+        <v>4986.0699</v>
       </c>
       <c r="G136" t="n">
-        <v>119.5</v>
+        <v>44935.8428828125</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5508,22 +5394,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C137" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D137" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E137" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F137" t="n">
-        <v>12490.4852</v>
+        <v>5</v>
       </c>
       <c r="G137" t="n">
-        <v>119</v>
+        <v>44940.8428828125</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5544,22 +5430,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C138" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D138" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E138" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F138" t="n">
-        <v>313.4604</v>
+        <v>1959.347107438017</v>
       </c>
       <c r="G138" t="n">
-        <v>119</v>
+        <v>42981.49577537448</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5592,10 +5478,10 @@
         <v>118</v>
       </c>
       <c r="F139" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>118.5</v>
+        <v>42971.49577537448</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5616,22 +5502,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C140" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D140" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E140" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F140" t="n">
-        <v>12.7574</v>
+        <v>5</v>
       </c>
       <c r="G140" t="n">
-        <v>118</v>
+        <v>42976.49577537448</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5652,22 +5538,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C141" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D141" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E141" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7</v>
+        <v>31550.9609</v>
       </c>
       <c r="G141" t="n">
-        <v>118.5</v>
+        <v>11425.53487537448</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5683,6 +5569,2562 @@
       </c>
       <c r="N141" t="inlineStr"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>116</v>
+      </c>
+      <c r="C142" t="n">
+        <v>120</v>
+      </c>
+      <c r="D142" t="n">
+        <v>120</v>
+      </c>
+      <c r="E142" t="n">
+        <v>116</v>
+      </c>
+      <c r="F142" t="n">
+        <v>575.7155</v>
+      </c>
+      <c r="G142" t="n">
+        <v>12001.25037537448</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>117</v>
+      </c>
+      <c r="C143" t="n">
+        <v>115</v>
+      </c>
+      <c r="D143" t="n">
+        <v>117</v>
+      </c>
+      <c r="E143" t="n">
+        <v>115</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9627.4552</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2373.795175374484</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>116</v>
+      </c>
+      <c r="C144" t="n">
+        <v>116</v>
+      </c>
+      <c r="D144" t="n">
+        <v>116</v>
+      </c>
+      <c r="E144" t="n">
+        <v>116</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2378.095175374484</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>115</v>
+      </c>
+      <c r="C145" t="n">
+        <v>114</v>
+      </c>
+      <c r="D145" t="n">
+        <v>115</v>
+      </c>
+      <c r="E145" t="n">
+        <v>114</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2475.7591</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-97.6639246255163</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>116</v>
+      </c>
+      <c r="C146" t="n">
+        <v>116</v>
+      </c>
+      <c r="D146" t="n">
+        <v>116</v>
+      </c>
+      <c r="E146" t="n">
+        <v>116</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-92.6639246255163</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>115</v>
+      </c>
+      <c r="C147" t="n">
+        <v>115</v>
+      </c>
+      <c r="D147" t="n">
+        <v>115</v>
+      </c>
+      <c r="E147" t="n">
+        <v>115</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1307.2258</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1399.889724625516</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>116</v>
+      </c>
+      <c r="C148" t="n">
+        <v>116</v>
+      </c>
+      <c r="D148" t="n">
+        <v>116</v>
+      </c>
+      <c r="E148" t="n">
+        <v>116</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1394.889724625516</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>115</v>
+      </c>
+      <c r="C149" t="n">
+        <v>116</v>
+      </c>
+      <c r="D149" t="n">
+        <v>116</v>
+      </c>
+      <c r="E149" t="n">
+        <v>115</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3809.8578</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1394.889724625516</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>117</v>
+      </c>
+      <c r="C150" t="n">
+        <v>118</v>
+      </c>
+      <c r="D150" t="n">
+        <v>118</v>
+      </c>
+      <c r="E150" t="n">
+        <v>117</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1957.368</v>
+      </c>
+      <c r="G150" t="n">
+        <v>562.4782753744837</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>117</v>
+      </c>
+      <c r="C151" t="n">
+        <v>117</v>
+      </c>
+      <c r="D151" t="n">
+        <v>117</v>
+      </c>
+      <c r="E151" t="n">
+        <v>117</v>
+      </c>
+      <c r="F151" t="n">
+        <v>283.7936</v>
+      </c>
+      <c r="G151" t="n">
+        <v>278.6846753744837</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>118</v>
+      </c>
+      <c r="C152" t="n">
+        <v>118</v>
+      </c>
+      <c r="D152" t="n">
+        <v>118</v>
+      </c>
+      <c r="E152" t="n">
+        <v>118</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5</v>
+      </c>
+      <c r="G152" t="n">
+        <v>283.6846753744837</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>118</v>
+      </c>
+      <c r="C153" t="n">
+        <v>118</v>
+      </c>
+      <c r="D153" t="n">
+        <v>118</v>
+      </c>
+      <c r="E153" t="n">
+        <v>118</v>
+      </c>
+      <c r="F153" t="n">
+        <v>537.6319999999999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>283.6846753744837</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>117</v>
+      </c>
+      <c r="C154" t="n">
+        <v>117</v>
+      </c>
+      <c r="D154" t="n">
+        <v>117</v>
+      </c>
+      <c r="E154" t="n">
+        <v>117</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6348.9378</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-6065.253124625516</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>120</v>
+      </c>
+      <c r="C155" t="n">
+        <v>120</v>
+      </c>
+      <c r="D155" t="n">
+        <v>120</v>
+      </c>
+      <c r="E155" t="n">
+        <v>120</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-6060.253124625516</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>118</v>
+      </c>
+      <c r="C156" t="n">
+        <v>118</v>
+      </c>
+      <c r="D156" t="n">
+        <v>118</v>
+      </c>
+      <c r="E156" t="n">
+        <v>118</v>
+      </c>
+      <c r="F156" t="n">
+        <v>208.3486</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-6268.601724625516</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>117</v>
+      </c>
+      <c r="C157" t="n">
+        <v>117</v>
+      </c>
+      <c r="D157" t="n">
+        <v>117</v>
+      </c>
+      <c r="E157" t="n">
+        <v>117</v>
+      </c>
+      <c r="F157" t="n">
+        <v>329.2834</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-6597.885124625516</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>117</v>
+      </c>
+      <c r="C158" t="n">
+        <v>117</v>
+      </c>
+      <c r="D158" t="n">
+        <v>117</v>
+      </c>
+      <c r="E158" t="n">
+        <v>117</v>
+      </c>
+      <c r="F158" t="n">
+        <v>64.6866</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-6597.885124625516</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>119</v>
+      </c>
+      <c r="C159" t="n">
+        <v>119</v>
+      </c>
+      <c r="D159" t="n">
+        <v>119</v>
+      </c>
+      <c r="E159" t="n">
+        <v>119</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-6592.885124625516</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>117</v>
+      </c>
+      <c r="C160" t="n">
+        <v>117</v>
+      </c>
+      <c r="D160" t="n">
+        <v>117</v>
+      </c>
+      <c r="E160" t="n">
+        <v>117</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9.2735</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-6602.158624625516</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>119</v>
+      </c>
+      <c r="C161" t="n">
+        <v>119</v>
+      </c>
+      <c r="D161" t="n">
+        <v>119</v>
+      </c>
+      <c r="E161" t="n">
+        <v>119</v>
+      </c>
+      <c r="F161" t="n">
+        <v>84.03361344537815</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-6518.125011180138</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>118</v>
+      </c>
+      <c r="C162" t="n">
+        <v>118</v>
+      </c>
+      <c r="D162" t="n">
+        <v>118</v>
+      </c>
+      <c r="E162" t="n">
+        <v>118</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46.0359</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-6564.160911180138</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>118</v>
+      </c>
+      <c r="C163" t="n">
+        <v>118</v>
+      </c>
+      <c r="D163" t="n">
+        <v>118</v>
+      </c>
+      <c r="E163" t="n">
+        <v>118</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3944.6656</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-6564.160911180138</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>117</v>
+      </c>
+      <c r="C164" t="n">
+        <v>117</v>
+      </c>
+      <c r="D164" t="n">
+        <v>117</v>
+      </c>
+      <c r="E164" t="n">
+        <v>117</v>
+      </c>
+      <c r="F164" t="n">
+        <v>34131.8989</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-40696.05981118014</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>117</v>
+      </c>
+      <c r="C165" t="n">
+        <v>117</v>
+      </c>
+      <c r="D165" t="n">
+        <v>117</v>
+      </c>
+      <c r="E165" t="n">
+        <v>117</v>
+      </c>
+      <c r="F165" t="n">
+        <v>112</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-40696.05981118014</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>117</v>
+      </c>
+      <c r="C166" t="n">
+        <v>117</v>
+      </c>
+      <c r="D166" t="n">
+        <v>117</v>
+      </c>
+      <c r="E166" t="n">
+        <v>117</v>
+      </c>
+      <c r="F166" t="n">
+        <v>94.6182</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-40696.05981118014</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>115</v>
+      </c>
+      <c r="C167" t="n">
+        <v>114</v>
+      </c>
+      <c r="D167" t="n">
+        <v>115</v>
+      </c>
+      <c r="E167" t="n">
+        <v>114</v>
+      </c>
+      <c r="F167" t="n">
+        <v>22401.7695</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-63097.82931118013</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>115</v>
+      </c>
+      <c r="C168" t="n">
+        <v>115</v>
+      </c>
+      <c r="D168" t="n">
+        <v>115</v>
+      </c>
+      <c r="E168" t="n">
+        <v>115</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1769.2185</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-61328.61081118013</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>115</v>
+      </c>
+      <c r="C169" t="n">
+        <v>114</v>
+      </c>
+      <c r="D169" t="n">
+        <v>115</v>
+      </c>
+      <c r="E169" t="n">
+        <v>114</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3843.1217</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-65171.73251118013</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>115</v>
+      </c>
+      <c r="C170" t="n">
+        <v>115</v>
+      </c>
+      <c r="D170" t="n">
+        <v>115</v>
+      </c>
+      <c r="E170" t="n">
+        <v>115</v>
+      </c>
+      <c r="F170" t="n">
+        <v>47</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-65124.73251118013</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>117</v>
+      </c>
+      <c r="C171" t="n">
+        <v>117</v>
+      </c>
+      <c r="D171" t="n">
+        <v>117</v>
+      </c>
+      <c r="E171" t="n">
+        <v>117</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4.2736</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-65120.45891118013</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>117</v>
+      </c>
+      <c r="C172" t="n">
+        <v>117</v>
+      </c>
+      <c r="D172" t="n">
+        <v>117</v>
+      </c>
+      <c r="E172" t="n">
+        <v>117</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-65120.45891118013</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>117</v>
+      </c>
+      <c r="C173" t="n">
+        <v>117</v>
+      </c>
+      <c r="D173" t="n">
+        <v>117</v>
+      </c>
+      <c r="E173" t="n">
+        <v>117</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-65120.45891118013</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>117</v>
+      </c>
+      <c r="C174" t="n">
+        <v>117</v>
+      </c>
+      <c r="D174" t="n">
+        <v>117</v>
+      </c>
+      <c r="E174" t="n">
+        <v>117</v>
+      </c>
+      <c r="F174" t="n">
+        <v>5</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-65120.45891118013</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>116</v>
+      </c>
+      <c r="C175" t="n">
+        <v>116</v>
+      </c>
+      <c r="D175" t="n">
+        <v>116</v>
+      </c>
+      <c r="E175" t="n">
+        <v>116</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4.5916</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-65125.05051118013</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>116</v>
+      </c>
+      <c r="C176" t="n">
+        <v>116</v>
+      </c>
+      <c r="D176" t="n">
+        <v>116</v>
+      </c>
+      <c r="E176" t="n">
+        <v>116</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-65125.05051118013</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>117</v>
+      </c>
+      <c r="C177" t="n">
+        <v>117</v>
+      </c>
+      <c r="D177" t="n">
+        <v>117</v>
+      </c>
+      <c r="E177" t="n">
+        <v>117</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1590.2266</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-63534.82391118013</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>116</v>
+      </c>
+      <c r="C178" t="n">
+        <v>115</v>
+      </c>
+      <c r="D178" t="n">
+        <v>116</v>
+      </c>
+      <c r="E178" t="n">
+        <v>115</v>
+      </c>
+      <c r="F178" t="n">
+        <v>239</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-63773.82391118013</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>116</v>
+      </c>
+      <c r="C179" t="n">
+        <v>116</v>
+      </c>
+      <c r="D179" t="n">
+        <v>116</v>
+      </c>
+      <c r="E179" t="n">
+        <v>116</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-63768.82391118013</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>115</v>
+      </c>
+      <c r="C180" t="n">
+        <v>115</v>
+      </c>
+      <c r="D180" t="n">
+        <v>115</v>
+      </c>
+      <c r="E180" t="n">
+        <v>115</v>
+      </c>
+      <c r="F180" t="n">
+        <v>222</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-63990.82391118013</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>116</v>
+      </c>
+      <c r="C181" t="n">
+        <v>116</v>
+      </c>
+      <c r="D181" t="n">
+        <v>116</v>
+      </c>
+      <c r="E181" t="n">
+        <v>116</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>116</v>
+      </c>
+      <c r="C182" t="n">
+        <v>116</v>
+      </c>
+      <c r="D182" t="n">
+        <v>116</v>
+      </c>
+      <c r="E182" t="n">
+        <v>116</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>116</v>
+      </c>
+      <c r="C183" t="n">
+        <v>116</v>
+      </c>
+      <c r="D183" t="n">
+        <v>116</v>
+      </c>
+      <c r="E183" t="n">
+        <v>116</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>116</v>
+      </c>
+      <c r="C184" t="n">
+        <v>116</v>
+      </c>
+      <c r="D184" t="n">
+        <v>116</v>
+      </c>
+      <c r="E184" t="n">
+        <v>116</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>116</v>
+      </c>
+      <c r="C185" t="n">
+        <v>116</v>
+      </c>
+      <c r="D185" t="n">
+        <v>116</v>
+      </c>
+      <c r="E185" t="n">
+        <v>116</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>116</v>
+      </c>
+      <c r="C186" t="n">
+        <v>116</v>
+      </c>
+      <c r="D186" t="n">
+        <v>116</v>
+      </c>
+      <c r="E186" t="n">
+        <v>116</v>
+      </c>
+      <c r="F186" t="n">
+        <v>535.174075862069</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-63980.82391118013</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>116</v>
+      </c>
+      <c r="C187" t="n">
+        <v>115</v>
+      </c>
+      <c r="D187" t="n">
+        <v>116</v>
+      </c>
+      <c r="E187" t="n">
+        <v>115</v>
+      </c>
+      <c r="F187" t="n">
+        <v>254.2858</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-64235.10971118013</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>116</v>
+      </c>
+      <c r="C188" t="n">
+        <v>116</v>
+      </c>
+      <c r="D188" t="n">
+        <v>116</v>
+      </c>
+      <c r="E188" t="n">
+        <v>116</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-64230.10971118013</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>116</v>
+      </c>
+      <c r="C189" t="n">
+        <v>115</v>
+      </c>
+      <c r="D189" t="n">
+        <v>116</v>
+      </c>
+      <c r="E189" t="n">
+        <v>115</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3703.8689</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-67933.97861118012</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>116</v>
+      </c>
+      <c r="C190" t="n">
+        <v>116</v>
+      </c>
+      <c r="D190" t="n">
+        <v>116</v>
+      </c>
+      <c r="E190" t="n">
+        <v>116</v>
+      </c>
+      <c r="F190" t="n">
+        <v>16</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>116</v>
+      </c>
+      <c r="C191" t="n">
+        <v>116</v>
+      </c>
+      <c r="D191" t="n">
+        <v>116</v>
+      </c>
+      <c r="E191" t="n">
+        <v>116</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1212.836924137931</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>116</v>
+      </c>
+      <c r="C192" t="n">
+        <v>116</v>
+      </c>
+      <c r="D192" t="n">
+        <v>116</v>
+      </c>
+      <c r="E192" t="n">
+        <v>116</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3684.2588</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>116</v>
+      </c>
+      <c r="C193" t="n">
+        <v>116</v>
+      </c>
+      <c r="D193" t="n">
+        <v>116</v>
+      </c>
+      <c r="E193" t="n">
+        <v>116</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>116</v>
+      </c>
+      <c r="C194" t="n">
+        <v>116</v>
+      </c>
+      <c r="D194" t="n">
+        <v>116</v>
+      </c>
+      <c r="E194" t="n">
+        <v>116</v>
+      </c>
+      <c r="F194" t="n">
+        <v>43</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>116</v>
+      </c>
+      <c r="C195" t="n">
+        <v>116</v>
+      </c>
+      <c r="D195" t="n">
+        <v>116</v>
+      </c>
+      <c r="E195" t="n">
+        <v>116</v>
+      </c>
+      <c r="F195" t="n">
+        <v>60</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-67917.97861118012</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>116</v>
+      </c>
+      <c r="C196" t="n">
+        <v>117</v>
+      </c>
+      <c r="D196" t="n">
+        <v>117</v>
+      </c>
+      <c r="E196" t="n">
+        <v>116</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1527.6949</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-66390.28371118012</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>118</v>
+      </c>
+      <c r="C197" t="n">
+        <v>118</v>
+      </c>
+      <c r="D197" t="n">
+        <v>118</v>
+      </c>
+      <c r="E197" t="n">
+        <v>118</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2036.6435</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-64353.64021118012</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>118</v>
+      </c>
+      <c r="C198" t="n">
+        <v>117</v>
+      </c>
+      <c r="D198" t="n">
+        <v>118</v>
+      </c>
+      <c r="E198" t="n">
+        <v>117</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5695.6298</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-70049.27001118012</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>118</v>
+      </c>
+      <c r="C199" t="n">
+        <v>118</v>
+      </c>
+      <c r="D199" t="n">
+        <v>118</v>
+      </c>
+      <c r="E199" t="n">
+        <v>118</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2935.0414</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-67114.22861118012</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>118</v>
+      </c>
+      <c r="C200" t="n">
+        <v>118</v>
+      </c>
+      <c r="D200" t="n">
+        <v>118</v>
+      </c>
+      <c r="E200" t="n">
+        <v>118</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-67114.22861118012</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>119</v>
+      </c>
+      <c r="C201" t="n">
+        <v>119</v>
+      </c>
+      <c r="D201" t="n">
+        <v>119</v>
+      </c>
+      <c r="E201" t="n">
+        <v>119</v>
+      </c>
+      <c r="F201" t="n">
+        <v>195</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-66919.22861118012</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>117</v>
+      </c>
+      <c r="C202" t="n">
+        <v>117</v>
+      </c>
+      <c r="D202" t="n">
+        <v>117</v>
+      </c>
+      <c r="E202" t="n">
+        <v>117</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14.2091</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-66933.43771118012</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>117</v>
+      </c>
+      <c r="C203" t="n">
+        <v>117</v>
+      </c>
+      <c r="D203" t="n">
+        <v>117</v>
+      </c>
+      <c r="E203" t="n">
+        <v>117</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-66933.43771118012</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>119</v>
+      </c>
+      <c r="C204" t="n">
+        <v>119</v>
+      </c>
+      <c r="D204" t="n">
+        <v>119</v>
+      </c>
+      <c r="E204" t="n">
+        <v>119</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2988.3625</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-63945.07521118011</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>119</v>
+      </c>
+      <c r="C205" t="n">
+        <v>120</v>
+      </c>
+      <c r="D205" t="n">
+        <v>120</v>
+      </c>
+      <c r="E205" t="n">
+        <v>119</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21626.532</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-42318.54321118011</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>120</v>
+      </c>
+      <c r="C206" t="n">
+        <v>120</v>
+      </c>
+      <c r="D206" t="n">
+        <v>120</v>
+      </c>
+      <c r="E206" t="n">
+        <v>120</v>
+      </c>
+      <c r="F206" t="n">
+        <v>9.7051</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-42318.54321118011</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>119</v>
+      </c>
+      <c r="C207" t="n">
+        <v>119</v>
+      </c>
+      <c r="D207" t="n">
+        <v>119</v>
+      </c>
+      <c r="E207" t="n">
+        <v>119</v>
+      </c>
+      <c r="F207" t="n">
+        <v>19.2678</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-42337.81101118011</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>119</v>
+      </c>
+      <c r="C208" t="n">
+        <v>119</v>
+      </c>
+      <c r="D208" t="n">
+        <v>119</v>
+      </c>
+      <c r="E208" t="n">
+        <v>119</v>
+      </c>
+      <c r="F208" t="n">
+        <v>12490.4852</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-42337.81101118011</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>119</v>
+      </c>
+      <c r="C209" t="n">
+        <v>119</v>
+      </c>
+      <c r="D209" t="n">
+        <v>119</v>
+      </c>
+      <c r="E209" t="n">
+        <v>119</v>
+      </c>
+      <c r="F209" t="n">
+        <v>313.4604</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-42337.81101118011</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>118</v>
+      </c>
+      <c r="C210" t="n">
+        <v>118</v>
+      </c>
+      <c r="D210" t="n">
+        <v>118</v>
+      </c>
+      <c r="E210" t="n">
+        <v>118</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-42342.81101118011</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>119</v>
+      </c>
+      <c r="C211" t="n">
+        <v>118</v>
+      </c>
+      <c r="D211" t="n">
+        <v>119</v>
+      </c>
+      <c r="E211" t="n">
+        <v>118</v>
+      </c>
+      <c r="F211" t="n">
+        <v>12.7574</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-42342.81101118011</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>119</v>
+      </c>
+      <c r="C212" t="n">
+        <v>119</v>
+      </c>
+      <c r="D212" t="n">
+        <v>119</v>
+      </c>
+      <c r="E212" t="n">
+        <v>119</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-42342.11101118012</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>10444.20749999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>10411.94169999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J3" t="n">
         <v>112</v>
       </c>
-      <c r="K3" t="n">
-        <v>112</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>10414.34169999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J4" t="n">
-        <v>111</v>
-      </c>
-      <c r="K4" t="n">
         <v>112</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>15853.04499999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J5" t="n">
-        <v>113</v>
-      </c>
-      <c r="K5" t="n">
         <v>112</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,18 +603,19 @@
         <v>16716.7575</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J6" t="n">
+        <v>114</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,18 +640,23 @@
         <v>26638.5154</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J7" t="n">
+        <v>114</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,16 +683,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>114</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,16 +722,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,16 +755,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -802,16 +788,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,16 +821,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -874,16 +854,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +887,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -946,16 +920,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,16 +953,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +986,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +1019,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1052,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1085,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1118,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,16 +1151,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,16 +1184,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,16 +1217,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,16 +1250,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1283,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1378,16 +1316,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,16 +1349,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1450,16 +1382,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1415,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1448,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1481,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1514,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1630,16 +1547,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1664,18 +1578,19 @@
         <v>14939.367</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J35" t="n">
+        <v>115</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1700,18 +1615,23 @@
         <v>14944.367</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J36" t="n">
+        <v>115</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1738,16 +1658,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>115</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1774,16 +1697,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1810,16 +1730,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1846,16 +1763,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1882,16 +1796,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1918,16 +1829,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1954,16 +1862,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,16 +1895,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,16 +1928,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,16 +1961,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2098,16 +1994,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,16 +2027,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2170,16 +2060,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2093,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2126,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2159,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2314,16 +2192,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2225,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2386,16 +2258,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2422,16 +2291,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2458,16 +2324,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2357,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2390,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2423,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2602,16 +2456,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2636,18 +2487,19 @@
         <v>6584.901599999996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J62" t="n">
+        <v>114</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,16 +2526,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>114</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,18 +2563,23 @@
         <v>-300.3165000000045</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J64" t="n">
+        <v>114</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,18 +2604,23 @@
         <v>-295.3165000000045</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J65" t="n">
+        <v>114</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,16 +2647,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>114</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +2686,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>114</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2854,16 +2725,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>114</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2890,16 +2764,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>114</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,16 +2803,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2960,18 +2840,23 @@
         <v>6958.511699999995</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J71" t="n">
+        <v>114</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,18 +2881,23 @@
         <v>6958.511699999995</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J72" t="n">
+        <v>114</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3032,18 +2922,23 @@
         <v>3293.608499999995</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J73" t="n">
+        <v>114</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,16 +2965,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>114</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3106,16 +3004,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>114</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,16 +3043,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>114</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3176,18 +3080,23 @@
         <v>-2668.956700000004</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J77" t="n">
+        <v>114</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3212,18 +3121,23 @@
         <v>-2668.956700000004</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J78" t="n">
+        <v>114</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3248,18 +3162,23 @@
         <v>-2163.956700000004</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J79" t="n">
+        <v>114</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,18 +3203,23 @@
         <v>-4363.956700000004</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J80" t="n">
+        <v>114</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3320,18 +3244,23 @@
         <v>-4363.956700000004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J81" t="n">
+        <v>114</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3287,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>114</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3326,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>114</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3428,18 +3363,23 @@
         <v>-4358.956700000004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J84" t="n">
+        <v>114</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3464,18 +3404,23 @@
         <v>-7581.565500000004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J85" t="n">
+        <v>114</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,18 +3445,23 @@
         <v>-7581.565500000004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J86" t="n">
+        <v>114</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,18 +3486,23 @@
         <v>-11097.5163</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J87" t="n">
+        <v>114</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,18 +3527,23 @@
         <v>-10897.5163</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="J88" t="n">
+        <v>114</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3608,18 +3568,23 @@
         <v>-10897.5163</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J89" t="n">
+        <v>114</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,18 +3609,23 @@
         <v>-10897.5163</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J90" t="n">
+        <v>114</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3680,18 +3650,23 @@
         <v>-10892.5163</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J91" t="n">
+        <v>114</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,18 +3691,23 @@
         <v>-10914.5163</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J92" t="n">
+        <v>114</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3752,18 +3732,23 @@
         <v>-10914.5163</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J93" t="n">
+        <v>114</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,18 +3773,23 @@
         <v>-11066.5163</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J94" t="n">
+        <v>114</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3824,18 +3814,23 @@
         <v>-11066.5163</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="J95" t="n">
+        <v>114</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3860,18 +3855,23 @@
         <v>-11061.5163</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="J96" t="n">
+        <v>114</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3896,18 +3896,23 @@
         <v>-12061.5163</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="J97" t="n">
+        <v>114</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,18 +3937,23 @@
         <v>-41430.2266</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="J98" t="n">
+        <v>114</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3968,18 +3978,23 @@
         <v>-41196.5075</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>111</v>
+      </c>
+      <c r="J99" t="n">
+        <v>114</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4004,18 +4019,23 @@
         <v>-60480.4468</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>114</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4040,24 +4060,23 @@
         <v>-49949.2961</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J101" t="n">
-        <v>111</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4082,24 +4101,23 @@
         <v>-49944.2961</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J102" t="n">
-        <v>112</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+        <v>114</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4124,24 +4142,23 @@
         <v>-50055.669</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J103" t="n">
         <v>114</v>
       </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4166,24 +4183,23 @@
         <v>-50055.669</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J104" t="n">
-        <v>113</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+        <v>114</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4208,24 +4224,23 @@
         <v>-50085.9238</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J105" t="n">
-        <v>113</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+        <v>114</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4250,24 +4265,23 @@
         <v>-49373.91790000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J106" t="n">
-        <v>112</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+        <v>114</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4292,24 +4306,23 @@
         <v>-25983.90220000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J107" t="n">
         <v>114</v>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4334,22 +4347,23 @@
         <v>-52245.84180000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+        <v>115</v>
+      </c>
+      <c r="J108" t="n">
+        <v>114</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4374,22 +4388,23 @@
         <v>-51199.97360000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+        <v>114</v>
+      </c>
+      <c r="J109" t="n">
+        <v>114</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4414,22 +4429,23 @@
         <v>-46983.22050000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+        <v>115</v>
+      </c>
+      <c r="J110" t="n">
+        <v>114</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4454,22 +4470,23 @@
         <v>-41169.87930000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+        <v>117</v>
+      </c>
+      <c r="J111" t="n">
+        <v>114</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4496,20 +4513,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>114</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4536,20 +4552,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>114</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4574,22 +4589,23 @@
         <v>73705.2649828125</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>114</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.11780701754386</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>1.063063063063063</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4616,20 +4632,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4656,18 +4665,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L116" t="n">
+        <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4692,18 +4696,15 @@
         <v>71918.0464828125</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4728,18 +4729,15 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4764,18 +4762,15 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4802,16 +4797,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4836,18 +4828,15 @@
         <v>71827.08618281249</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4872,18 +4861,15 @@
         <v>71933.08618281249</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4910,16 +4896,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4946,16 +4929,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4982,16 +4962,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5016,18 +4993,15 @@
         <v>44464.11728281249</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5052,18 +5026,15 @@
         <v>44469.11728281249</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5088,18 +5059,15 @@
         <v>44469.11728281249</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5124,18 +5092,15 @@
         <v>40391.86988281249</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5162,16 +5127,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5198,16 +5160,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5234,16 +5193,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5270,16 +5226,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5306,16 +5259,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5340,18 +5290,15 @@
         <v>39949.77298281249</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5378,16 +5325,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5412,18 +5356,15 @@
         <v>44940.8428828125</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5450,16 +5391,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5484,18 +5422,15 @@
         <v>42971.49577537448</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5522,16 +5457,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5558,16 +5490,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5594,16 +5523,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5628,18 +5554,15 @@
         <v>2373.795175374484</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5666,16 +5589,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5702,16 +5622,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5738,16 +5655,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5774,16 +5688,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5810,16 +5721,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5846,16 +5754,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5882,16 +5787,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5918,16 +5820,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5954,16 +5853,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5990,16 +5886,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6026,16 +5919,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6062,16 +5952,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6098,16 +5985,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6134,16 +6018,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6170,16 +6051,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6206,16 +6084,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6242,16 +6117,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6278,16 +6150,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6314,16 +6183,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6350,16 +6216,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6386,16 +6249,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6422,16 +6282,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6458,16 +6315,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6494,16 +6348,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6530,16 +6381,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6566,16 +6414,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6602,16 +6447,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6638,16 +6480,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6674,16 +6513,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6710,16 +6546,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6746,16 +6579,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6782,16 +6612,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6818,16 +6645,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6854,16 +6678,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6890,16 +6711,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6926,16 +6744,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6962,16 +6777,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6998,16 +6810,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7034,16 +6843,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7070,16 +6876,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7106,16 +6909,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7142,16 +6942,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7178,16 +6975,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7214,16 +7008,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7250,16 +7041,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7286,16 +7074,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7322,16 +7107,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7358,16 +7140,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7394,16 +7173,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7430,16 +7206,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7464,18 +7237,19 @@
         <v>-67917.97861118012</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J194" t="n">
+        <v>116</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7502,16 +7276,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>116</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7536,18 +7313,23 @@
         <v>-66390.28371118012</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J196" t="n">
+        <v>116</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7572,18 +7354,23 @@
         <v>-64353.64021118012</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J197" t="n">
+        <v>116</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7608,18 +7395,23 @@
         <v>-70049.27001118012</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J198" t="n">
+        <v>116</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7644,18 +7436,23 @@
         <v>-67114.22861118012</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J199" t="n">
+        <v>116</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7682,16 +7479,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>116</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7718,16 +7518,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>116</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7754,16 +7557,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>116</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7790,16 +7596,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>116</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7826,16 +7635,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>116</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7862,16 +7674,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>116</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7898,16 +7713,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>116</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7934,16 +7752,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>116</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7970,16 +7791,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>116</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8006,16 +7830,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>116</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8042,16 +7869,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>116</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8078,16 +7908,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>116</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8114,18 +7947,21 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>116</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>10411.94169999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>112</v>
-      </c>
-      <c r="J3" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>10414.34169999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>111</v>
-      </c>
-      <c r="J4" t="n">
-        <v>112</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>15853.04499999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>113</v>
-      </c>
-      <c r="J5" t="n">
-        <v>112</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>16716.7575</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>114</v>
-      </c>
-      <c r="J6" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>26638.5154</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>115</v>
-      </c>
-      <c r="J7" t="n">
-        <v>114</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>114</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1578,14 +1540,10 @@
         <v>14939.367</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>115</v>
-      </c>
-      <c r="J35" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1615,19 +1573,11 @@
         <v>14944.367</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>115</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1659,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>115</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -2487,14 +2431,10 @@
         <v>6584.901599999996</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>114</v>
-      </c>
-      <c r="J62" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
@@ -2527,1552 +2467,1282 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>114</v>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>114</v>
+      </c>
+      <c r="C64" t="n">
+        <v>114</v>
+      </c>
+      <c r="D64" t="n">
+        <v>114</v>
+      </c>
+      <c r="E64" t="n">
+        <v>114</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-300.3165000000045</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>115</v>
+      </c>
+      <c r="C65" t="n">
+        <v>115</v>
+      </c>
+      <c r="D65" t="n">
+        <v>115</v>
+      </c>
+      <c r="E65" t="n">
+        <v>115</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-295.3165000000045</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>114</v>
+      </c>
+      <c r="C66" t="n">
+        <v>114</v>
+      </c>
+      <c r="D66" t="n">
+        <v>114</v>
+      </c>
+      <c r="E66" t="n">
+        <v>114</v>
+      </c>
+      <c r="F66" t="n">
+        <v>946.8235</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1242.140000000004</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>114</v>
+      </c>
+      <c r="C67" t="n">
+        <v>116</v>
+      </c>
+      <c r="D67" t="n">
+        <v>116</v>
+      </c>
+      <c r="E67" t="n">
+        <v>114</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8519</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7276.859999999995</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>115</v>
+      </c>
+      <c r="C68" t="n">
+        <v>115</v>
+      </c>
+      <c r="D68" t="n">
+        <v>115</v>
+      </c>
+      <c r="E68" t="n">
+        <v>115</v>
+      </c>
+      <c r="F68" t="n">
+        <v>300</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6976.859999999995</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>114</v>
+      </c>
+      <c r="C69" t="n">
+        <v>114</v>
+      </c>
+      <c r="D69" t="n">
+        <v>114</v>
+      </c>
+      <c r="E69" t="n">
+        <v>114</v>
+      </c>
+      <c r="F69" t="n">
+        <v>22.6483</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6954.211699999995</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>115</v>
+      </c>
+      <c r="C70" t="n">
+        <v>115</v>
+      </c>
+      <c r="D70" t="n">
+        <v>115</v>
+      </c>
+      <c r="E70" t="n">
+        <v>115</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6958.511699999995</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>115</v>
+      </c>
+      <c r="C71" t="n">
+        <v>115</v>
+      </c>
+      <c r="D71" t="n">
+        <v>115</v>
+      </c>
+      <c r="E71" t="n">
+        <v>115</v>
+      </c>
+      <c r="F71" t="n">
+        <v>300</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6958.511699999995</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>115</v>
+      </c>
+      <c r="C72" t="n">
+        <v>115</v>
+      </c>
+      <c r="D72" t="n">
+        <v>115</v>
+      </c>
+      <c r="E72" t="n">
+        <v>115</v>
+      </c>
+      <c r="F72" t="n">
+        <v>300</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6958.511699999995</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>114</v>
+      </c>
+      <c r="C73" t="n">
+        <v>114</v>
+      </c>
+      <c r="D73" t="n">
+        <v>114</v>
+      </c>
+      <c r="E73" t="n">
+        <v>114</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3664.9032</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3293.608499999995</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>114</v>
+      </c>
+      <c r="C74" t="n">
+        <v>115</v>
+      </c>
+      <c r="D74" t="n">
+        <v>115</v>
+      </c>
+      <c r="E74" t="n">
+        <v>114</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3130.5737</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6424.182199999996</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>113</v>
+      </c>
+      <c r="C75" t="n">
+        <v>113</v>
+      </c>
+      <c r="D75" t="n">
+        <v>113</v>
+      </c>
+      <c r="E75" t="n">
+        <v>113</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9193.1389</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2768.956700000004</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>114</v>
+      </c>
+      <c r="C76" t="n">
+        <v>114</v>
+      </c>
+      <c r="D76" t="n">
+        <v>114</v>
+      </c>
+      <c r="E76" t="n">
+        <v>114</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2668.956700000004</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>114</v>
+      </c>
+      <c r="C77" t="n">
+        <v>114</v>
+      </c>
+      <c r="D77" t="n">
+        <v>114</v>
+      </c>
+      <c r="E77" t="n">
+        <v>114</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-2668.956700000004</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>114</v>
+      </c>
+      <c r="C78" t="n">
+        <v>114</v>
+      </c>
+      <c r="D78" t="n">
+        <v>114</v>
+      </c>
+      <c r="E78" t="n">
+        <v>114</v>
+      </c>
+      <c r="F78" t="n">
+        <v>403.1456</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2668.956700000004</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>114</v>
+      </c>
+      <c r="C79" t="n">
+        <v>115</v>
+      </c>
+      <c r="D79" t="n">
+        <v>115</v>
+      </c>
+      <c r="E79" t="n">
+        <v>114</v>
+      </c>
+      <c r="F79" t="n">
+        <v>505</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-2163.956700000004</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>115</v>
+      </c>
+      <c r="C80" t="n">
+        <v>114</v>
+      </c>
+      <c r="D80" t="n">
+        <v>115</v>
+      </c>
+      <c r="E80" t="n">
+        <v>114</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-4363.956700000004</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>114</v>
+      </c>
+      <c r="C81" t="n">
+        <v>114</v>
+      </c>
+      <c r="D81" t="n">
+        <v>114</v>
+      </c>
+      <c r="E81" t="n">
+        <v>114</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2091.8544</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-4363.956700000004</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>114</v>
+      </c>
+      <c r="C82" t="n">
+        <v>114</v>
+      </c>
+      <c r="D82" t="n">
+        <v>114</v>
+      </c>
+      <c r="E82" t="n">
+        <v>114</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-4363.956700000004</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>114</v>
+      </c>
+      <c r="C83" t="n">
+        <v>114</v>
+      </c>
+      <c r="D83" t="n">
+        <v>114</v>
+      </c>
+      <c r="E83" t="n">
+        <v>114</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2369.6691</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-4363.956700000004</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>115</v>
+      </c>
+      <c r="C84" t="n">
+        <v>115</v>
+      </c>
+      <c r="D84" t="n">
+        <v>115</v>
+      </c>
+      <c r="E84" t="n">
+        <v>115</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-4358.956700000004</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>114</v>
+      </c>
+      <c r="C85" t="n">
+        <v>114</v>
+      </c>
+      <c r="D85" t="n">
+        <v>114</v>
+      </c>
+      <c r="E85" t="n">
+        <v>114</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3222.6088</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-7581.565500000004</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>113</v>
+      </c>
+      <c r="C86" t="n">
+        <v>114</v>
+      </c>
+      <c r="D86" t="n">
+        <v>114</v>
+      </c>
+      <c r="E86" t="n">
+        <v>113</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10277.8203</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-7581.565500000004</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>114</v>
+      </c>
+      <c r="C87" t="n">
+        <v>113</v>
+      </c>
+      <c r="D87" t="n">
+        <v>114</v>
+      </c>
+      <c r="E87" t="n">
+        <v>113</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3515.9508</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-11097.5163</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>114</v>
+      </c>
+      <c r="C88" t="n">
+        <v>114</v>
+      </c>
+      <c r="D88" t="n">
+        <v>114</v>
+      </c>
+      <c r="E88" t="n">
+        <v>114</v>
+      </c>
+      <c r="F88" t="n">
+        <v>200</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-10897.5163</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>114</v>
+      </c>
+      <c r="C89" t="n">
+        <v>114</v>
+      </c>
+      <c r="D89" t="n">
+        <v>114</v>
+      </c>
+      <c r="E89" t="n">
+        <v>114</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7067.8203</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-10897.5163</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>114</v>
+      </c>
+      <c r="C90" t="n">
+        <v>114</v>
+      </c>
+      <c r="D90" t="n">
+        <v>114</v>
+      </c>
+      <c r="E90" t="n">
+        <v>114</v>
+      </c>
+      <c r="F90" t="n">
+        <v>520.9508</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-10897.5163</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>115</v>
+      </c>
+      <c r="C91" t="n">
+        <v>115</v>
+      </c>
+      <c r="D91" t="n">
+        <v>115</v>
+      </c>
+      <c r="E91" t="n">
+        <v>115</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-10892.5163</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>114</v>
+      </c>
+      <c r="C92" t="n">
+        <v>114</v>
+      </c>
+      <c r="D92" t="n">
+        <v>114</v>
+      </c>
+      <c r="E92" t="n">
+        <v>114</v>
+      </c>
+      <c r="F92" t="n">
+        <v>22</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-10914.5163</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>115</v>
+      </c>
+      <c r="C93" t="n">
+        <v>114</v>
+      </c>
+      <c r="D93" t="n">
+        <v>115</v>
+      </c>
+      <c r="E93" t="n">
+        <v>114</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5383.9173</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-10914.5163</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>114</v>
+      </c>
+      <c r="C94" t="n">
+        <v>113</v>
+      </c>
+      <c r="D94" t="n">
+        <v>114</v>
+      </c>
+      <c r="E94" t="n">
+        <v>113</v>
+      </c>
+      <c r="F94" t="n">
+        <v>152</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-11066.5163</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>113</v>
+      </c>
+      <c r="C95" t="n">
+        <v>113</v>
+      </c>
+      <c r="D95" t="n">
+        <v>113</v>
+      </c>
+      <c r="E95" t="n">
+        <v>113</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9321.3115</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-11066.5163</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>114</v>
+      </c>
+      <c r="C96" t="n">
+        <v>114</v>
+      </c>
+      <c r="D96" t="n">
+        <v>114</v>
+      </c>
+      <c r="E96" t="n">
+        <v>114</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-11061.5163</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>113</v>
+      </c>
+      <c r="C97" t="n">
+        <v>113</v>
+      </c>
+      <c r="D97" t="n">
+        <v>113</v>
+      </c>
+      <c r="E97" t="n">
+        <v>113</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-12061.5163</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>112</v>
+      </c>
+      <c r="C98" t="n">
+        <v>111</v>
+      </c>
+      <c r="D98" t="n">
+        <v>112</v>
+      </c>
+      <c r="E98" t="n">
+        <v>111</v>
+      </c>
+      <c r="F98" t="n">
+        <v>29368.7103</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-41430.2266</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>112</v>
+      </c>
+      <c r="C99" t="n">
+        <v>112</v>
+      </c>
+      <c r="D99" t="n">
+        <v>112</v>
+      </c>
+      <c r="E99" t="n">
+        <v>112</v>
+      </c>
+      <c r="F99" t="n">
+        <v>233.7191</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-41196.5075</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>111</v>
+      </c>
+      <c r="J99" t="n">
+        <v>111</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>111</v>
+      </c>
+      <c r="C100" t="n">
+        <v>111</v>
+      </c>
+      <c r="D100" t="n">
+        <v>111</v>
+      </c>
+      <c r="E100" t="n">
+        <v>111</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19283.9393</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-60480.4468</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>111</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>111</v>
+      </c>
+      <c r="C101" t="n">
+        <v>112</v>
+      </c>
+      <c r="D101" t="n">
+        <v>114</v>
+      </c>
+      <c r="E101" t="n">
+        <v>111</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10531.1507</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-49949.2961</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>111</v>
+      </c>
+      <c r="J101" t="n">
+        <v>111</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>114</v>
-      </c>
-      <c r="C64" t="n">
-        <v>114</v>
-      </c>
-      <c r="D64" t="n">
-        <v>114</v>
-      </c>
-      <c r="E64" t="n">
-        <v>114</v>
-      </c>
-      <c r="F64" t="n">
-        <v>100</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-300.3165000000045</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>115</v>
-      </c>
-      <c r="J64" t="n">
-        <v>114</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>115</v>
-      </c>
-      <c r="C65" t="n">
-        <v>115</v>
-      </c>
-      <c r="D65" t="n">
-        <v>115</v>
-      </c>
-      <c r="E65" t="n">
-        <v>115</v>
-      </c>
-      <c r="F65" t="n">
-        <v>5</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-295.3165000000045</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>114</v>
-      </c>
-      <c r="J65" t="n">
-        <v>114</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>114</v>
-      </c>
-      <c r="C66" t="n">
-        <v>114</v>
-      </c>
-      <c r="D66" t="n">
-        <v>114</v>
-      </c>
-      <c r="E66" t="n">
-        <v>114</v>
-      </c>
-      <c r="F66" t="n">
-        <v>946.8235</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1242.140000000004</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>114</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>114</v>
-      </c>
-      <c r="C67" t="n">
-        <v>116</v>
-      </c>
-      <c r="D67" t="n">
-        <v>116</v>
-      </c>
-      <c r="E67" t="n">
-        <v>114</v>
-      </c>
-      <c r="F67" t="n">
-        <v>8519</v>
-      </c>
-      <c r="G67" t="n">
-        <v>7276.859999999995</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>114</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>115</v>
-      </c>
-      <c r="C68" t="n">
-        <v>115</v>
-      </c>
-      <c r="D68" t="n">
-        <v>115</v>
-      </c>
-      <c r="E68" t="n">
-        <v>115</v>
-      </c>
-      <c r="F68" t="n">
-        <v>300</v>
-      </c>
-      <c r="G68" t="n">
-        <v>6976.859999999995</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>114</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>114</v>
-      </c>
-      <c r="C69" t="n">
-        <v>114</v>
-      </c>
-      <c r="D69" t="n">
-        <v>114</v>
-      </c>
-      <c r="E69" t="n">
-        <v>114</v>
-      </c>
-      <c r="F69" t="n">
-        <v>22.6483</v>
-      </c>
-      <c r="G69" t="n">
-        <v>6954.211699999995</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>114</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>115</v>
-      </c>
-      <c r="C70" t="n">
-        <v>115</v>
-      </c>
-      <c r="D70" t="n">
-        <v>115</v>
-      </c>
-      <c r="E70" t="n">
-        <v>115</v>
-      </c>
-      <c r="F70" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G70" t="n">
-        <v>6958.511699999995</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>114</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>115</v>
-      </c>
-      <c r="C71" t="n">
-        <v>115</v>
-      </c>
-      <c r="D71" t="n">
-        <v>115</v>
-      </c>
-      <c r="E71" t="n">
-        <v>115</v>
-      </c>
-      <c r="F71" t="n">
-        <v>300</v>
-      </c>
-      <c r="G71" t="n">
-        <v>6958.511699999995</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>115</v>
-      </c>
-      <c r="J71" t="n">
-        <v>114</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>115</v>
-      </c>
-      <c r="C72" t="n">
-        <v>115</v>
-      </c>
-      <c r="D72" t="n">
-        <v>115</v>
-      </c>
-      <c r="E72" t="n">
-        <v>115</v>
-      </c>
-      <c r="F72" t="n">
-        <v>300</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6958.511699999995</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>115</v>
-      </c>
-      <c r="J72" t="n">
-        <v>114</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>114</v>
-      </c>
-      <c r="C73" t="n">
-        <v>114</v>
-      </c>
-      <c r="D73" t="n">
-        <v>114</v>
-      </c>
-      <c r="E73" t="n">
-        <v>114</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3664.9032</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3293.608499999995</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>115</v>
-      </c>
-      <c r="J73" t="n">
-        <v>114</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>114</v>
-      </c>
-      <c r="C74" t="n">
-        <v>115</v>
-      </c>
-      <c r="D74" t="n">
-        <v>115</v>
-      </c>
-      <c r="E74" t="n">
-        <v>114</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3130.5737</v>
-      </c>
-      <c r="G74" t="n">
-        <v>6424.182199999996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>114</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>113</v>
-      </c>
-      <c r="C75" t="n">
-        <v>113</v>
-      </c>
-      <c r="D75" t="n">
-        <v>113</v>
-      </c>
-      <c r="E75" t="n">
-        <v>113</v>
-      </c>
-      <c r="F75" t="n">
-        <v>9193.1389</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-2768.956700000004</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>114</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>114</v>
-      </c>
-      <c r="C76" t="n">
-        <v>114</v>
-      </c>
-      <c r="D76" t="n">
-        <v>114</v>
-      </c>
-      <c r="E76" t="n">
-        <v>114</v>
-      </c>
-      <c r="F76" t="n">
-        <v>100</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-2668.956700000004</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>114</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>114</v>
-      </c>
-      <c r="C77" t="n">
-        <v>114</v>
-      </c>
-      <c r="D77" t="n">
-        <v>114</v>
-      </c>
-      <c r="E77" t="n">
-        <v>114</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-2668.956700000004</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>114</v>
-      </c>
-      <c r="J77" t="n">
-        <v>114</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>114</v>
-      </c>
-      <c r="C78" t="n">
-        <v>114</v>
-      </c>
-      <c r="D78" t="n">
-        <v>114</v>
-      </c>
-      <c r="E78" t="n">
-        <v>114</v>
-      </c>
-      <c r="F78" t="n">
-        <v>403.1456</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-2668.956700000004</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>114</v>
-      </c>
-      <c r="J78" t="n">
-        <v>114</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>114</v>
-      </c>
-      <c r="C79" t="n">
-        <v>115</v>
-      </c>
-      <c r="D79" t="n">
-        <v>115</v>
-      </c>
-      <c r="E79" t="n">
-        <v>114</v>
-      </c>
-      <c r="F79" t="n">
-        <v>505</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-2163.956700000004</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>114</v>
-      </c>
-      <c r="J79" t="n">
-        <v>114</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>115</v>
-      </c>
-      <c r="C80" t="n">
-        <v>114</v>
-      </c>
-      <c r="D80" t="n">
-        <v>115</v>
-      </c>
-      <c r="E80" t="n">
-        <v>114</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>115</v>
-      </c>
-      <c r="J80" t="n">
-        <v>114</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>114</v>
-      </c>
-      <c r="C81" t="n">
-        <v>114</v>
-      </c>
-      <c r="D81" t="n">
-        <v>114</v>
-      </c>
-      <c r="E81" t="n">
-        <v>114</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2091.8544</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>114</v>
-      </c>
-      <c r="J81" t="n">
-        <v>114</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>114</v>
-      </c>
-      <c r="C82" t="n">
-        <v>114</v>
-      </c>
-      <c r="D82" t="n">
-        <v>114</v>
-      </c>
-      <c r="E82" t="n">
-        <v>114</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>114</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>114</v>
-      </c>
-      <c r="C83" t="n">
-        <v>114</v>
-      </c>
-      <c r="D83" t="n">
-        <v>114</v>
-      </c>
-      <c r="E83" t="n">
-        <v>114</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2369.6691</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>114</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>115</v>
-      </c>
-      <c r="C84" t="n">
-        <v>115</v>
-      </c>
-      <c r="D84" t="n">
-        <v>115</v>
-      </c>
-      <c r="E84" t="n">
-        <v>115</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-4358.956700000004</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>114</v>
-      </c>
-      <c r="J84" t="n">
-        <v>114</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>114</v>
-      </c>
-      <c r="C85" t="n">
-        <v>114</v>
-      </c>
-      <c r="D85" t="n">
-        <v>114</v>
-      </c>
-      <c r="E85" t="n">
-        <v>114</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3222.6088</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-7581.565500000004</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>115</v>
-      </c>
-      <c r="J85" t="n">
-        <v>114</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>113</v>
-      </c>
-      <c r="C86" t="n">
-        <v>114</v>
-      </c>
-      <c r="D86" t="n">
-        <v>114</v>
-      </c>
-      <c r="E86" t="n">
-        <v>113</v>
-      </c>
-      <c r="F86" t="n">
-        <v>10277.8203</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-7581.565500000004</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>114</v>
-      </c>
-      <c r="J86" t="n">
-        <v>114</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>114</v>
-      </c>
-      <c r="C87" t="n">
-        <v>113</v>
-      </c>
-      <c r="D87" t="n">
-        <v>114</v>
-      </c>
-      <c r="E87" t="n">
-        <v>113</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3515.9508</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-11097.5163</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>114</v>
-      </c>
-      <c r="J87" t="n">
-        <v>114</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>114</v>
-      </c>
-      <c r="C88" t="n">
-        <v>114</v>
-      </c>
-      <c r="D88" t="n">
-        <v>114</v>
-      </c>
-      <c r="E88" t="n">
-        <v>114</v>
-      </c>
-      <c r="F88" t="n">
-        <v>200</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-10897.5163</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>113</v>
-      </c>
-      <c r="J88" t="n">
-        <v>114</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>114</v>
-      </c>
-      <c r="C89" t="n">
-        <v>114</v>
-      </c>
-      <c r="D89" t="n">
-        <v>114</v>
-      </c>
-      <c r="E89" t="n">
-        <v>114</v>
-      </c>
-      <c r="F89" t="n">
-        <v>7067.8203</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-10897.5163</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>114</v>
-      </c>
-      <c r="J89" t="n">
-        <v>114</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>114</v>
-      </c>
-      <c r="C90" t="n">
-        <v>114</v>
-      </c>
-      <c r="D90" t="n">
-        <v>114</v>
-      </c>
-      <c r="E90" t="n">
-        <v>114</v>
-      </c>
-      <c r="F90" t="n">
-        <v>520.9508</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-10897.5163</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>114</v>
-      </c>
-      <c r="J90" t="n">
-        <v>114</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>115</v>
-      </c>
-      <c r="C91" t="n">
-        <v>115</v>
-      </c>
-      <c r="D91" t="n">
-        <v>115</v>
-      </c>
-      <c r="E91" t="n">
-        <v>115</v>
-      </c>
-      <c r="F91" t="n">
-        <v>5</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-10892.5163</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>114</v>
-      </c>
-      <c r="J91" t="n">
-        <v>114</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>114</v>
-      </c>
-      <c r="C92" t="n">
-        <v>114</v>
-      </c>
-      <c r="D92" t="n">
-        <v>114</v>
-      </c>
-      <c r="E92" t="n">
-        <v>114</v>
-      </c>
-      <c r="F92" t="n">
-        <v>22</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-10914.5163</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>115</v>
-      </c>
-      <c r="J92" t="n">
-        <v>114</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>115</v>
-      </c>
-      <c r="C93" t="n">
-        <v>114</v>
-      </c>
-      <c r="D93" t="n">
-        <v>115</v>
-      </c>
-      <c r="E93" t="n">
-        <v>114</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5383.9173</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-10914.5163</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>114</v>
-      </c>
-      <c r="J93" t="n">
-        <v>114</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>114</v>
-      </c>
-      <c r="C94" t="n">
-        <v>113</v>
-      </c>
-      <c r="D94" t="n">
-        <v>114</v>
-      </c>
-      <c r="E94" t="n">
-        <v>113</v>
-      </c>
-      <c r="F94" t="n">
-        <v>152</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-11066.5163</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>114</v>
-      </c>
-      <c r="J94" t="n">
-        <v>114</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>113</v>
-      </c>
-      <c r="C95" t="n">
-        <v>113</v>
-      </c>
-      <c r="D95" t="n">
-        <v>113</v>
-      </c>
-      <c r="E95" t="n">
-        <v>113</v>
-      </c>
-      <c r="F95" t="n">
-        <v>9321.3115</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-11066.5163</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>113</v>
-      </c>
-      <c r="J95" t="n">
-        <v>114</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>114</v>
-      </c>
-      <c r="C96" t="n">
-        <v>114</v>
-      </c>
-      <c r="D96" t="n">
-        <v>114</v>
-      </c>
-      <c r="E96" t="n">
-        <v>114</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-11061.5163</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>113</v>
-      </c>
-      <c r="J96" t="n">
-        <v>114</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>113</v>
-      </c>
-      <c r="C97" t="n">
-        <v>113</v>
-      </c>
-      <c r="D97" t="n">
-        <v>113</v>
-      </c>
-      <c r="E97" t="n">
-        <v>113</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-12061.5163</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>114</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>112</v>
-      </c>
-      <c r="C98" t="n">
-        <v>111</v>
-      </c>
-      <c r="D98" t="n">
-        <v>112</v>
-      </c>
-      <c r="E98" t="n">
-        <v>111</v>
-      </c>
-      <c r="F98" t="n">
-        <v>29368.7103</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-41430.2266</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>113</v>
-      </c>
-      <c r="J98" t="n">
-        <v>114</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>112</v>
-      </c>
-      <c r="C99" t="n">
-        <v>112</v>
-      </c>
-      <c r="D99" t="n">
-        <v>112</v>
-      </c>
-      <c r="E99" t="n">
-        <v>112</v>
-      </c>
-      <c r="F99" t="n">
-        <v>233.7191</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-41196.5075</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>114</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>111</v>
-      </c>
-      <c r="C100" t="n">
-        <v>111</v>
-      </c>
-      <c r="D100" t="n">
-        <v>111</v>
-      </c>
-      <c r="E100" t="n">
-        <v>111</v>
-      </c>
-      <c r="F100" t="n">
-        <v>19283.9393</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-60480.4468</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>112</v>
-      </c>
-      <c r="J100" t="n">
-        <v>114</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>111</v>
-      </c>
-      <c r="C101" t="n">
-        <v>112</v>
-      </c>
-      <c r="D101" t="n">
-        <v>114</v>
-      </c>
-      <c r="E101" t="n">
-        <v>111</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10531.1507</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-49949.2961</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>111</v>
-      </c>
-      <c r="J101" t="n">
-        <v>114</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4101,13 +3771,13 @@
         <v>-49944.2961</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>112</v>
       </c>
       <c r="J102" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4142,13 +3812,13 @@
         <v>-50055.669</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>114</v>
       </c>
       <c r="J103" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4183,13 +3853,13 @@
         <v>-50055.669</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>113</v>
       </c>
       <c r="J104" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4224,13 +3894,13 @@
         <v>-50085.9238</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>113</v>
       </c>
       <c r="J105" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4265,13 +3935,13 @@
         <v>-49373.91790000001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>112</v>
       </c>
       <c r="J106" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4306,13 +3976,13 @@
         <v>-25983.90220000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>114</v>
       </c>
       <c r="J107" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4347,13 +4017,13 @@
         <v>-52245.84180000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>115</v>
       </c>
       <c r="J108" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4388,13 +4058,13 @@
         <v>-51199.97360000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>114</v>
       </c>
       <c r="J109" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4429,13 +4099,13 @@
         <v>-46983.22050000001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>115</v>
       </c>
       <c r="J110" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4470,13 +4140,13 @@
         <v>-41169.87930000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>117</v>
       </c>
       <c r="J111" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4515,7 +4185,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4554,7 +4224,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4589,912 +4259,1072 @@
         <v>73705.2649828125</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>128</v>
+      </c>
+      <c r="C115" t="n">
+        <v>124</v>
+      </c>
+      <c r="D115" t="n">
+        <v>128</v>
+      </c>
+      <c r="E115" t="n">
+        <v>123</v>
+      </c>
+      <c r="F115" t="n">
+        <v>18</v>
+      </c>
+      <c r="G115" t="n">
+        <v>73687.2649828125</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>111</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>126</v>
+      </c>
+      <c r="C116" t="n">
+        <v>124</v>
+      </c>
+      <c r="D116" t="n">
+        <v>126</v>
+      </c>
+      <c r="E116" t="n">
+        <v>124</v>
+      </c>
+      <c r="F116" t="n">
+        <v>421.1546</v>
+      </c>
+      <c r="G116" t="n">
+        <v>73687.2649828125</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>111</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>122</v>
+      </c>
+      <c r="C117" t="n">
+        <v>122</v>
+      </c>
+      <c r="D117" t="n">
+        <v>122</v>
+      </c>
+      <c r="E117" t="n">
+        <v>122</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1769.2185</v>
+      </c>
+      <c r="G117" t="n">
+        <v>71918.0464828125</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>111</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>120</v>
+      </c>
+      <c r="C118" t="n">
+        <v>120</v>
+      </c>
+      <c r="D118" t="n">
+        <v>120</v>
+      </c>
+      <c r="E118" t="n">
+        <v>120</v>
+      </c>
+      <c r="F118" t="n">
+        <v>95.9603</v>
+      </c>
+      <c r="G118" t="n">
+        <v>71822.08618281249</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>111</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>120</v>
+      </c>
+      <c r="C119" t="n">
+        <v>120</v>
+      </c>
+      <c r="D119" t="n">
+        <v>120</v>
+      </c>
+      <c r="E119" t="n">
+        <v>120</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4.0397</v>
+      </c>
+      <c r="G119" t="n">
+        <v>71822.08618281249</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>111</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>120</v>
+      </c>
+      <c r="C120" t="n">
+        <v>120</v>
+      </c>
+      <c r="D120" t="n">
+        <v>120</v>
+      </c>
+      <c r="E120" t="n">
+        <v>120</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1637.7626</v>
+      </c>
+      <c r="G120" t="n">
+        <v>71822.08618281249</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>111</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>121</v>
+      </c>
+      <c r="C121" t="n">
+        <v>121</v>
+      </c>
+      <c r="D121" t="n">
+        <v>121</v>
+      </c>
+      <c r="E121" t="n">
+        <v>121</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>71827.08618281249</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>111</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="n">
+        <v>122</v>
+      </c>
+      <c r="D122" t="n">
+        <v>122</v>
+      </c>
+      <c r="E122" t="n">
+        <v>121</v>
+      </c>
+      <c r="F122" t="n">
+        <v>106</v>
+      </c>
+      <c r="G122" t="n">
+        <v>71933.08618281249</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>111</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>118</v>
+      </c>
+      <c r="D123" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="n">
+        <v>118</v>
+      </c>
+      <c r="F123" t="n">
+        <v>27436.0323</v>
+      </c>
+      <c r="G123" t="n">
+        <v>44497.05388281249</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>111</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>121</v>
+      </c>
+      <c r="C124" t="n">
+        <v>121</v>
+      </c>
+      <c r="D124" t="n">
+        <v>121</v>
+      </c>
+      <c r="E124" t="n">
+        <v>121</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>44502.05388281249</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>111</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>121</v>
+      </c>
+      <c r="C125" t="n">
+        <v>121</v>
+      </c>
+      <c r="D125" t="n">
+        <v>121</v>
+      </c>
+      <c r="E125" t="n">
+        <v>121</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1275.9359</v>
+      </c>
+      <c r="G125" t="n">
+        <v>44502.05388281249</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>111</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>119</v>
+      </c>
+      <c r="C126" t="n">
+        <v>119</v>
+      </c>
+      <c r="D126" t="n">
+        <v>119</v>
+      </c>
+      <c r="E126" t="n">
+        <v>119</v>
+      </c>
+      <c r="F126" t="n">
+        <v>37.9366</v>
+      </c>
+      <c r="G126" t="n">
+        <v>44464.11728281249</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>111</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>120</v>
+      </c>
+      <c r="C127" t="n">
+        <v>120</v>
+      </c>
+      <c r="D127" t="n">
+        <v>120</v>
+      </c>
+      <c r="E127" t="n">
+        <v>120</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>44469.11728281249</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>111</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>120</v>
+      </c>
+      <c r="C128" t="n">
+        <v>120</v>
+      </c>
+      <c r="D128" t="n">
+        <v>120</v>
+      </c>
+      <c r="E128" t="n">
+        <v>120</v>
+      </c>
+      <c r="F128" t="n">
+        <v>160.6892</v>
+      </c>
+      <c r="G128" t="n">
+        <v>44469.11728281249</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>111</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>118</v>
+      </c>
+      <c r="C129" t="n">
+        <v>119</v>
+      </c>
+      <c r="D129" t="n">
+        <v>119</v>
+      </c>
+      <c r="E129" t="n">
+        <v>118</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4077.2474</v>
+      </c>
+      <c r="G129" t="n">
+        <v>40391.86988281249</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>111</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>120</v>
+      </c>
+      <c r="C130" t="n">
+        <v>120</v>
+      </c>
+      <c r="D130" t="n">
+        <v>120</v>
+      </c>
+      <c r="E130" t="n">
+        <v>120</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>40396.86988281249</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>111</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>119</v>
+      </c>
+      <c r="C131" t="n">
+        <v>119</v>
+      </c>
+      <c r="D131" t="n">
+        <v>119</v>
+      </c>
+      <c r="E131" t="n">
+        <v>119</v>
+      </c>
+      <c r="F131" t="n">
+        <v>838.4775</v>
+      </c>
+      <c r="G131" t="n">
+        <v>39558.39238281249</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>111</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>119</v>
+      </c>
+      <c r="C132" t="n">
+        <v>120</v>
+      </c>
+      <c r="D132" t="n">
+        <v>120</v>
+      </c>
+      <c r="E132" t="n">
+        <v>119</v>
+      </c>
+      <c r="F132" t="n">
+        <v>385.1198</v>
+      </c>
+      <c r="G132" t="n">
+        <v>39943.51218281249</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>111</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>119</v>
+      </c>
+      <c r="C133" t="n">
+        <v>119</v>
+      </c>
+      <c r="D133" t="n">
+        <v>119</v>
+      </c>
+      <c r="E133" t="n">
+        <v>119</v>
+      </c>
+      <c r="F133" t="n">
+        <v>12</v>
+      </c>
+      <c r="G133" t="n">
+        <v>39931.51218281249</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>111</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>119</v>
+      </c>
+      <c r="C134" t="n">
+        <v>120</v>
+      </c>
+      <c r="D134" t="n">
+        <v>120</v>
+      </c>
+      <c r="E134" t="n">
+        <v>119</v>
+      </c>
+      <c r="F134" t="n">
+        <v>21.6304</v>
+      </c>
+      <c r="G134" t="n">
+        <v>39953.14258281249</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>111</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>119</v>
+      </c>
+      <c r="C135" t="n">
+        <v>119</v>
+      </c>
+      <c r="D135" t="n">
+        <v>119</v>
+      </c>
+      <c r="E135" t="n">
+        <v>119</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.3696</v>
+      </c>
+      <c r="G135" t="n">
+        <v>39949.77298281249</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>111</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>119</v>
+      </c>
+      <c r="C136" t="n">
+        <v>121</v>
+      </c>
+      <c r="D136" t="n">
+        <v>121</v>
+      </c>
+      <c r="E136" t="n">
+        <v>119</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4986.0699</v>
+      </c>
+      <c r="G136" t="n">
+        <v>44935.8428828125</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>111</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>122</v>
+      </c>
+      <c r="C137" t="n">
+        <v>122</v>
+      </c>
+      <c r="D137" t="n">
+        <v>122</v>
+      </c>
+      <c r="E137" t="n">
+        <v>122</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>44940.8428828125</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>111</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>120</v>
+      </c>
+      <c r="C138" t="n">
+        <v>121</v>
+      </c>
+      <c r="D138" t="n">
+        <v>121</v>
+      </c>
+      <c r="E138" t="n">
+        <v>120</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1959.347107438017</v>
+      </c>
+      <c r="G138" t="n">
+        <v>42981.49577537448</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>111</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>118</v>
+      </c>
+      <c r="C139" t="n">
+        <v>118</v>
+      </c>
+      <c r="D139" t="n">
+        <v>118</v>
+      </c>
+      <c r="E139" t="n">
+        <v>118</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>42971.49577537448</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>111</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>120</v>
+      </c>
+      <c r="C140" t="n">
+        <v>120</v>
+      </c>
+      <c r="D140" t="n">
+        <v>120</v>
+      </c>
+      <c r="E140" t="n">
+        <v>120</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>42976.49577537448</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>111</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>118</v>
+      </c>
+      <c r="C141" t="n">
+        <v>116</v>
+      </c>
+      <c r="D141" t="n">
+        <v>118</v>
+      </c>
+      <c r="E141" t="n">
+        <v>116</v>
+      </c>
+      <c r="F141" t="n">
+        <v>31550.9609</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11425.53487537448</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>111</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1.11780701754386</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1.063063063063063</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>128</v>
-      </c>
-      <c r="C115" t="n">
-        <v>124</v>
-      </c>
-      <c r="D115" t="n">
-        <v>128</v>
-      </c>
-      <c r="E115" t="n">
-        <v>123</v>
-      </c>
-      <c r="F115" t="n">
-        <v>18</v>
-      </c>
-      <c r="G115" t="n">
-        <v>73687.2649828125</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>126</v>
-      </c>
-      <c r="C116" t="n">
-        <v>124</v>
-      </c>
-      <c r="D116" t="n">
-        <v>126</v>
-      </c>
-      <c r="E116" t="n">
-        <v>124</v>
-      </c>
-      <c r="F116" t="n">
-        <v>421.1546</v>
-      </c>
-      <c r="G116" t="n">
-        <v>73687.2649828125</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>122</v>
-      </c>
-      <c r="C117" t="n">
-        <v>122</v>
-      </c>
-      <c r="D117" t="n">
-        <v>122</v>
-      </c>
-      <c r="E117" t="n">
-        <v>122</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1769.2185</v>
-      </c>
-      <c r="G117" t="n">
-        <v>71918.0464828125</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>120</v>
-      </c>
-      <c r="C118" t="n">
-        <v>120</v>
-      </c>
-      <c r="D118" t="n">
-        <v>120</v>
-      </c>
-      <c r="E118" t="n">
-        <v>120</v>
-      </c>
-      <c r="F118" t="n">
-        <v>95.9603</v>
-      </c>
-      <c r="G118" t="n">
-        <v>71822.08618281249</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>120</v>
-      </c>
-      <c r="C119" t="n">
-        <v>120</v>
-      </c>
-      <c r="D119" t="n">
-        <v>120</v>
-      </c>
-      <c r="E119" t="n">
-        <v>120</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4.0397</v>
-      </c>
-      <c r="G119" t="n">
-        <v>71822.08618281249</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>120</v>
-      </c>
-      <c r="C120" t="n">
-        <v>120</v>
-      </c>
-      <c r="D120" t="n">
-        <v>120</v>
-      </c>
-      <c r="E120" t="n">
-        <v>120</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1637.7626</v>
-      </c>
-      <c r="G120" t="n">
-        <v>71822.08618281249</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>121</v>
-      </c>
-      <c r="C121" t="n">
-        <v>121</v>
-      </c>
-      <c r="D121" t="n">
-        <v>121</v>
-      </c>
-      <c r="E121" t="n">
-        <v>121</v>
-      </c>
-      <c r="F121" t="n">
-        <v>5</v>
-      </c>
-      <c r="G121" t="n">
-        <v>71827.08618281249</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>121</v>
-      </c>
-      <c r="C122" t="n">
-        <v>122</v>
-      </c>
-      <c r="D122" t="n">
-        <v>122</v>
-      </c>
-      <c r="E122" t="n">
-        <v>121</v>
-      </c>
-      <c r="F122" t="n">
-        <v>106</v>
-      </c>
-      <c r="G122" t="n">
-        <v>71933.08618281249</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>121</v>
-      </c>
-      <c r="C123" t="n">
-        <v>118</v>
-      </c>
-      <c r="D123" t="n">
-        <v>121</v>
-      </c>
-      <c r="E123" t="n">
-        <v>118</v>
-      </c>
-      <c r="F123" t="n">
-        <v>27436.0323</v>
-      </c>
-      <c r="G123" t="n">
-        <v>44497.05388281249</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>121</v>
-      </c>
-      <c r="C124" t="n">
-        <v>121</v>
-      </c>
-      <c r="D124" t="n">
-        <v>121</v>
-      </c>
-      <c r="E124" t="n">
-        <v>121</v>
-      </c>
-      <c r="F124" t="n">
-        <v>5</v>
-      </c>
-      <c r="G124" t="n">
-        <v>44502.05388281249</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>121</v>
-      </c>
-      <c r="C125" t="n">
-        <v>121</v>
-      </c>
-      <c r="D125" t="n">
-        <v>121</v>
-      </c>
-      <c r="E125" t="n">
-        <v>121</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1275.9359</v>
-      </c>
-      <c r="G125" t="n">
-        <v>44502.05388281249</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>119</v>
-      </c>
-      <c r="C126" t="n">
-        <v>119</v>
-      </c>
-      <c r="D126" t="n">
-        <v>119</v>
-      </c>
-      <c r="E126" t="n">
-        <v>119</v>
-      </c>
-      <c r="F126" t="n">
-        <v>37.9366</v>
-      </c>
-      <c r="G126" t="n">
-        <v>44464.11728281249</v>
-      </c>
-      <c r="H126" t="n">
-        <v>3</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>120</v>
-      </c>
-      <c r="C127" t="n">
-        <v>120</v>
-      </c>
-      <c r="D127" t="n">
-        <v>120</v>
-      </c>
-      <c r="E127" t="n">
-        <v>120</v>
-      </c>
-      <c r="F127" t="n">
-        <v>5</v>
-      </c>
-      <c r="G127" t="n">
-        <v>44469.11728281249</v>
-      </c>
-      <c r="H127" t="n">
-        <v>3</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>120</v>
-      </c>
-      <c r="C128" t="n">
-        <v>120</v>
-      </c>
-      <c r="D128" t="n">
-        <v>120</v>
-      </c>
-      <c r="E128" t="n">
-        <v>120</v>
-      </c>
-      <c r="F128" t="n">
-        <v>160.6892</v>
-      </c>
-      <c r="G128" t="n">
-        <v>44469.11728281249</v>
-      </c>
-      <c r="H128" t="n">
-        <v>3</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>118</v>
-      </c>
-      <c r="C129" t="n">
-        <v>119</v>
-      </c>
-      <c r="D129" t="n">
-        <v>119</v>
-      </c>
-      <c r="E129" t="n">
-        <v>118</v>
-      </c>
-      <c r="F129" t="n">
-        <v>4077.2474</v>
-      </c>
-      <c r="G129" t="n">
-        <v>40391.86988281249</v>
-      </c>
-      <c r="H129" t="n">
-        <v>3</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>120</v>
-      </c>
-      <c r="C130" t="n">
-        <v>120</v>
-      </c>
-      <c r="D130" t="n">
-        <v>120</v>
-      </c>
-      <c r="E130" t="n">
-        <v>120</v>
-      </c>
-      <c r="F130" t="n">
-        <v>5</v>
-      </c>
-      <c r="G130" t="n">
-        <v>40396.86988281249</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>119</v>
-      </c>
-      <c r="C131" t="n">
-        <v>119</v>
-      </c>
-      <c r="D131" t="n">
-        <v>119</v>
-      </c>
-      <c r="E131" t="n">
-        <v>119</v>
-      </c>
-      <c r="F131" t="n">
-        <v>838.4775</v>
-      </c>
-      <c r="G131" t="n">
-        <v>39558.39238281249</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>119</v>
-      </c>
-      <c r="C132" t="n">
-        <v>120</v>
-      </c>
-      <c r="D132" t="n">
-        <v>120</v>
-      </c>
-      <c r="E132" t="n">
-        <v>119</v>
-      </c>
-      <c r="F132" t="n">
-        <v>385.1198</v>
-      </c>
-      <c r="G132" t="n">
-        <v>39943.51218281249</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>119</v>
-      </c>
-      <c r="C133" t="n">
-        <v>119</v>
-      </c>
-      <c r="D133" t="n">
-        <v>119</v>
-      </c>
-      <c r="E133" t="n">
-        <v>119</v>
-      </c>
-      <c r="F133" t="n">
-        <v>12</v>
-      </c>
-      <c r="G133" t="n">
-        <v>39931.51218281249</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>119</v>
-      </c>
-      <c r="C134" t="n">
-        <v>120</v>
-      </c>
-      <c r="D134" t="n">
-        <v>120</v>
-      </c>
-      <c r="E134" t="n">
-        <v>119</v>
-      </c>
-      <c r="F134" t="n">
-        <v>21.6304</v>
-      </c>
-      <c r="G134" t="n">
-        <v>39953.14258281249</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>119</v>
-      </c>
-      <c r="C135" t="n">
-        <v>119</v>
-      </c>
-      <c r="D135" t="n">
-        <v>119</v>
-      </c>
-      <c r="E135" t="n">
-        <v>119</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3.3696</v>
-      </c>
-      <c r="G135" t="n">
-        <v>39949.77298281249</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>119</v>
-      </c>
-      <c r="C136" t="n">
-        <v>121</v>
-      </c>
-      <c r="D136" t="n">
-        <v>121</v>
-      </c>
-      <c r="E136" t="n">
-        <v>119</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4986.0699</v>
-      </c>
-      <c r="G136" t="n">
-        <v>44935.8428828125</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>122</v>
-      </c>
-      <c r="C137" t="n">
-        <v>122</v>
-      </c>
-      <c r="D137" t="n">
-        <v>122</v>
-      </c>
-      <c r="E137" t="n">
-        <v>122</v>
-      </c>
-      <c r="F137" t="n">
-        <v>5</v>
-      </c>
-      <c r="G137" t="n">
-        <v>44940.8428828125</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>120</v>
-      </c>
-      <c r="C138" t="n">
-        <v>121</v>
-      </c>
-      <c r="D138" t="n">
-        <v>121</v>
-      </c>
-      <c r="E138" t="n">
-        <v>120</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1959.347107438017</v>
-      </c>
-      <c r="G138" t="n">
-        <v>42981.49577537448</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>118</v>
-      </c>
-      <c r="C139" t="n">
-        <v>118</v>
-      </c>
-      <c r="D139" t="n">
-        <v>118</v>
-      </c>
-      <c r="E139" t="n">
-        <v>118</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>42971.49577537448</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>120</v>
-      </c>
-      <c r="C140" t="n">
-        <v>120</v>
-      </c>
-      <c r="D140" t="n">
-        <v>120</v>
-      </c>
-      <c r="E140" t="n">
-        <v>120</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5</v>
-      </c>
-      <c r="G140" t="n">
-        <v>42976.49577537448</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>118</v>
-      </c>
-      <c r="C141" t="n">
-        <v>116</v>
-      </c>
-      <c r="D141" t="n">
-        <v>118</v>
-      </c>
-      <c r="E141" t="n">
-        <v>116</v>
-      </c>
-      <c r="F141" t="n">
-        <v>31550.9609</v>
-      </c>
-      <c r="G141" t="n">
-        <v>11425.53487537448</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>1.040045045045045</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5554,7 +5384,7 @@
         <v>2373.795175374484</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5884,7 +5714,7 @@
         <v>283.6846753744837</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5917,7 +5747,7 @@
         <v>-6065.253124625516</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5950,7 +5780,7 @@
         <v>-6060.253124625516</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5983,7 +5813,7 @@
         <v>-6268.601724625516</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6016,7 +5846,7 @@
         <v>-6597.885124625516</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6049,7 +5879,7 @@
         <v>-6597.885124625516</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6082,7 +5912,7 @@
         <v>-6592.885124625516</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6115,7 +5945,7 @@
         <v>-6602.158624625516</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6148,7 +5978,7 @@
         <v>-6518.125011180138</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6181,7 +6011,7 @@
         <v>-6564.160911180138</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6214,7 +6044,7 @@
         <v>-6564.160911180138</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6247,7 +6077,7 @@
         <v>-40696.05981118014</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6280,7 +6110,7 @@
         <v>-40696.05981118014</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6313,7 +6143,7 @@
         <v>-40696.05981118014</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6346,7 +6176,7 @@
         <v>-63097.82931118013</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7237,14 +7067,10 @@
         <v>-67917.97861118012</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>116</v>
-      </c>
-      <c r="J194" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
@@ -7277,295 +7103,251 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>116</v>
-      </c>
-      <c r="K195" t="inlineStr">
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>116</v>
+      </c>
+      <c r="C196" t="n">
+        <v>117</v>
+      </c>
+      <c r="D196" t="n">
+        <v>117</v>
+      </c>
+      <c r="E196" t="n">
+        <v>116</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1527.6949</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-66390.28371118012</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>118</v>
+      </c>
+      <c r="C197" t="n">
+        <v>118</v>
+      </c>
+      <c r="D197" t="n">
+        <v>118</v>
+      </c>
+      <c r="E197" t="n">
+        <v>118</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2036.6435</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-64353.64021118012</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>118</v>
+      </c>
+      <c r="C198" t="n">
+        <v>117</v>
+      </c>
+      <c r="D198" t="n">
+        <v>118</v>
+      </c>
+      <c r="E198" t="n">
+        <v>117</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5695.6298</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-70049.27001118012</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>118</v>
+      </c>
+      <c r="C199" t="n">
+        <v>118</v>
+      </c>
+      <c r="D199" t="n">
+        <v>118</v>
+      </c>
+      <c r="E199" t="n">
+        <v>118</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2935.0414</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-67114.22861118012</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>118</v>
+      </c>
+      <c r="C200" t="n">
+        <v>118</v>
+      </c>
+      <c r="D200" t="n">
+        <v>118</v>
+      </c>
+      <c r="E200" t="n">
+        <v>118</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-67114.22861118012</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>119</v>
+      </c>
+      <c r="C201" t="n">
+        <v>119</v>
+      </c>
+      <c r="D201" t="n">
+        <v>119</v>
+      </c>
+      <c r="E201" t="n">
+        <v>119</v>
+      </c>
+      <c r="F201" t="n">
+        <v>195</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-66919.22861118012</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>118</v>
+      </c>
+      <c r="J201" t="n">
+        <v>118</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>117</v>
+      </c>
+      <c r="C202" t="n">
+        <v>117</v>
+      </c>
+      <c r="D202" t="n">
+        <v>117</v>
+      </c>
+      <c r="E202" t="n">
+        <v>117</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14.2091</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-66933.43771118012</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>119</v>
+      </c>
+      <c r="J202" t="n">
+        <v>118</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>116</v>
-      </c>
-      <c r="C196" t="n">
-        <v>117</v>
-      </c>
-      <c r="D196" t="n">
-        <v>117</v>
-      </c>
-      <c r="E196" t="n">
-        <v>116</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1527.6949</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-66390.28371118012</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>116</v>
-      </c>
-      <c r="J196" t="n">
-        <v>116</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>118</v>
-      </c>
-      <c r="C197" t="n">
-        <v>118</v>
-      </c>
-      <c r="D197" t="n">
-        <v>118</v>
-      </c>
-      <c r="E197" t="n">
-        <v>118</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2036.6435</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-64353.64021118012</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>117</v>
-      </c>
-      <c r="J197" t="n">
-        <v>116</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>118</v>
-      </c>
-      <c r="C198" t="n">
-        <v>117</v>
-      </c>
-      <c r="D198" t="n">
-        <v>118</v>
-      </c>
-      <c r="E198" t="n">
-        <v>117</v>
-      </c>
-      <c r="F198" t="n">
-        <v>5695.6298</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-70049.27001118012</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>118</v>
-      </c>
-      <c r="J198" t="n">
-        <v>116</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>118</v>
-      </c>
-      <c r="C199" t="n">
-        <v>118</v>
-      </c>
-      <c r="D199" t="n">
-        <v>118</v>
-      </c>
-      <c r="E199" t="n">
-        <v>118</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2935.0414</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-67114.22861118012</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>117</v>
-      </c>
-      <c r="J199" t="n">
-        <v>116</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>118</v>
-      </c>
-      <c r="C200" t="n">
-        <v>118</v>
-      </c>
-      <c r="D200" t="n">
-        <v>118</v>
-      </c>
-      <c r="E200" t="n">
-        <v>118</v>
-      </c>
-      <c r="F200" t="n">
-        <v>5</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-67114.22861118012</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>116</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>119</v>
-      </c>
-      <c r="C201" t="n">
-        <v>119</v>
-      </c>
-      <c r="D201" t="n">
-        <v>119</v>
-      </c>
-      <c r="E201" t="n">
-        <v>119</v>
-      </c>
-      <c r="F201" t="n">
-        <v>195</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-66919.22861118012</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>116</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>117</v>
-      </c>
-      <c r="C202" t="n">
-        <v>117</v>
-      </c>
-      <c r="D202" t="n">
-        <v>117</v>
-      </c>
-      <c r="E202" t="n">
-        <v>117</v>
-      </c>
-      <c r="F202" t="n">
-        <v>14.2091</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-66933.43771118012</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>116</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +7380,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7633,17 +7415,15 @@
         <v>-63945.07521118011</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>117</v>
+      </c>
       <c r="J204" t="n">
-        <v>116</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7676,11 +7456,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L205" t="n">
@@ -7715,11 +7495,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
@@ -7753,14 +7533,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>116</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7792,14 +7566,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>116</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7831,14 +7599,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>116</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7870,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>116</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7909,14 +7665,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>116</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7948,20 +7698,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>116</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3853,11 +3853,9 @@
         <v>-50055.669</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>111</v>
       </c>
@@ -3935,11 +3933,9 @@
         <v>-49373.91790000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>111</v>
       </c>
@@ -3976,11 +3972,9 @@
         <v>-25983.90220000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>111</v>
       </c>
@@ -4017,11 +4011,9 @@
         <v>-52245.84180000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>111</v>
       </c>
@@ -4058,11 +4050,9 @@
         <v>-51199.97360000001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>111</v>
       </c>
@@ -4099,11 +4089,9 @@
         <v>-46983.22050000001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>111</v>
       </c>
@@ -4140,11 +4128,9 @@
         <v>-41169.87930000001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>111</v>
       </c>
@@ -5156,7 +5142,7 @@
         <v>44940.8428828125</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
@@ -5164,13 +5150,15 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>1.094099099099099</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.063063063063063</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5195,17 +5183,11 @@
         <v>42981.49577537448</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>111</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5234,17 +5216,11 @@
         <v>42971.49577537448</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>111</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5273,17 +5249,11 @@
         <v>42976.49577537448</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>111</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5315,16 +5285,10 @@
         <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>111</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>1.040045045045045</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5351,7 +5315,7 @@
         <v>12001.25037537448</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5384,7 +5348,7 @@
         <v>2373.795175374484</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5417,7 +5381,7 @@
         <v>2378.095175374484</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5450,7 +5414,7 @@
         <v>-97.6639246255163</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5483,7 +5447,7 @@
         <v>-92.6639246255163</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5516,7 +5480,7 @@
         <v>-1399.889724625516</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5549,7 +5513,7 @@
         <v>-1394.889724625516</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5714,7 +5678,7 @@
         <v>283.6846753744837</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5747,7 +5711,7 @@
         <v>-6065.253124625516</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5780,7 +5744,7 @@
         <v>-6060.253124625516</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5813,7 +5777,7 @@
         <v>-6268.601724625516</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5846,7 +5810,7 @@
         <v>-6597.885124625516</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5879,7 +5843,7 @@
         <v>-6597.885124625516</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5912,7 +5876,7 @@
         <v>-6592.885124625516</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5945,7 +5909,7 @@
         <v>-6602.158624625516</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5978,7 +5942,7 @@
         <v>-6518.125011180138</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6011,7 +5975,7 @@
         <v>-6564.160911180138</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6044,7 +6008,7 @@
         <v>-6564.160911180138</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6077,7 +6041,7 @@
         <v>-40696.05981118014</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6110,7 +6074,7 @@
         <v>-40696.05981118014</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6143,7 +6107,7 @@
         <v>-40696.05981118014</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6176,7 +6140,7 @@
         <v>-63097.82931118013</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7298,14 +7262,10 @@
         <v>-66919.22861118012</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>118</v>
-      </c>
-      <c r="J201" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
@@ -7335,19 +7295,11 @@
         <v>-66933.43771118012</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>119</v>
-      </c>
-      <c r="J202" t="n">
-        <v>118</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7379,14 +7331,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>118</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7706,6 +7652,6 @@
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -3652,14 +3652,10 @@
         <v>-41196.5075</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3689,19 +3685,11 @@
         <v>-60480.4468</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>112</v>
-      </c>
-      <c r="J100" t="n">
-        <v>111</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3730,181 +3718,149 @@
         <v>-49949.2961</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>111</v>
-      </c>
-      <c r="J101" t="n">
-        <v>111</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>114</v>
+      </c>
+      <c r="C102" t="n">
+        <v>114</v>
+      </c>
+      <c r="D102" t="n">
+        <v>114</v>
+      </c>
+      <c r="E102" t="n">
+        <v>114</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-49944.2961</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>112</v>
+      </c>
+      <c r="C103" t="n">
+        <v>113</v>
+      </c>
+      <c r="D103" t="n">
+        <v>113</v>
+      </c>
+      <c r="E103" t="n">
+        <v>112</v>
+      </c>
+      <c r="F103" t="n">
+        <v>111.3729</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-50055.669</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>113</v>
+      </c>
+      <c r="C104" t="n">
+        <v>113</v>
+      </c>
+      <c r="D104" t="n">
+        <v>113</v>
+      </c>
+      <c r="E104" t="n">
+        <v>113</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10318.4049</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-50055.669</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>114</v>
+      </c>
+      <c r="C105" t="n">
+        <v>112</v>
+      </c>
+      <c r="D105" t="n">
+        <v>114</v>
+      </c>
+      <c r="E105" t="n">
+        <v>112</v>
+      </c>
+      <c r="F105" t="n">
+        <v>30.2548</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-50085.9238</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>113</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>114</v>
-      </c>
-      <c r="C102" t="n">
-        <v>114</v>
-      </c>
-      <c r="D102" t="n">
-        <v>114</v>
-      </c>
-      <c r="E102" t="n">
-        <v>114</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-49944.2961</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>112</v>
-      </c>
-      <c r="J102" t="n">
-        <v>111</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>112</v>
-      </c>
-      <c r="C103" t="n">
-        <v>113</v>
-      </c>
-      <c r="D103" t="n">
-        <v>113</v>
-      </c>
-      <c r="E103" t="n">
-        <v>112</v>
-      </c>
-      <c r="F103" t="n">
-        <v>111.3729</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-50055.669</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>114</v>
-      </c>
-      <c r="J103" t="n">
-        <v>111</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>113</v>
-      </c>
-      <c r="C104" t="n">
-        <v>113</v>
-      </c>
-      <c r="D104" t="n">
-        <v>113</v>
-      </c>
-      <c r="E104" t="n">
-        <v>113</v>
-      </c>
-      <c r="F104" t="n">
-        <v>10318.4049</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-50055.669</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>111</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>114</v>
-      </c>
-      <c r="C105" t="n">
-        <v>112</v>
-      </c>
-      <c r="D105" t="n">
-        <v>114</v>
-      </c>
-      <c r="E105" t="n">
-        <v>112</v>
-      </c>
-      <c r="F105" t="n">
-        <v>30.2548</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-50085.9238</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>113</v>
-      </c>
-      <c r="J105" t="n">
-        <v>111</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3933,12 +3889,12 @@
         <v>-49373.91790000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>111</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>112</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,12 +3928,12 @@
         <v>-25983.90220000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>111</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>114</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,9 +3970,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>111</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4053,9 +4007,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>111</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,9 +4044,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>111</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,9 +4081,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>111</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,9 +4118,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>111</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,9 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>111</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4248,9 +4192,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>111</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,9 +4229,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>111</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,20 +4263,16 @@
         <v>73687.2649828125</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>111</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4362,17 +4298,11 @@
         <v>71918.0464828125</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>111</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4401,17 +4331,11 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>111</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4440,17 +4364,11 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>111</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4479,17 +4397,11 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>111</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4521,14 +4433,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>111</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4560,14 +4466,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>111</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4596,17 +4496,11 @@
         <v>44497.05388281249</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>111</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4635,17 +4529,11 @@
         <v>44502.05388281249</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>111</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4674,17 +4562,11 @@
         <v>44502.05388281249</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>111</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4713,17 +4595,11 @@
         <v>44464.11728281249</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>111</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4752,17 +4628,11 @@
         <v>44469.11728281249</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>111</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4664,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>111</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4830,17 +4694,11 @@
         <v>40391.86988281249</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>111</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4872,14 +4730,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>111</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4911,14 +4763,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>111</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4950,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>111</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4989,14 +4829,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>111</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5028,14 +4862,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>111</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5064,17 +4892,11 @@
         <v>39949.77298281249</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>111</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +4928,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>111</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5145,20 +4961,12 @@
         <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>111</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>1.094099099099099</v>
-      </c>
-      <c r="M137" t="n">
-        <v>1.063063063063063</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5249,7 +5057,7 @@
         <v>42976.49577537448</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5282,7 +5090,7 @@
         <v>11425.53487537448</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5315,7 +5123,7 @@
         <v>12001.25037537448</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5348,7 +5156,7 @@
         <v>2373.795175374484</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5381,7 +5189,7 @@
         <v>2378.095175374484</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5414,7 +5222,7 @@
         <v>-97.6639246255163</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5447,7 +5255,7 @@
         <v>-92.6639246255163</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5480,7 +5288,7 @@
         <v>-1399.889724625516</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5513,7 +5321,7 @@
         <v>-1394.889724625516</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -7031,10 +6839,14 @@
         <v>-67917.97861118012</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>116</v>
+      </c>
+      <c r="J194" t="n">
+        <v>116</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
@@ -7064,11 +6876,19 @@
         <v>-67917.97861118012</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>116</v>
+      </c>
+      <c r="J195" t="n">
+        <v>116</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +6917,19 @@
         <v>-66390.28371118012</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>116</v>
+      </c>
+      <c r="J196" t="n">
+        <v>116</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +6958,19 @@
         <v>-64353.64021118012</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>117</v>
+      </c>
+      <c r="J197" t="n">
+        <v>116</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +6999,19 @@
         <v>-70049.27001118012</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>118</v>
+      </c>
+      <c r="J198" t="n">
+        <v>116</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7196,11 +7040,19 @@
         <v>-67114.22861118012</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>117</v>
+      </c>
+      <c r="J199" t="n">
+        <v>116</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +7081,19 @@
         <v>-67114.22861118012</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>118</v>
+      </c>
+      <c r="J200" t="n">
+        <v>116</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7262,11 +7122,19 @@
         <v>-66919.22861118012</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>118</v>
+      </c>
+      <c r="J201" t="n">
+        <v>116</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7295,11 +7163,19 @@
         <v>-66933.43771118012</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>119</v>
+      </c>
+      <c r="J202" t="n">
+        <v>116</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7328,11 +7204,19 @@
         <v>-66933.43771118012</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>117</v>
+      </c>
+      <c r="J203" t="n">
+        <v>116</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7367,9 +7251,13 @@
         <v>117</v>
       </c>
       <c r="J204" t="n">
-        <v>117</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7398,15 +7286,17 @@
         <v>-42318.54321118011</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>119</v>
+      </c>
       <c r="J205" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L205" t="n">
@@ -7437,15 +7327,17 @@
         <v>-42318.54321118011</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>120</v>
+      </c>
       <c r="J206" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
@@ -7476,11 +7368,19 @@
         <v>-42337.81101118011</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>120</v>
+      </c>
+      <c r="J207" t="n">
+        <v>116</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7509,11 +7409,19 @@
         <v>-42337.81101118011</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>119</v>
+      </c>
+      <c r="J208" t="n">
+        <v>116</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7542,11 +7450,19 @@
         <v>-42337.81101118011</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>119</v>
+      </c>
+      <c r="J209" t="n">
+        <v>116</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7575,11 +7491,19 @@
         <v>-42342.81101118011</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>119</v>
+      </c>
+      <c r="J210" t="n">
+        <v>116</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7608,11 +7532,19 @@
         <v>-42342.81101118011</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>118</v>
+      </c>
+      <c r="J211" t="n">
+        <v>116</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7641,11 +7573,19 @@
         <v>-42342.11101118012</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>118</v>
+      </c>
+      <c r="J212" t="n">
+        <v>116</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-20 BackTest WOM.xlsx
+++ b/BackTest/2019-11-20 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>338.0521</v>
       </c>
       <c r="G2" t="n">
-        <v>10444.20749999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>32.2658</v>
       </c>
       <c r="G3" t="n">
-        <v>10411.94169999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="I3" t="n">
+        <v>112</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>10414.34169999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>111</v>
+      </c>
+      <c r="I4" t="n">
+        <v>112</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>5438.7033</v>
       </c>
       <c r="G5" t="n">
-        <v>15853.04499999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>112</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,15 @@
         <v>863.7125</v>
       </c>
       <c r="G6" t="n">
-        <v>16716.7575</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,15 @@
         <v>9921.757900000001</v>
       </c>
       <c r="G7" t="n">
-        <v>26638.5154</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +641,15 @@
         <v>9558.137000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>26638.5154</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +671,15 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>26643.5154</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +701,15 @@
         <v>3901.6491</v>
       </c>
       <c r="G10" t="n">
-        <v>30545.1645</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +731,15 @@
         <v>4340.96</v>
       </c>
       <c r="G11" t="n">
-        <v>26204.2045</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +761,15 @@
         <v>944.0213</v>
       </c>
       <c r="G12" t="n">
-        <v>27148.2258</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +791,15 @@
         <v>2216.7528</v>
       </c>
       <c r="G13" t="n">
-        <v>27148.2258</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +821,15 @@
         <v>4351.7939</v>
       </c>
       <c r="G14" t="n">
-        <v>22796.4319</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,15 @@
         <v>110</v>
       </c>
       <c r="G15" t="n">
-        <v>22686.4319</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +881,15 @@
         <v>1632.4917</v>
       </c>
       <c r="G16" t="n">
-        <v>22686.4319</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +911,19 @@
         <v>120</v>
       </c>
       <c r="G17" t="n">
-        <v>22806.4319</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I17" t="n">
+        <v>115</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +945,21 @@
         <v>3800</v>
       </c>
       <c r="G18" t="n">
-        <v>26606.4319</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>115</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +981,21 @@
         <v>91.1233</v>
       </c>
       <c r="G19" t="n">
-        <v>26606.4319</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>115</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1017,15 @@
         <v>1690.6886</v>
       </c>
       <c r="G20" t="n">
-        <v>28297.1205</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1047,15 @@
         <v>1000</v>
       </c>
       <c r="G21" t="n">
-        <v>28297.1205</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1077,15 @@
         <v>4.7603</v>
       </c>
       <c r="G22" t="n">
-        <v>28292.3602</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1107,15 @@
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>28297.3602</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1137,15 @@
         <v>9978.396199999999</v>
       </c>
       <c r="G24" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1167,15 @@
         <v>3319.826</v>
       </c>
       <c r="G25" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1197,15 @@
         <v>1524.9964</v>
       </c>
       <c r="G26" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1227,15 @@
         <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1257,15 @@
         <v>2206.962</v>
       </c>
       <c r="G28" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1287,15 @@
         <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1317,15 @@
         <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1347,15 @@
         <v>384</v>
       </c>
       <c r="G31" t="n">
-        <v>18318.964</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1377,15 @@
         <v>3379.597</v>
       </c>
       <c r="G32" t="n">
-        <v>14939.367</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1407,15 @@
         <v>177.6049</v>
       </c>
       <c r="G33" t="n">
-        <v>14939.367</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1437,19 @@
         <v>260.7334</v>
       </c>
       <c r="G34" t="n">
-        <v>14939.367</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I34" t="n">
+        <v>115</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1471,23 @@
         <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>14939.367</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I35" t="n">
+        <v>115</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1509,23 @@
         <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>14944.367</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I36" t="n">
+        <v>115</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1547,19 @@
         <v>38.7718</v>
       </c>
       <c r="G37" t="n">
-        <v>14905.5952</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I37" t="n">
+        <v>117</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1581,21 @@
         <v>51.097</v>
       </c>
       <c r="G38" t="n">
-        <v>14956.6922</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>117</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1617,21 @@
         <v>229.9351</v>
       </c>
       <c r="G39" t="n">
-        <v>14956.6922</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>117</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1653,15 @@
         <v>5114.607</v>
       </c>
       <c r="G40" t="n">
-        <v>9842.085199999996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1683,15 @@
         <v>854.9216</v>
       </c>
       <c r="G41" t="n">
-        <v>9842.085199999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1713,19 @@
         <v>278.6683</v>
       </c>
       <c r="G42" t="n">
-        <v>9842.085199999996</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I42" t="n">
+        <v>115</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1747,23 @@
         <v>20.7903</v>
       </c>
       <c r="G43" t="n">
-        <v>9842.085199999996</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I43" t="n">
+        <v>115</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1785,23 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>9847.085199999996</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I44" t="n">
+        <v>115</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1823,19 @@
         <v>655.0094</v>
       </c>
       <c r="G45" t="n">
-        <v>9192.075799999995</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I45" t="n">
+        <v>116</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1857,23 @@
         <v>4.3</v>
       </c>
       <c r="G46" t="n">
-        <v>9196.375799999994</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I46" t="n">
+        <v>116</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1895,23 @@
         <v>5839.1929</v>
       </c>
       <c r="G47" t="n">
-        <v>15035.56869999999</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I47" t="n">
+        <v>116</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1933,15 @@
         <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>14035.56869999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1963,19 @@
         <v>5549.4687</v>
       </c>
       <c r="G49" t="n">
-        <v>8486.099999999995</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I49" t="n">
+        <v>116</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1997,23 @@
         <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>8511.099999999995</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I50" t="n">
+        <v>116</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2035,23 @@
         <v>119.3987</v>
       </c>
       <c r="G51" t="n">
-        <v>8391.701299999995</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I51" t="n">
+        <v>116</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2073,23 @@
         <v>5583.0455</v>
       </c>
       <c r="G52" t="n">
-        <v>8391.701299999995</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I52" t="n">
+        <v>116</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2111,23 @@
         <v>14643.1967</v>
       </c>
       <c r="G53" t="n">
-        <v>8391.701299999995</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I53" t="n">
+        <v>116</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2149,21 @@
         <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>8396.701299999995</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>116</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2185,21 @@
         <v>5555</v>
       </c>
       <c r="G55" t="n">
-        <v>8396.701299999995</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>116</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2221,21 @@
         <v>547.0001999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>8396.701299999995</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>116</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2257,21 @@
         <v>1416.0342</v>
       </c>
       <c r="G57" t="n">
-        <v>6980.667099999995</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>116</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2293,21 @@
         <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>6980.667099999995</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>116</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2329,23 @@
         <v>3406.4482</v>
       </c>
       <c r="G59" t="n">
-        <v>6980.667099999995</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I59" t="n">
+        <v>116</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2367,23 @@
         <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>6985.667099999995</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I60" t="n">
+        <v>116</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2405,23 @@
         <v>405.7655</v>
       </c>
       <c r="G61" t="n">
-        <v>6579.901599999996</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I61" t="n">
+        <v>116</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2443,23 @@
         <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>6584.901599999996</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I62" t="n">
+        <v>116</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2481,21 @@
         <v>6785.2181</v>
       </c>
       <c r="G63" t="n">
-        <v>-200.3165000000045</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>116</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2517,21 @@
         <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>-300.3165000000045</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>116</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2553,23 @@
         <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>-295.3165000000045</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I65" t="n">
+        <v>116</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2591,21 @@
         <v>946.8235</v>
       </c>
       <c r="G66" t="n">
-        <v>-1242.140000000004</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>116</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2627,23 @@
         <v>8519</v>
       </c>
       <c r="G67" t="n">
-        <v>7276.859999999995</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I67" t="n">
+        <v>116</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2665,23 @@
         <v>300</v>
       </c>
       <c r="G68" t="n">
-        <v>6976.859999999995</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I68" t="n">
+        <v>116</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2703,23 @@
         <v>22.6483</v>
       </c>
       <c r="G69" t="n">
-        <v>6954.211699999995</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I69" t="n">
+        <v>116</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2741,23 @@
         <v>4.3</v>
       </c>
       <c r="G70" t="n">
-        <v>6958.511699999995</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I70" t="n">
+        <v>116</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2779,23 @@
         <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>6958.511699999995</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I71" t="n">
+        <v>116</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2817,21 @@
         <v>300</v>
       </c>
       <c r="G72" t="n">
-        <v>6958.511699999995</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>116</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2853,21 @@
         <v>3664.9032</v>
       </c>
       <c r="G73" t="n">
-        <v>3293.608499999995</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>116</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2889,21 @@
         <v>3130.5737</v>
       </c>
       <c r="G74" t="n">
-        <v>6424.182199999996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>116</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2925,21 @@
         <v>9193.1389</v>
       </c>
       <c r="G75" t="n">
-        <v>-2768.956700000004</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>116</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2961,23 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>-2668.956700000004</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="I76" t="n">
+        <v>116</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2999,23 @@
         <v>3000</v>
       </c>
       <c r="G77" t="n">
-        <v>-2668.956700000004</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I77" t="n">
+        <v>116</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3037,23 @@
         <v>403.1456</v>
       </c>
       <c r="G78" t="n">
-        <v>-2668.956700000004</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I78" t="n">
+        <v>116</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3075,23 @@
         <v>505</v>
       </c>
       <c r="G79" t="n">
-        <v>-2163.956700000004</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I79" t="n">
+        <v>116</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3113,21 @@
         <v>2200</v>
       </c>
       <c r="G80" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>116</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3149,21 @@
         <v>2091.8544</v>
       </c>
       <c r="G81" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>116</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3185,21 @@
         <v>3000</v>
       </c>
       <c r="G82" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>116</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3221,21 @@
         <v>2369.6691</v>
       </c>
       <c r="G83" t="n">
-        <v>-4363.956700000004</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>116</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3257,21 @@
         <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>-4358.956700000004</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>116</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3293,21 @@
         <v>3222.6088</v>
       </c>
       <c r="G85" t="n">
-        <v>-7581.565500000004</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>116</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3329,21 @@
         <v>10277.8203</v>
       </c>
       <c r="G86" t="n">
-        <v>-7581.565500000004</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>116</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3365,23 @@
         <v>3515.9508</v>
       </c>
       <c r="G87" t="n">
-        <v>-11097.5163</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I87" t="n">
+        <v>116</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3403,21 @@
         <v>200</v>
       </c>
       <c r="G88" t="n">
-        <v>-10897.5163</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>116</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3439,21 @@
         <v>7067.8203</v>
       </c>
       <c r="G89" t="n">
-        <v>-10897.5163</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>116</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3475,21 @@
         <v>520.9508</v>
       </c>
       <c r="G90" t="n">
-        <v>-10897.5163</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>116</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3511,23 @@
         <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>-10892.5163</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I91" t="n">
+        <v>116</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3549,21 @@
         <v>22</v>
       </c>
       <c r="G92" t="n">
-        <v>-10914.5163</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>116</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3585,23 @@
         <v>5383.9173</v>
       </c>
       <c r="G93" t="n">
-        <v>-10914.5163</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I93" t="n">
+        <v>116</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3623,21 @@
         <v>152</v>
       </c>
       <c r="G94" t="n">
-        <v>-11066.5163</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>116</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3659,23 @@
         <v>9321.3115</v>
       </c>
       <c r="G95" t="n">
-        <v>-11066.5163</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="I95" t="n">
+        <v>116</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3697,23 @@
         <v>5</v>
       </c>
       <c r="G96" t="n">
-        <v>-11061.5163</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="I96" t="n">
+        <v>116</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3735,21 @@
         <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>-12061.5163</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>116</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3771,23 @@
         <v>29368.7103</v>
       </c>
       <c r="G98" t="n">
-        <v>-41430.2266</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="I98" t="n">
+        <v>116</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3809,23 @@
         <v>233.7191</v>
       </c>
       <c r="G99" t="n">
-        <v>-41196.5075</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>111</v>
+      </c>
+      <c r="I99" t="n">
+        <v>116</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3847,23 @@
         <v>19283.9393</v>
       </c>
       <c r="G100" t="n">
-        <v>-60480.4468</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="I100" t="n">
+        <v>116</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3885,23 @@
         <v>10531.1507</v>
       </c>
       <c r="G101" t="n">
-        <v>-49949.2961</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>111</v>
+      </c>
+      <c r="I101" t="n">
+        <v>116</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3923,23 @@
         <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>-49944.2961</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="I102" t="n">
+        <v>116</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3961,23 @@
         <v>111.3729</v>
       </c>
       <c r="G103" t="n">
-        <v>-50055.669</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I103" t="n">
+        <v>116</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3999,23 @@
         <v>10318.4049</v>
       </c>
       <c r="G104" t="n">
-        <v>-50055.669</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="I104" t="n">
+        <v>116</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,24 +4037,23 @@
         <v>30.2548</v>
       </c>
       <c r="G105" t="n">
-        <v>-50085.9238</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="I105" t="n">
-        <v>113</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3886,24 +4075,23 @@
         <v>712.0059</v>
       </c>
       <c r="G106" t="n">
-        <v>-49373.91790000001</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="I106" t="n">
-        <v>112</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+        <v>116</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3925,24 +4113,23 @@
         <v>23390.0157</v>
       </c>
       <c r="G107" t="n">
-        <v>-25983.90220000001</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I107" t="n">
-        <v>114</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+        <v>116</v>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3964,22 +4151,23 @@
         <v>26261.9396</v>
       </c>
       <c r="G108" t="n">
-        <v>-52245.84180000001</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+        <v>115</v>
+      </c>
+      <c r="I108" t="n">
+        <v>116</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4001,22 +4189,21 @@
         <v>1045.8682</v>
       </c>
       <c r="G109" t="n">
-        <v>-51199.97360000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>116</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4038,22 +4225,21 @@
         <v>4216.7531</v>
       </c>
       <c r="G110" t="n">
-        <v>-46983.22050000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>116</v>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4075,22 +4261,21 @@
         <v>5813.3412</v>
       </c>
       <c r="G111" t="n">
-        <v>-41169.87930000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>116</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4112,22 +4297,21 @@
         <v>2866.8743</v>
       </c>
       <c r="G112" t="n">
-        <v>-38303.005</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>116</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4149,22 +4333,21 @@
         <v>15056.6372</v>
       </c>
       <c r="G113" t="n">
-        <v>-23246.36780000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>116</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4186,22 +4369,21 @@
         <v>96951.63278281251</v>
       </c>
       <c r="G114" t="n">
-        <v>73705.2649828125</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>116</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4223,22 +4405,21 @@
         <v>18</v>
       </c>
       <c r="G115" t="n">
-        <v>73687.2649828125</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>116</v>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4260,20 +4441,21 @@
         <v>421.1546</v>
       </c>
       <c r="G116" t="n">
-        <v>73687.2649828125</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>116</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
       </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4295,18 +4477,21 @@
         <v>1769.2185</v>
       </c>
       <c r="G117" t="n">
-        <v>71918.0464828125</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>116</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1.046724137931035</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4328,18 +4513,15 @@
         <v>95.9603</v>
       </c>
       <c r="G118" t="n">
-        <v>71822.08618281249</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4361,18 +4543,15 @@
         <v>4.0397</v>
       </c>
       <c r="G119" t="n">
-        <v>71822.08618281249</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4394,18 +4573,15 @@
         <v>1637.7626</v>
       </c>
       <c r="G120" t="n">
-        <v>71822.08618281249</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4427,18 +4603,15 @@
         <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>71827.08618281249</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4460,18 +4633,15 @@
         <v>106</v>
       </c>
       <c r="G122" t="n">
-        <v>71933.08618281249</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4493,18 +4663,15 @@
         <v>27436.0323</v>
       </c>
       <c r="G123" t="n">
-        <v>44497.05388281249</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4526,18 +4693,15 @@
         <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>44502.05388281249</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4559,18 +4723,15 @@
         <v>1275.9359</v>
       </c>
       <c r="G125" t="n">
-        <v>44502.05388281249</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4592,18 +4753,15 @@
         <v>37.9366</v>
       </c>
       <c r="G126" t="n">
-        <v>44464.11728281249</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4625,18 +4783,15 @@
         <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>44469.11728281249</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4658,18 +4813,15 @@
         <v>160.6892</v>
       </c>
       <c r="G128" t="n">
-        <v>44469.11728281249</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4691,18 +4843,15 @@
         <v>4077.2474</v>
       </c>
       <c r="G129" t="n">
-        <v>40391.86988281249</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4724,18 +4873,15 @@
         <v>5</v>
       </c>
       <c r="G130" t="n">
-        <v>40396.86988281249</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4757,18 +4903,15 @@
         <v>838.4775</v>
       </c>
       <c r="G131" t="n">
-        <v>39558.39238281249</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4790,18 +4933,15 @@
         <v>385.1198</v>
       </c>
       <c r="G132" t="n">
-        <v>39943.51218281249</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4823,18 +4963,15 @@
         <v>12</v>
       </c>
       <c r="G133" t="n">
-        <v>39931.51218281249</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4856,18 +4993,15 @@
         <v>21.6304</v>
       </c>
       <c r="G134" t="n">
-        <v>39953.14258281249</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4889,18 +5023,15 @@
         <v>3.3696</v>
       </c>
       <c r="G135" t="n">
-        <v>39949.77298281249</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4922,18 +5053,15 @@
         <v>4986.0699</v>
       </c>
       <c r="G136" t="n">
-        <v>44935.8428828125</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4955,18 +5083,15 @@
         <v>5</v>
       </c>
       <c r="G137" t="n">
-        <v>44940.8428828125</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4988,18 +5113,15 @@
         <v>1959.347107438017</v>
       </c>
       <c r="G138" t="n">
-        <v>42981.49577537448</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5021,18 +5143,15 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>42971.49577537448</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5054,18 +5173,15 @@
         <v>5</v>
       </c>
       <c r="G140" t="n">
-        <v>42976.49577537448</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5087,18 +5203,15 @@
         <v>31550.9609</v>
       </c>
       <c r="G141" t="n">
-        <v>11425.53487537448</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5120,18 +5233,15 @@
         <v>575.7155</v>
       </c>
       <c r="G142" t="n">
-        <v>12001.25037537448</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5153,18 +5263,15 @@
         <v>9627.4552</v>
       </c>
       <c r="G143" t="n">
-        <v>2373.795175374484</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5186,18 +5293,15 @@
         <v>4.3</v>
       </c>
       <c r="G144" t="n">
-        <v>2378.095175374484</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5219,18 +5323,15 @@
         <v>2475.7591</v>
       </c>
       <c r="G145" t="n">
-        <v>-97.6639246255163</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5252,18 +5353,15 @@
         <v>5</v>
       </c>
       <c r="G146" t="n">
-        <v>-92.6639246255163</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5285,18 +5383,15 @@
         <v>1307.2258</v>
       </c>
       <c r="G147" t="n">
-        <v>-1399.889724625516</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5318,18 +5413,15 @@
         <v>5</v>
       </c>
       <c r="G148" t="n">
-        <v>-1394.889724625516</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5351,18 +5443,15 @@
         <v>3809.8578</v>
       </c>
       <c r="G149" t="n">
-        <v>-1394.889724625516</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5384,18 +5473,15 @@
         <v>1957.368</v>
       </c>
       <c r="G150" t="n">
-        <v>562.4782753744837</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5417,18 +5503,15 @@
         <v>283.7936</v>
       </c>
       <c r="G151" t="n">
-        <v>278.6846753744837</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5450,18 +5533,15 @@
         <v>5</v>
       </c>
       <c r="G152" t="n">
-        <v>283.6846753744837</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5483,18 +5563,15 @@
         <v>537.6319999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>283.6846753744837</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5516,18 +5593,15 @@
         <v>6348.9378</v>
       </c>
       <c r="G154" t="n">
-        <v>-6065.253124625516</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5549,18 +5623,15 @@
         <v>5</v>
       </c>
       <c r="G155" t="n">
-        <v>-6060.253124625516</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5582,18 +5653,15 @@
         <v>208.3486</v>
       </c>
       <c r="G156" t="n">
-        <v>-6268.601724625516</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5615,18 +5683,15 @@
         <v>329.2834</v>
       </c>
       <c r="G157" t="n">
-        <v>-6597.885124625516</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5648,18 +5713,15 @@
         <v>64.6866</v>
       </c>
       <c r="G158" t="n">
-        <v>-6597.885124625516</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5681,18 +5743,15 @@
         <v>5</v>
       </c>
       <c r="G159" t="n">
-        <v>-6592.885124625516</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5714,18 +5773,15 @@
         <v>9.2735</v>
       </c>
       <c r="G160" t="n">
-        <v>-6602.158624625516</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5747,18 +5803,15 @@
         <v>84.03361344537815</v>
       </c>
       <c r="G161" t="n">
-        <v>-6518.125011180138</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5780,18 +5833,15 @@
         <v>46.0359</v>
       </c>
       <c r="G162" t="n">
-        <v>-6564.160911180138</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5813,18 +5863,15 @@
         <v>3944.6656</v>
       </c>
       <c r="G163" t="n">
-        <v>-6564.160911180138</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5846,18 +5893,15 @@
         <v>34131.8989</v>
       </c>
       <c r="G164" t="n">
-        <v>-40696.05981118014</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5879,18 +5923,15 @@
         <v>112</v>
       </c>
       <c r="G165" t="n">
-        <v>-40696.05981118014</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5912,18 +5953,15 @@
         <v>94.6182</v>
       </c>
       <c r="G166" t="n">
-        <v>-40696.05981118014</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5945,18 +5983,15 @@
         <v>22401.7695</v>
       </c>
       <c r="G167" t="n">
-        <v>-63097.82931118013</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5978,18 +6013,15 @@
         <v>1769.2185</v>
       </c>
       <c r="G168" t="n">
-        <v>-61328.61081118013</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6011,18 +6043,15 @@
         <v>3843.1217</v>
       </c>
       <c r="G169" t="n">
-        <v>-65171.73251118013</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6044,18 +6073,15 @@
         <v>47</v>
       </c>
       <c r="G170" t="n">
-        <v>-65124.73251118013</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6077,18 +6103,15 @@
         <v>4.2736</v>
       </c>
       <c r="G171" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6110,18 +6133,15 @@
         <v>5</v>
       </c>
       <c r="G172" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6143,18 +6163,15 @@
         <v>5</v>
       </c>
       <c r="G173" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6176,18 +6193,15 @@
         <v>5</v>
       </c>
       <c r="G174" t="n">
-        <v>-65120.45891118013</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6209,18 +6223,15 @@
         <v>4.5916</v>
       </c>
       <c r="G175" t="n">
-        <v>-65125.05051118013</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6242,18 +6253,15 @@
         <v>5</v>
       </c>
       <c r="G176" t="n">
-        <v>-65125.05051118013</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6275,18 +6283,15 @@
         <v>1590.2266</v>
       </c>
       <c r="G177" t="n">
-        <v>-63534.82391118013</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6308,18 +6313,15 @@
         <v>239</v>
       </c>
       <c r="G178" t="n">
-        <v>-63773.82391118013</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6341,18 +6343,15 @@
         <v>5</v>
       </c>
       <c r="G179" t="n">
-        <v>-63768.82391118013</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6374,18 +6373,15 @@
         <v>222</v>
       </c>
       <c r="G180" t="n">
-        <v>-63990.82391118013</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6407,18 +6403,15 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6440,18 +6433,15 @@
         <v>5</v>
       </c>
       <c r="G182" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6473,18 +6463,15 @@
         <v>5</v>
       </c>
       <c r="G183" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6506,18 +6493,15 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6539,18 +6523,15 @@
         <v>5</v>
       </c>
       <c r="G185" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6572,18 +6553,15 @@
         <v>535.174075862069</v>
       </c>
       <c r="G186" t="n">
-        <v>-63980.82391118013</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6605,18 +6583,15 @@
         <v>254.2858</v>
       </c>
       <c r="G187" t="n">
-        <v>-64235.10971118013</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6638,18 +6613,15 @@
         <v>5</v>
       </c>
       <c r="G188" t="n">
-        <v>-64230.10971118013</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6671,18 +6643,15 @@
         <v>3703.8689</v>
       </c>
       <c r="G189" t="n">
-        <v>-67933.97861118012</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6704,18 +6673,15 @@
         <v>16</v>
       </c>
       <c r="G190" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6737,18 +6703,15 @@
         <v>1212.836924137931</v>
       </c>
       <c r="G191" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6770,18 +6733,15 @@
         <v>3684.2588</v>
       </c>
       <c r="G192" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6803,18 +6763,15 @@
         <v>5</v>
       </c>
       <c r="G193" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6836,22 +6793,15 @@
         <v>43</v>
       </c>
       <c r="G194" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>116</v>
-      </c>
-      <c r="J194" t="n">
-        <v>116</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6873,26 +6823,15 @@
         <v>60</v>
       </c>
       <c r="G195" t="n">
-        <v>-67917.97861118012</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>116</v>
-      </c>
-      <c r="J195" t="n">
-        <v>116</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6914,26 +6853,15 @@
         <v>1527.6949</v>
       </c>
       <c r="G196" t="n">
-        <v>-66390.28371118012</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>116</v>
-      </c>
-      <c r="J196" t="n">
-        <v>116</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6955,26 +6883,15 @@
         <v>2036.6435</v>
       </c>
       <c r="G197" t="n">
-        <v>-64353.64021118012</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>117</v>
-      </c>
-      <c r="J197" t="n">
-        <v>116</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6996,26 +6913,15 @@
         <v>5695.6298</v>
       </c>
       <c r="G198" t="n">
-        <v>-70049.27001118012</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>118</v>
-      </c>
-      <c r="J198" t="n">
-        <v>116</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7037,26 +6943,15 @@
         <v>2935.0414</v>
       </c>
       <c r="G199" t="n">
-        <v>-67114.22861118012</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>117</v>
-      </c>
-      <c r="J199" t="n">
-        <v>116</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7078,26 +6973,15 @@
         <v>5</v>
       </c>
       <c r="G200" t="n">
-        <v>-67114.22861118012</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>118</v>
-      </c>
-      <c r="J200" t="n">
-        <v>116</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7119,26 +7003,15 @@
         <v>195</v>
       </c>
       <c r="G201" t="n">
-        <v>-66919.22861118012</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>118</v>
-      </c>
-      <c r="J201" t="n">
-        <v>116</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7160,26 +7033,15 @@
         <v>14.2091</v>
       </c>
       <c r="G202" t="n">
-        <v>-66933.43771118012</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>119</v>
-      </c>
-      <c r="J202" t="n">
-        <v>116</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7201,26 +7063,15 @@
         <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>-66933.43771118012</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>117</v>
-      </c>
-      <c r="J203" t="n">
-        <v>116</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7242,26 +7093,15 @@
         <v>2988.3625</v>
       </c>
       <c r="G204" t="n">
-        <v>-63945.07521118011</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>117</v>
-      </c>
-      <c r="J204" t="n">
-        <v>116</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7283,26 +7123,15 @@
         <v>21626.532</v>
       </c>
       <c r="G205" t="n">
-        <v>-42318.54321118011</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>119</v>
-      </c>
-      <c r="J205" t="n">
-        <v>116</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7324,26 +7153,15 @@
         <v>9.7051</v>
       </c>
       <c r="G206" t="n">
-        <v>-42318.54321118011</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>120</v>
-      </c>
-      <c r="J206" t="n">
-        <v>116</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7365,26 +7183,15 @@
         <v>19.2678</v>
       </c>
       <c r="G207" t="n">
-        <v>-42337.81101118011</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>120</v>
-      </c>
-      <c r="J207" t="n">
-        <v>116</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7406,26 +7213,15 @@
         <v>12490.4852</v>
       </c>
       <c r="G208" t="n">
-        <v>-42337.81101118011</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>119</v>
-      </c>
-      <c r="J208" t="n">
-        <v>116</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7447,26 +7243,15 @@
         <v>313.4604</v>
       </c>
       <c r="G209" t="n">
-        <v>-42337.81101118011</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>119</v>
-      </c>
-      <c r="J209" t="n">
-        <v>116</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7488,26 +7273,15 @@
         <v>5</v>
       </c>
       <c r="G210" t="n">
-        <v>-42342.81101118011</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>119</v>
-      </c>
-      <c r="J210" t="n">
-        <v>116</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7529,26 +7303,15 @@
         <v>12.7574</v>
       </c>
       <c r="G211" t="n">
-        <v>-42342.81101118011</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>118</v>
-      </c>
-      <c r="J211" t="n">
-        <v>116</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7570,26 +7333,15 @@
         <v>0.7</v>
       </c>
       <c r="G212" t="n">
-        <v>-42342.11101118012</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>118</v>
-      </c>
-      <c r="J212" t="n">
-        <v>116</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
